--- a/Tests/Validation/Wheat/Gatton2014_2016.xlsx
+++ b/Tests/Validation/Wheat/Gatton2014_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D9258-E62A-4FDC-A2BA-C600062740DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A470E3C-504C-4DA7-A936-3FC59931F614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="355">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1104,8 +1104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1159,12 +1160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,13 +1481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2727"/>
+  <dimension ref="A1:L2689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2683" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2683" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2344" sqref="M2344"/>
+      <selection pane="bottomRight" activeCell="D2461" sqref="D2461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29478,1328 +29480,1328 @@
       <c r="C2432" t="s">
         <v>330</v>
       </c>
-      <c r="D2432">
-        <v>9.1666666666666607</v>
-      </c>
-      <c r="F2432">
-        <v>42</v>
-      </c>
-      <c r="I2432">
-        <v>64</v>
-      </c>
-      <c r="J2432">
-        <v>83</v>
-      </c>
-      <c r="K2432">
-        <v>91</v>
-      </c>
-      <c r="L2432">
-        <v>133</v>
+      <c r="D2432" s="3">
+        <v>9.0462962962962923</v>
+      </c>
+      <c r="F2432" s="3">
+        <v>43.030549697216429</v>
+      </c>
+      <c r="I2432" s="3">
+        <v>64.022222222222467</v>
+      </c>
+      <c r="J2432" s="3">
+        <v>81.138024691358524</v>
+      </c>
+      <c r="K2432" s="3">
+        <v>88.714285714285509</v>
+      </c>
+      <c r="L2432" s="3">
+        <v>127.55555555555533</v>
       </c>
     </row>
     <row r="2433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2433" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C2433" t="s">
         <v>330</v>
       </c>
-      <c r="D2433">
-        <v>9</v>
-      </c>
-      <c r="F2433">
-        <v>44</v>
-      </c>
-      <c r="I2433">
-        <v>65</v>
-      </c>
-      <c r="J2433">
-        <v>81</v>
-      </c>
-      <c r="K2433">
-        <v>88</v>
-      </c>
-      <c r="L2433">
-        <v>128</v>
+      <c r="D2433" s="3">
+        <v>11.1296296296296</v>
+      </c>
+      <c r="F2433" s="3">
+        <v>53.149407499041899</v>
+      </c>
+      <c r="I2433" s="3">
+        <v>77.458092443618568</v>
+      </c>
+      <c r="J2433" s="3">
+        <v>94.104166666666742</v>
+      </c>
+      <c r="K2433" s="3">
+        <v>101.3125</v>
+      </c>
+      <c r="L2433" s="3">
+        <v>141.35537918871265</v>
       </c>
     </row>
     <row r="2434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2434" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2434" t="s">
         <v>330</v>
       </c>
-      <c r="D2434">
-        <v>8.9722222222222197</v>
-      </c>
-      <c r="F2434">
-        <v>42</v>
-      </c>
-      <c r="I2434">
-        <v>64</v>
-      </c>
-      <c r="J2434">
-        <v>81</v>
-      </c>
-      <c r="K2434">
-        <v>90</v>
-      </c>
-      <c r="L2434">
-        <v>128</v>
+      <c r="D2434" s="3">
+        <v>9.5064814814814795</v>
+      </c>
+      <c r="F2434" s="3">
+        <v>43.282396615730399</v>
+      </c>
+      <c r="I2434" s="3">
+        <v>64.585185185186333</v>
+      </c>
+      <c r="J2434" s="3">
+        <v>83.162500000000037</v>
+      </c>
+      <c r="K2434" s="3">
+        <v>91.364197530864701</v>
+      </c>
+      <c r="L2434" s="3">
+        <v>133.82716049382699</v>
       </c>
     </row>
     <row r="2435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2435" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C2435" t="s">
         <v>330</v>
       </c>
-      <c r="D2435">
-        <v>9.1666666666666607</v>
-      </c>
-      <c r="F2435">
-        <v>42</v>
-      </c>
-      <c r="I2435">
-        <v>63</v>
-      </c>
-      <c r="J2435">
-        <v>81</v>
-      </c>
-      <c r="K2435">
-        <v>88</v>
-      </c>
-      <c r="L2435">
-        <v>127</v>
+      <c r="D2435" s="3">
+        <v>9.6666666666666643</v>
+      </c>
+      <c r="F2435" s="3">
+        <v>42.316929983596729</v>
+      </c>
+      <c r="I2435" s="3">
+        <v>63.327777777778131</v>
+      </c>
+      <c r="J2435" s="3">
+        <v>80.927777777778161</v>
+      </c>
+      <c r="K2435" s="3">
+        <v>90.651851851852015</v>
+      </c>
+      <c r="L2435" s="3">
+        <v>127.35616819827301</v>
       </c>
     </row>
     <row r="2436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2436" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2436" t="s">
         <v>330</v>
       </c>
-      <c r="D2436">
-        <v>11</v>
-      </c>
-      <c r="F2436">
-        <v>54</v>
-      </c>
-      <c r="I2436">
-        <v>81</v>
-      </c>
-      <c r="J2436">
-        <v>94</v>
-      </c>
-      <c r="K2436">
-        <v>103</v>
-      </c>
-      <c r="L2436">
-        <v>146</v>
+      <c r="D2436" s="3">
+        <v>9.7120370370370335</v>
+      </c>
+      <c r="F2436" s="3">
+        <v>43.468013468013304</v>
+      </c>
+      <c r="I2436" s="3">
+        <v>68.049735449734897</v>
+      </c>
+      <c r="J2436" s="3">
+        <v>84.328703703703567</v>
+      </c>
+      <c r="K2436" s="3">
+        <v>90.682954144621306</v>
+      </c>
+      <c r="L2436" s="3">
+        <v>134.54320987654302</v>
       </c>
     </row>
     <row r="2437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2437" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C2437" t="s">
         <v>330</v>
       </c>
-      <c r="D2437">
-        <v>11</v>
-      </c>
-      <c r="F2437">
-        <v>53</v>
-      </c>
-      <c r="I2437">
-        <v>78</v>
-      </c>
-      <c r="J2437">
-        <v>95</v>
-      </c>
-      <c r="K2437">
-        <v>101</v>
-      </c>
-      <c r="L2437">
-        <v>146</v>
+      <c r="D2437" s="3">
+        <v>10.861111111111066</v>
+      </c>
+      <c r="F2437" s="3">
+        <v>65.30797227294191</v>
+      </c>
+      <c r="I2437" s="3">
+        <v>74.698203031536693</v>
+      </c>
+      <c r="J2437" s="3">
+        <v>86.206410256410138</v>
+      </c>
+      <c r="K2437" s="3">
+        <v>91.183862433862728</v>
+      </c>
+      <c r="L2437" s="3">
+        <v>125.58730158730134</v>
       </c>
     </row>
     <row r="2438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2438" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C2438" t="s">
         <v>330</v>
       </c>
-      <c r="D2438">
-        <v>11.5</v>
-      </c>
-      <c r="F2438">
-        <v>53</v>
-      </c>
-      <c r="I2438">
-        <v>76</v>
-      </c>
-      <c r="J2438">
-        <v>94</v>
-      </c>
-      <c r="K2438">
-        <v>101</v>
-      </c>
-      <c r="L2438">
-        <v>138</v>
+      <c r="D2438" s="3">
+        <v>7.85922619047619</v>
+      </c>
+      <c r="F2438" s="3">
+        <v>57.841762004256999</v>
+      </c>
+      <c r="I2438" s="3">
+        <v>67.781803366800943</v>
+      </c>
+      <c r="J2438" s="3">
+        <v>79.104938271605008</v>
+      </c>
+      <c r="K2438" s="3">
+        <v>84.116143540113669</v>
+      </c>
+      <c r="L2438" s="3">
+        <v>124.80402858999268</v>
       </c>
     </row>
     <row r="2439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2439" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C2439" t="s">
         <v>330</v>
       </c>
-      <c r="D2439">
-        <v>10.8888888888888</v>
-      </c>
-      <c r="F2439">
-        <v>53</v>
-      </c>
-      <c r="I2439">
-        <v>78</v>
-      </c>
-      <c r="J2439">
-        <v>94</v>
-      </c>
-      <c r="K2439">
-        <v>101</v>
-      </c>
-      <c r="L2439">
-        <v>140</v>
+      <c r="D2439" s="3">
+        <v>8.2231261022927651</v>
+      </c>
+      <c r="F2439" s="3">
+        <v>57.524963655747733</v>
+      </c>
+      <c r="I2439" s="3">
+        <v>67.409477621229669</v>
+      </c>
+      <c r="J2439" s="3">
+        <v>78.853214686548071</v>
+      </c>
+      <c r="K2439" s="3">
+        <v>83.739543088490265</v>
+      </c>
+      <c r="L2439" s="3">
+        <v>123.711463844796</v>
       </c>
     </row>
     <row r="2440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2440" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C2440" t="s">
         <v>330</v>
       </c>
-      <c r="D2440">
-        <v>9.6111111111111107</v>
-      </c>
-      <c r="F2440">
-        <v>43</v>
-      </c>
-      <c r="I2440">
-        <v>64</v>
-      </c>
-      <c r="J2440">
-        <v>85</v>
-      </c>
-      <c r="K2440">
-        <v>92</v>
-      </c>
-      <c r="L2440">
-        <v>138</v>
+      <c r="D2440" s="3">
+        <v>8.8611111111111072</v>
+      </c>
+      <c r="F2440" s="3">
+        <v>44.412121212120802</v>
+      </c>
+      <c r="I2440" s="3">
+        <v>56.52345679012307</v>
+      </c>
+      <c r="J2440" s="3">
+        <v>70.675925925926066</v>
+      </c>
+      <c r="K2440" s="3">
+        <v>77.717372134038484</v>
+      </c>
+      <c r="L2440" s="3">
+        <v>123.21666666666665</v>
       </c>
     </row>
     <row r="2441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2441" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C2441" t="s">
         <v>330</v>
       </c>
-      <c r="D2441">
-        <v>9.4444444444444393</v>
-      </c>
-      <c r="F2441">
-        <v>43</v>
-      </c>
-      <c r="I2441">
-        <v>66</v>
-      </c>
-      <c r="J2441">
-        <v>83</v>
-      </c>
-      <c r="K2441">
-        <v>93</v>
-      </c>
-      <c r="L2441">
-        <v>137</v>
+      <c r="D2441" s="3">
+        <v>10.518518518518468</v>
+      </c>
+      <c r="F2441" s="3">
+        <v>56.315939153439025</v>
+      </c>
+      <c r="I2441" s="3">
+        <v>71.220202020201896</v>
+      </c>
+      <c r="J2441" s="3">
+        <v>85.820370370370298</v>
+      </c>
+      <c r="K2441" s="3">
+        <v>91.881018518518488</v>
+      </c>
+      <c r="L2441" s="3">
+        <v>137.91033138401534</v>
       </c>
     </row>
     <row r="2442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2442" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C2442" t="s">
         <v>330</v>
       </c>
-      <c r="D2442">
-        <v>9.75</v>
-      </c>
-      <c r="F2442">
-        <v>43</v>
-      </c>
-      <c r="I2442">
-        <v>64</v>
-      </c>
-      <c r="J2442">
-        <v>83</v>
-      </c>
-      <c r="K2442">
-        <v>91</v>
-      </c>
-      <c r="L2442">
-        <v>132</v>
+      <c r="D2442" s="3">
+        <v>9.2407407407407369</v>
+      </c>
+      <c r="F2442" s="3">
+        <v>49.605068316534165</v>
+      </c>
+      <c r="I2442" s="3">
+        <v>60.183660540239771</v>
+      </c>
+      <c r="J2442" s="3">
+        <v>74.857037037037301</v>
+      </c>
+      <c r="K2442" s="3">
+        <v>82.721897335931999</v>
+      </c>
+      <c r="L2442" s="3">
+        <v>132.14406386336134</v>
       </c>
     </row>
     <row r="2443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2443" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C2443" t="s">
         <v>330</v>
       </c>
-      <c r="D2443">
-        <v>9.3249999999999993</v>
-      </c>
-      <c r="F2443">
-        <v>43</v>
-      </c>
-      <c r="I2443">
-        <v>63</v>
-      </c>
-      <c r="J2443">
-        <v>84</v>
-      </c>
-      <c r="K2443">
-        <v>91</v>
-      </c>
-      <c r="L2443">
-        <v>133</v>
+      <c r="D2443" s="3">
+        <v>9.2222222222222179</v>
+      </c>
+      <c r="F2443" s="3">
+        <v>44.59715099715087</v>
+      </c>
+      <c r="I2443" s="3">
+        <v>56.218518518518728</v>
+      </c>
+      <c r="J2443" s="3">
+        <v>69.5138888888888</v>
+      </c>
+      <c r="K2443" s="3">
+        <v>78.056327160493993</v>
+      </c>
+      <c r="L2443" s="3">
+        <v>122.02530864197502</v>
       </c>
     </row>
     <row r="2444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2444" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C2444" t="s">
         <v>330</v>
       </c>
-      <c r="D2444">
-        <v>9.75</v>
-      </c>
-      <c r="F2444">
-        <v>42</v>
-      </c>
-      <c r="I2444">
-        <v>62</v>
-      </c>
-      <c r="J2444">
-        <v>80</v>
-      </c>
-      <c r="K2444">
-        <v>90</v>
-      </c>
-      <c r="L2444">
-        <v>128</v>
+      <c r="D2444" s="3">
+        <v>9.2037037037037006</v>
+      </c>
+      <c r="F2444" s="3">
+        <v>44.825150158483034</v>
+      </c>
+      <c r="I2444" s="3">
+        <v>57.829629629629437</v>
+      </c>
+      <c r="J2444" s="3">
+        <v>72.824814814814502</v>
+      </c>
+      <c r="K2444" s="3">
+        <v>79.697222222222038</v>
+      </c>
+      <c r="L2444" s="3">
+        <v>129.22398589065267</v>
       </c>
     </row>
     <row r="2445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2445" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="C2445" t="s">
         <v>330</v>
       </c>
-      <c r="D2445">
-        <v>9.8333333333333304</v>
+      <c r="D2445" t="s">
+        <v>337</v>
       </c>
       <c r="F2445">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I2445">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2445">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K2445">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L2445">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2446" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="C2446" t="s">
         <v>330</v>
       </c>
-      <c r="D2446">
-        <v>9.4166666666666607</v>
+      <c r="D2446" t="s">
+        <v>337</v>
       </c>
       <c r="F2446">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2446">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J2446">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K2446">
-        <v>91</v>
-      </c>
-      <c r="L2446">
-        <v>126</v>
+        <v>63</v>
+      </c>
+      <c r="L2446" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2447" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C2447" t="s">
         <v>330</v>
       </c>
-      <c r="D2447">
-        <v>9.5</v>
+      <c r="D2447" t="s">
+        <v>337</v>
       </c>
       <c r="F2447">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I2447">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="J2447">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="K2447">
-        <v>93</v>
-      </c>
-      <c r="L2447">
-        <v>139</v>
+        <v>63</v>
+      </c>
+      <c r="L2447" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2448" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="C2448" t="s">
         <v>330</v>
       </c>
-      <c r="D2448">
-        <v>9.8444444444444397</v>
+      <c r="D2448" t="s">
+        <v>337</v>
       </c>
       <c r="F2448">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I2448">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="J2448">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="K2448">
-        <v>90</v>
-      </c>
-      <c r="L2448">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="L2448" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2449" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="C2449" t="s">
         <v>330</v>
       </c>
-      <c r="D2449">
-        <v>9.3333333333333304</v>
+      <c r="D2449" t="s">
+        <v>337</v>
       </c>
       <c r="F2449">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I2449">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J2449">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="K2449">
-        <v>91</v>
-      </c>
-      <c r="L2449">
-        <v>134</v>
+        <v>119</v>
+      </c>
+      <c r="L2449" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2450" t="s">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="C2450" t="s">
         <v>330</v>
       </c>
-      <c r="D2450">
-        <v>9.9583333333333304</v>
+      <c r="D2450" t="s">
+        <v>337</v>
       </c>
       <c r="F2450">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I2450">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J2450">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="K2450">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="L2450">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2451" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="C2451" t="s">
         <v>330</v>
       </c>
-      <c r="D2451">
-        <v>11.0833333333333</v>
+      <c r="D2451" t="s">
+        <v>337</v>
       </c>
       <c r="F2451">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I2451">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J2451">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="K2451">
-        <v>96</v>
-      </c>
-      <c r="L2451">
-        <v>132</v>
+        <v>67</v>
+      </c>
+      <c r="L2451" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2452" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="C2452" t="s">
         <v>330</v>
       </c>
-      <c r="D2452">
-        <v>11.0833333333333</v>
+      <c r="D2452" t="s">
+        <v>337</v>
       </c>
       <c r="F2452">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I2452">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J2452">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="K2452">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L2452">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2453" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="C2453" t="s">
         <v>330</v>
       </c>
-      <c r="D2453">
-        <v>10.8333333333333</v>
+      <c r="D2453" t="s">
+        <v>337</v>
       </c>
       <c r="F2453">
+        <v>41</v>
+      </c>
+      <c r="I2453">
+        <v>48</v>
+      </c>
+      <c r="J2453">
         <v>65</v>
       </c>
-      <c r="I2453">
-        <v>72</v>
-      </c>
-      <c r="J2453">
-        <v>84</v>
-      </c>
       <c r="K2453">
-        <v>89</v>
-      </c>
-      <c r="L2453">
-        <v>122</v>
+        <v>76</v>
+      </c>
+      <c r="L2453" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2454" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="C2454" t="s">
         <v>330</v>
       </c>
-      <c r="D2454">
-        <v>10.6666666666666</v>
+      <c r="D2454" t="s">
+        <v>337</v>
       </c>
       <c r="F2454">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I2454">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J2454">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="K2454">
-        <v>89</v>
-      </c>
-      <c r="L2454">
-        <v>123</v>
+        <v>59</v>
+      </c>
+      <c r="L2454" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2455" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="C2455" t="s">
         <v>330</v>
       </c>
-      <c r="D2455">
-        <v>8.1018518518518494</v>
+      <c r="D2455" t="s">
+        <v>337</v>
       </c>
       <c r="F2455">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="I2455">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="J2455">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="K2455">
-        <v>87</v>
-      </c>
-      <c r="L2455">
-        <v>127</v>
+        <v>189</v>
+      </c>
+      <c r="L2455" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2456" t="s">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="C2456" t="s">
         <v>330</v>
       </c>
-      <c r="D2456">
-        <v>8.3562499999999993</v>
+      <c r="D2456" t="s">
+        <v>337</v>
       </c>
       <c r="F2456">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I2456">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="J2456">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="K2456">
-        <v>86</v>
-      </c>
-      <c r="L2456">
-        <v>126</v>
+        <v>150</v>
+      </c>
+      <c r="L2456" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2457" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="C2457" t="s">
         <v>330</v>
       </c>
-      <c r="D2457">
-        <v>7.65</v>
+      <c r="D2457" t="s">
+        <v>337</v>
       </c>
       <c r="F2457">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2457">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2457">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K2457">
-        <v>83</v>
-      </c>
-      <c r="L2457">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="L2457" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2458" t="s">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="C2458" t="s">
         <v>330</v>
       </c>
-      <c r="D2458">
-        <v>7.5714285714285703</v>
+      <c r="D2458" t="s">
+        <v>337</v>
       </c>
       <c r="F2458">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2458">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2458">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K2458">
-        <v>83</v>
-      </c>
-      <c r="L2458">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="L2458" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2459" t="s">
-        <v>303</v>
+        <v>162</v>
       </c>
       <c r="C2459" t="s">
         <v>330</v>
       </c>
-      <c r="D2459">
-        <v>8.6642857142857093</v>
+      <c r="D2459" t="s">
+        <v>337</v>
       </c>
       <c r="F2459">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I2459">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J2459">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K2459">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="L2459">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2460" t="s">
-        <v>303</v>
+        <v>151</v>
       </c>
       <c r="C2460" t="s">
         <v>330</v>
       </c>
-      <c r="D2460">
-        <v>8.2892857142857093</v>
+      <c r="D2460" t="s">
+        <v>337</v>
       </c>
       <c r="F2460">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I2460">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="J2460">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="K2460">
-        <v>86</v>
-      </c>
-      <c r="L2460">
-        <v>126</v>
+        <v>62</v>
+      </c>
+      <c r="L2460" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2461" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="C2461" t="s">
         <v>330</v>
       </c>
-      <c r="D2461">
-        <v>8.0259259259259199</v>
+      <c r="D2461" t="s">
+        <v>337</v>
       </c>
       <c r="F2461">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I2461">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="J2461">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="K2461">
-        <v>83</v>
-      </c>
-      <c r="L2461">
-        <v>124</v>
+        <v>152</v>
+      </c>
+      <c r="L2461" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2462" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="C2462" t="s">
         <v>330</v>
       </c>
-      <c r="D2462">
-        <v>8.3541666666666607</v>
+      <c r="D2462" t="s">
+        <v>337</v>
       </c>
       <c r="F2462">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="I2462">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="J2462">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="K2462">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L2462">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2463" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="C2463" t="s">
         <v>330</v>
       </c>
-      <c r="D2463">
-        <v>8.8888888888888893</v>
+      <c r="D2463" t="s">
+        <v>337</v>
       </c>
       <c r="F2463">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2463">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J2463">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K2463">
-        <v>80</v>
-      </c>
-      <c r="L2463">
-        <v>131</v>
+        <v>68</v>
+      </c>
+      <c r="L2463" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2464" t="s">
-        <v>328</v>
+        <v>170</v>
       </c>
       <c r="C2464" t="s">
         <v>330</v>
       </c>
-      <c r="D2464">
-        <v>8.9166666666666607</v>
+      <c r="D2464" t="s">
+        <v>337</v>
       </c>
       <c r="F2464">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I2464">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J2464">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K2464">
-        <v>77</v>
-      </c>
-      <c r="L2464">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="L2464" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2465" t="s">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c r="C2465" t="s">
         <v>330</v>
       </c>
-      <c r="D2465">
-        <v>8.8333333333333304</v>
+      <c r="D2465" t="s">
+        <v>337</v>
       </c>
       <c r="F2465">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2465">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J2465">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K2465">
-        <v>79</v>
-      </c>
-      <c r="L2465">
-        <v>125</v>
+        <v>61</v>
+      </c>
+      <c r="L2465" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2466" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="C2466" t="s">
         <v>330</v>
       </c>
-      <c r="D2466">
-        <v>8.8333333333333304</v>
+      <c r="D2466" t="s">
+        <v>337</v>
       </c>
       <c r="F2466">
         <v>44</v>
       </c>
       <c r="I2466">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J2466">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K2466">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2466">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2467" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C2467" t="s">
         <v>330</v>
       </c>
-      <c r="D2467">
-        <v>7.8333333333333304</v>
+      <c r="D2467" t="s">
+        <v>337</v>
       </c>
       <c r="F2467">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I2467">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J2467">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K2467">
-        <v>95</v>
-      </c>
-      <c r="L2467">
-        <v>144</v>
+        <v>100</v>
+      </c>
+      <c r="L2467" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2468" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="C2468" t="s">
         <v>330</v>
       </c>
-      <c r="D2468">
-        <v>10.3888888888888</v>
+      <c r="D2468" t="s">
+        <v>337</v>
       </c>
       <c r="F2468">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I2468">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J2468">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K2468">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="L2468">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2469" t="s">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="C2469" t="s">
         <v>330</v>
       </c>
-      <c r="D2469">
-        <v>10.3333333333333</v>
+      <c r="D2469" t="s">
+        <v>337</v>
       </c>
       <c r="F2469">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I2469">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J2469">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K2469">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L2469">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2470" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="C2470" t="s">
         <v>330</v>
       </c>
-      <c r="D2470">
-        <v>10.8333333333333</v>
+      <c r="D2470" t="s">
+        <v>337</v>
       </c>
       <c r="F2470">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I2470">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J2470">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K2470">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="L2470">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2471" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="C2471" t="s">
         <v>330</v>
       </c>
-      <c r="D2471">
-        <v>6.82666666666666</v>
+      <c r="D2471" t="s">
+        <v>337</v>
       </c>
       <c r="F2471">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2471">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2471">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2471">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L2471">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2472" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="C2472" t="s">
         <v>330</v>
       </c>
-      <c r="D2472">
-        <v>9.4166666666666607</v>
+      <c r="D2472" t="s">
+        <v>337</v>
       </c>
       <c r="F2472">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2472">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J2472">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K2472">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L2472">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2473" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="C2473" t="s">
         <v>330</v>
       </c>
-      <c r="D2473">
-        <v>9.05555555555555</v>
+      <c r="D2473" t="s">
+        <v>337</v>
       </c>
       <c r="F2473">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2473">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J2473">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K2473">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L2473">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2474" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C2474" t="s">
         <v>330</v>
       </c>
-      <c r="D2474">
-        <v>9.25</v>
+      <c r="D2474" t="s">
+        <v>337</v>
       </c>
       <c r="F2474">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2474">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J2474">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K2474">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L2474">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2475" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="C2475" t="s">
         <v>330</v>
       </c>
-      <c r="D2475">
-        <v>9.1666666666666607</v>
+      <c r="D2475" t="s">
+        <v>337</v>
       </c>
       <c r="F2475">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I2475">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="J2475">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="K2475">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L2475">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2476" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="C2476" t="s">
         <v>330</v>
       </c>
-      <c r="D2476">
-        <v>9.1666666666666607</v>
+      <c r="D2476" t="s">
+        <v>337</v>
       </c>
       <c r="F2476">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I2476">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J2476">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="K2476">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="L2476">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2477" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C2477" t="s">
         <v>330</v>
       </c>
-      <c r="D2477">
-        <v>9.3333333333333304</v>
+      <c r="D2477" t="s">
+        <v>337</v>
       </c>
       <c r="F2477">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I2477">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J2477">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K2477">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="L2477">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2478" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="C2478" t="s">
         <v>330</v>
       </c>
-      <c r="D2478">
-        <v>9.1666666666666607</v>
+      <c r="D2478" t="s">
+        <v>337</v>
       </c>
       <c r="F2478">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I2478">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J2478">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K2478">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="L2478">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2479" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="C2479" t="s">
         <v>330</v>
       </c>
-      <c r="D2479">
-        <v>6.8636363636363598</v>
+      <c r="D2479" t="s">
+        <v>337</v>
       </c>
       <c r="F2479">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2479">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J2479">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K2479">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L2479">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2480" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C2480" t="s">
         <v>330</v>
       </c>
-      <c r="D2480">
-        <v>9.30555555555555</v>
+      <c r="D2480" t="s">
+        <v>337</v>
       </c>
       <c r="F2480">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2480">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J2480">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K2480">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L2480">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2481" t="s">
-        <v>305</v>
+        <v>196</v>
       </c>
       <c r="C2481" t="s">
         <v>330</v>
       </c>
-      <c r="D2481">
-        <v>9</v>
+      <c r="D2481" t="s">
+        <v>337</v>
       </c>
       <c r="F2481">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I2481">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J2481">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K2481">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L2481">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2482" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="C2482" t="s">
         <v>330</v>
       </c>
-      <c r="D2482">
-        <v>9.30555555555555</v>
+      <c r="D2482" t="s">
+        <v>337</v>
       </c>
       <c r="F2482">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I2482">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J2482">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K2482">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="L2482">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2483" t="s">
-        <v>341</v>
+        <v>200</v>
       </c>
       <c r="C2483" t="s">
         <v>330</v>
@@ -30808,24 +30810,24 @@
         <v>337</v>
       </c>
       <c r="F2483">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I2483">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J2483">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K2483">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L2483">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2484" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="C2484" t="s">
         <v>330</v>
@@ -30834,24 +30836,24 @@
         <v>337</v>
       </c>
       <c r="F2484">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I2484">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="J2484">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K2484">
-        <v>63</v>
-      </c>
-      <c r="L2484" t="s">
-        <v>337</v>
+        <v>106</v>
+      </c>
+      <c r="L2484">
+        <v>149</v>
       </c>
     </row>
     <row r="2485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2485" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="C2485" t="s">
         <v>330</v>
@@ -30860,24 +30862,24 @@
         <v>337</v>
       </c>
       <c r="F2485">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I2485">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J2485">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K2485">
-        <v>63</v>
-      </c>
-      <c r="L2485" t="s">
-        <v>337</v>
+        <v>82</v>
+      </c>
+      <c r="L2485">
+        <v>140</v>
       </c>
     </row>
     <row r="2486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2486" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C2486" t="s">
         <v>330</v>
@@ -30886,24 +30888,24 @@
         <v>337</v>
       </c>
       <c r="F2486">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I2486">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="J2486">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="K2486">
-        <v>134</v>
-      </c>
-      <c r="L2486" t="s">
-        <v>337</v>
+        <v>96</v>
+      </c>
+      <c r="L2486">
+        <v>148</v>
       </c>
     </row>
     <row r="2487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2487" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="C2487" t="s">
         <v>330</v>
@@ -30912,24 +30914,24 @@
         <v>337</v>
       </c>
       <c r="F2487">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I2487">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J2487">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="K2487">
-        <v>119</v>
-      </c>
-      <c r="L2487" t="s">
-        <v>337</v>
+        <v>81</v>
+      </c>
+      <c r="L2487">
+        <v>136</v>
       </c>
     </row>
     <row r="2488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2488" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C2488" t="s">
         <v>330</v>
@@ -30938,24 +30940,24 @@
         <v>337</v>
       </c>
       <c r="F2488">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="I2488">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="J2488">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="K2488">
-        <v>74</v>
-      </c>
-      <c r="L2488">
-        <v>147</v>
+        <v>163</v>
+      </c>
+      <c r="L2488" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2489" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C2489" t="s">
         <v>330</v>
@@ -30964,24 +30966,24 @@
         <v>337</v>
       </c>
       <c r="F2489">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="I2489">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="J2489">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="K2489">
-        <v>67</v>
-      </c>
-      <c r="L2489" t="s">
-        <v>337</v>
+        <v>130</v>
+      </c>
+      <c r="L2489">
+        <v>163</v>
       </c>
     </row>
     <row r="2490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2490" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C2490" t="s">
         <v>330</v>
@@ -30990,24 +30992,24 @@
         <v>337</v>
       </c>
       <c r="F2490">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I2490">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J2490">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="K2490">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="L2490">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2491" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="C2491" t="s">
         <v>330</v>
@@ -31016,24 +31018,24 @@
         <v>337</v>
       </c>
       <c r="F2491">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I2491">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J2491">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K2491">
-        <v>76</v>
-      </c>
-      <c r="L2491" t="s">
-        <v>337</v>
+        <v>103</v>
+      </c>
+      <c r="L2491">
+        <v>148</v>
       </c>
     </row>
     <row r="2492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2492" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C2492" t="s">
         <v>330</v>
@@ -31042,24 +31044,24 @@
         <v>337</v>
       </c>
       <c r="F2492">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I2492">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="J2492">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K2492">
-        <v>59</v>
-      </c>
-      <c r="L2492" t="s">
-        <v>337</v>
+        <v>82</v>
+      </c>
+      <c r="L2492">
+        <v>138</v>
       </c>
     </row>
     <row r="2493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2493" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="C2493" t="s">
         <v>330</v>
@@ -31068,16 +31070,16 @@
         <v>337</v>
       </c>
       <c r="F2493">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="I2493">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="J2493">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="K2493">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="L2493" t="s">
         <v>337</v>
@@ -31085,7 +31087,7 @@
     </row>
     <row r="2494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2494" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C2494" t="s">
         <v>330</v>
@@ -31094,24 +31096,24 @@
         <v>337</v>
       </c>
       <c r="F2494">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="I2494">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="J2494">
+        <v>77</v>
+      </c>
+      <c r="K2494">
+        <v>84</v>
+      </c>
+      <c r="L2494">
         <v>140</v>
-      </c>
-      <c r="K2494">
-        <v>150</v>
-      </c>
-      <c r="L2494" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2495" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C2495" t="s">
         <v>330</v>
@@ -31120,24 +31122,24 @@
         <v>337</v>
       </c>
       <c r="F2495">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I2495">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J2495">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K2495">
-        <v>109</v>
-      </c>
-      <c r="L2495" t="s">
-        <v>337</v>
+        <v>84</v>
+      </c>
+      <c r="L2495">
+        <v>142</v>
       </c>
     </row>
     <row r="2496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2496" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C2496" t="s">
         <v>330</v>
@@ -31146,24 +31148,24 @@
         <v>337</v>
       </c>
       <c r="F2496">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I2496">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="J2496">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="K2496">
-        <v>103</v>
-      </c>
-      <c r="L2496" t="s">
-        <v>337</v>
+        <v>136</v>
+      </c>
+      <c r="L2496">
+        <v>129</v>
       </c>
     </row>
     <row r="2497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2497" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="C2497" t="s">
         <v>330</v>
@@ -31172,24 +31174,24 @@
         <v>337</v>
       </c>
       <c r="F2497">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I2497">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="J2497">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="K2497">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L2497">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2498" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="C2498" t="s">
         <v>330</v>
@@ -31198,24 +31200,24 @@
         <v>337</v>
       </c>
       <c r="F2498">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I2498">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J2498">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K2498">
-        <v>62</v>
-      </c>
-      <c r="L2498" t="s">
-        <v>337</v>
+        <v>108</v>
+      </c>
+      <c r="L2498">
+        <v>149</v>
       </c>
     </row>
     <row r="2499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2499" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="C2499" t="s">
         <v>330</v>
@@ -31224,24 +31226,24 @@
         <v>337</v>
       </c>
       <c r="F2499">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="I2499">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="J2499">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="K2499">
-        <v>152</v>
-      </c>
-      <c r="L2499" t="s">
-        <v>337</v>
+        <v>83</v>
+      </c>
+      <c r="L2499">
+        <v>142</v>
       </c>
     </row>
     <row r="2500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2500" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C2500" t="s">
         <v>330</v>
@@ -31250,24 +31252,24 @@
         <v>337</v>
       </c>
       <c r="F2500">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="I2500">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="J2500">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="K2500">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="L2500">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2501" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="C2501" t="s">
         <v>330</v>
@@ -31276,24 +31278,24 @@
         <v>337</v>
       </c>
       <c r="F2501">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I2501">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J2501">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K2501">
-        <v>68</v>
-      </c>
-      <c r="L2501" t="s">
-        <v>337</v>
+        <v>81</v>
+      </c>
+      <c r="L2501">
+        <v>142</v>
       </c>
     </row>
     <row r="2502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2502" t="s">
-        <v>170</v>
+        <v>343</v>
       </c>
       <c r="C2502" t="s">
         <v>330</v>
@@ -31302,16 +31304,16 @@
         <v>337</v>
       </c>
       <c r="F2502">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I2502">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J2502">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K2502">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L2502" t="s">
         <v>337</v>
@@ -31319,7 +31321,7 @@
     </row>
     <row r="2503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2503" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="C2503" t="s">
         <v>330</v>
@@ -31328,24 +31330,24 @@
         <v>337</v>
       </c>
       <c r="F2503">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2503">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J2503">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="K2503">
-        <v>61</v>
-      </c>
-      <c r="L2503" t="s">
-        <v>337</v>
+        <v>93</v>
+      </c>
+      <c r="L2503">
+        <v>126</v>
       </c>
     </row>
     <row r="2504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2504" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="C2504" t="s">
         <v>330</v>
@@ -31354,24 +31356,24 @@
         <v>337</v>
       </c>
       <c r="F2504">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I2504">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="J2504">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K2504">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="L2504">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2505" t="s">
-        <v>342</v>
+        <v>8</v>
       </c>
       <c r="C2505" t="s">
         <v>330</v>
@@ -31380,24 +31382,24 @@
         <v>337</v>
       </c>
       <c r="F2505">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I2505">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2505">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K2505">
-        <v>100</v>
-      </c>
-      <c r="L2505" t="s">
-        <v>337</v>
+        <v>93</v>
+      </c>
+      <c r="L2505">
+        <v>124</v>
       </c>
     </row>
     <row r="2506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2506" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="C2506" t="s">
         <v>330</v>
@@ -31406,24 +31408,24 @@
         <v>337</v>
       </c>
       <c r="F2506">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2506">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J2506">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K2506">
-        <v>102</v>
-      </c>
-      <c r="L2506">
-        <v>149</v>
+        <v>86</v>
+      </c>
+      <c r="L2506" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2507" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="C2507" t="s">
         <v>330</v>
@@ -31432,24 +31434,24 @@
         <v>337</v>
       </c>
       <c r="F2507">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I2507">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J2507">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K2507">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L2507">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2508" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C2508" t="s">
         <v>330</v>
@@ -31458,24 +31460,24 @@
         <v>337</v>
       </c>
       <c r="F2508">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I2508">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2508">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K2508">
         <v>103</v>
       </c>
-      <c r="L2508">
-        <v>149</v>
+      <c r="L2508" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2509" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="C2509" t="s">
         <v>330</v>
@@ -31484,24 +31486,24 @@
         <v>337</v>
       </c>
       <c r="F2509">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I2509">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J2509">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K2509">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L2509">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2510" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="C2510" t="s">
         <v>330</v>
@@ -31510,24 +31512,24 @@
         <v>337</v>
       </c>
       <c r="F2510">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2510">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2510">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K2510">
-        <v>88</v>
-      </c>
-      <c r="L2510">
-        <v>148</v>
+        <v>86</v>
+      </c>
+      <c r="L2510" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2511" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="C2511" t="s">
         <v>330</v>
@@ -31536,24 +31538,24 @@
         <v>337</v>
       </c>
       <c r="F2511">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2511">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J2511">
         <v>84</v>
       </c>
       <c r="K2511">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L2511">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2512" t="s">
-        <v>309</v>
+        <v>35</v>
       </c>
       <c r="C2512" t="s">
         <v>330</v>
@@ -31562,24 +31564,24 @@
         <v>337</v>
       </c>
       <c r="F2512">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I2512">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J2512">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K2512">
-        <v>87</v>
-      </c>
-      <c r="L2512">
-        <v>142</v>
+        <v>100</v>
+      </c>
+      <c r="L2512" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2513" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="C2513" t="s">
         <v>330</v>
@@ -31588,24 +31590,24 @@
         <v>337</v>
       </c>
       <c r="F2513">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I2513">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J2513">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K2513">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="L2513">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2514" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="C2514" t="s">
         <v>330</v>
@@ -31614,24 +31616,24 @@
         <v>337</v>
       </c>
       <c r="F2514">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2514">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2514">
+        <v>89</v>
+      </c>
+      <c r="K2514">
         <v>94</v>
       </c>
-      <c r="K2514">
-        <v>103</v>
-      </c>
       <c r="L2514">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2515" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="C2515" t="s">
         <v>330</v>
@@ -31640,24 +31642,24 @@
         <v>337</v>
       </c>
       <c r="F2515">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I2515">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="J2515">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K2515">
-        <v>117</v>
-      </c>
-      <c r="L2515">
-        <v>159</v>
+        <v>85</v>
+      </c>
+      <c r="L2515" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2516" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="C2516" t="s">
         <v>330</v>
@@ -31666,24 +31668,24 @@
         <v>337</v>
       </c>
       <c r="F2516">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2516">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J2516">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="K2516">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="L2516">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2517" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="C2517" t="s">
         <v>330</v>
@@ -31692,24 +31694,24 @@
         <v>337</v>
       </c>
       <c r="F2517">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I2517">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="J2517">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K2517">
-        <v>77</v>
-      </c>
-      <c r="L2517">
-        <v>133</v>
+        <v>107</v>
+      </c>
+      <c r="L2517" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2518" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="C2518" t="s">
         <v>330</v>
@@ -31718,24 +31720,24 @@
         <v>337</v>
       </c>
       <c r="F2518">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I2518">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J2518">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K2518">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L2518">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2519" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="C2519" t="s">
         <v>330</v>
@@ -31744,24 +31746,24 @@
         <v>337</v>
       </c>
       <c r="F2519">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I2519">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J2519">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K2519">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L2519">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2520" t="s">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="C2520" t="s">
         <v>330</v>
@@ -31770,24 +31772,24 @@
         <v>337</v>
       </c>
       <c r="F2520">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I2520">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J2520">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K2520">
-        <v>103</v>
-      </c>
-      <c r="L2520">
-        <v>150</v>
+        <v>86</v>
+      </c>
+      <c r="L2520" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2521" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C2521" t="s">
         <v>330</v>
@@ -31799,21 +31801,21 @@
         <v>57</v>
       </c>
       <c r="I2521">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2521">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2521">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2521">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2522" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="C2522" t="s">
         <v>330</v>
@@ -31822,24 +31824,24 @@
         <v>337</v>
       </c>
       <c r="F2522">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I2522">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2522">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K2522">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L2522">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2523" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="C2523" t="s">
         <v>330</v>
@@ -31848,24 +31850,24 @@
         <v>337</v>
       </c>
       <c r="F2523">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2523">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2523">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K2523">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L2523">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2524" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="C2524" t="s">
         <v>330</v>
@@ -31874,24 +31876,24 @@
         <v>337</v>
       </c>
       <c r="F2524">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I2524">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J2524">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K2524">
-        <v>96</v>
-      </c>
-      <c r="L2524">
-        <v>148</v>
+        <v>84</v>
+      </c>
+      <c r="L2524" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2525" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="C2525" t="s">
         <v>330</v>
@@ -31900,24 +31902,24 @@
         <v>337</v>
       </c>
       <c r="F2525">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I2525">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="J2525">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="K2525">
-        <v>81</v>
-      </c>
-      <c r="L2525">
-        <v>136</v>
+        <v>103</v>
+      </c>
+      <c r="L2525" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2526" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="C2526" t="s">
         <v>330</v>
@@ -31926,16 +31928,16 @@
         <v>337</v>
       </c>
       <c r="F2526">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="I2526">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="J2526">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="K2526">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="L2526" t="s">
         <v>337</v>
@@ -31943,7 +31945,7 @@
     </row>
     <row r="2527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2527" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="C2527" t="s">
         <v>330</v>
@@ -31952,24 +31954,24 @@
         <v>337</v>
       </c>
       <c r="F2527">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I2527">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="J2527">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K2527">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L2527">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2528" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="C2528" t="s">
         <v>330</v>
@@ -31978,24 +31980,24 @@
         <v>337</v>
       </c>
       <c r="F2528">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2528">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J2528">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K2528">
-        <v>102</v>
-      </c>
-      <c r="L2528">
-        <v>149</v>
+        <v>83</v>
+      </c>
+      <c r="L2528" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2529" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="C2529" t="s">
         <v>330</v>
@@ -32004,24 +32006,24 @@
         <v>337</v>
       </c>
       <c r="F2529">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I2529">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J2529">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="K2529">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="L2529">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2530" t="s">
-        <v>193</v>
+        <v>345</v>
       </c>
       <c r="C2530" t="s">
         <v>330</v>
@@ -32030,24 +32032,24 @@
         <v>337</v>
       </c>
       <c r="F2530">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I2530">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J2530">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K2530">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L2530">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2531" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="C2531" t="s">
         <v>330</v>
@@ -32056,24 +32058,24 @@
         <v>337</v>
       </c>
       <c r="F2531">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I2531">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="J2531">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="K2531">
-        <v>111</v>
-      </c>
-      <c r="L2531" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2531">
+        <v>113</v>
       </c>
     </row>
     <row r="2532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2532" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="C2532" t="s">
         <v>330</v>
@@ -32082,24 +32084,24 @@
         <v>337</v>
       </c>
       <c r="F2532">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I2532">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2532">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K2532">
-        <v>84</v>
-      </c>
-      <c r="L2532">
-        <v>140</v>
+        <v>82</v>
+      </c>
+      <c r="L2532" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2533" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="C2533" t="s">
         <v>330</v>
@@ -32108,24 +32110,24 @@
         <v>337</v>
       </c>
       <c r="F2533">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I2533">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J2533">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K2533">
-        <v>84</v>
-      </c>
-      <c r="L2533">
-        <v>142</v>
+        <v>80</v>
+      </c>
+      <c r="L2533" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2534" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="C2534" t="s">
         <v>330</v>
@@ -32134,24 +32136,24 @@
         <v>337</v>
       </c>
       <c r="F2534">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="I2534">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="J2534">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="K2534">
-        <v>136</v>
-      </c>
-      <c r="L2534">
-        <v>129</v>
+        <v>71</v>
+      </c>
+      <c r="L2534" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2535" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="C2535" t="s">
         <v>330</v>
@@ -32160,24 +32162,24 @@
         <v>337</v>
       </c>
       <c r="F2535">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="I2535">
+        <v>50</v>
+      </c>
+      <c r="J2535">
+        <v>62</v>
+      </c>
+      <c r="K2535">
+        <v>68</v>
+      </c>
+      <c r="L2535">
         <v>112</v>
-      </c>
-      <c r="J2535">
-        <v>123</v>
-      </c>
-      <c r="K2535">
-        <v>130</v>
-      </c>
-      <c r="L2535">
-        <v>161</v>
       </c>
     </row>
     <row r="2536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2536" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="C2536" t="s">
         <v>330</v>
@@ -32186,24 +32188,24 @@
         <v>337</v>
       </c>
       <c r="F2536">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I2536">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J2536">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K2536">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="L2536">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2537" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="C2537" t="s">
         <v>330</v>
@@ -32212,24 +32214,24 @@
         <v>337</v>
       </c>
       <c r="F2537">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I2537">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J2537">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K2537">
-        <v>83</v>
-      </c>
-      <c r="L2537">
-        <v>142</v>
+        <v>71</v>
+      </c>
+      <c r="L2537" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2538" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="C2538" t="s">
         <v>330</v>
@@ -32238,24 +32240,24 @@
         <v>337</v>
       </c>
       <c r="F2538">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I2538">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J2538">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="K2538">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="L2538">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2539" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="C2539" t="s">
         <v>330</v>
@@ -32264,24 +32266,24 @@
         <v>337</v>
       </c>
       <c r="F2539">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2539">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J2539">
+        <v>66</v>
+      </c>
+      <c r="K2539">
         <v>73</v>
       </c>
-      <c r="K2539">
-        <v>81</v>
-      </c>
-      <c r="L2539">
-        <v>142</v>
+      <c r="L2539" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2540" t="s">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="C2540" t="s">
         <v>330</v>
@@ -32290,24 +32292,24 @@
         <v>337</v>
       </c>
       <c r="F2540">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I2540">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J2540">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K2540">
-        <v>86</v>
-      </c>
-      <c r="L2540" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2540">
+        <v>113</v>
       </c>
     </row>
     <row r="2541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2541" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C2541" t="s">
         <v>330</v>
@@ -32316,24 +32318,24 @@
         <v>337</v>
       </c>
       <c r="F2541">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2541">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J2541">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K2541">
-        <v>93</v>
-      </c>
-      <c r="L2541">
-        <v>126</v>
+        <v>73</v>
+      </c>
+      <c r="L2541" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2542" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C2542" t="s">
         <v>330</v>
@@ -32342,24 +32344,24 @@
         <v>337</v>
       </c>
       <c r="F2542">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2542">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J2542">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K2542">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="L2542">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2543" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C2543" t="s">
         <v>330</v>
@@ -32368,24 +32370,24 @@
         <v>337</v>
       </c>
       <c r="F2543">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I2543">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J2543">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="K2543">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="L2543">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2544" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C2544" t="s">
         <v>330</v>
@@ -32394,24 +32396,24 @@
         <v>337</v>
       </c>
       <c r="F2544">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I2544">
+        <v>52</v>
+      </c>
+      <c r="J2544">
         <v>62</v>
       </c>
-      <c r="J2544">
-        <v>79</v>
-      </c>
       <c r="K2544">
-        <v>86</v>
-      </c>
-      <c r="L2544" t="s">
-        <v>337</v>
+        <v>70</v>
+      </c>
+      <c r="L2544">
+        <v>112</v>
       </c>
     </row>
     <row r="2545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2545" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C2545" t="s">
         <v>330</v>
@@ -32420,24 +32422,24 @@
         <v>337</v>
       </c>
       <c r="F2545">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2545">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J2545">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K2545">
-        <v>92</v>
-      </c>
-      <c r="L2545">
-        <v>126</v>
+        <v>73</v>
+      </c>
+      <c r="L2545" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2546" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C2546" t="s">
         <v>330</v>
@@ -32446,24 +32448,24 @@
         <v>337</v>
       </c>
       <c r="F2546">
+        <v>41</v>
+      </c>
+      <c r="I2546">
         <v>50</v>
       </c>
-      <c r="I2546">
-        <v>82</v>
-      </c>
       <c r="J2546">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="K2546">
-        <v>103</v>
-      </c>
-      <c r="L2546" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2546">
+        <v>112</v>
       </c>
     </row>
     <row r="2547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2547" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C2547" t="s">
         <v>330</v>
@@ -32472,24 +32474,24 @@
         <v>337</v>
       </c>
       <c r="F2547">
+        <v>38</v>
+      </c>
+      <c r="I2547">
+        <v>51</v>
+      </c>
+      <c r="J2547">
         <v>60</v>
       </c>
-      <c r="I2547">
-        <v>73</v>
-      </c>
-      <c r="J2547">
-        <v>87</v>
-      </c>
       <c r="K2547">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="L2547">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2548" t="s">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="C2548" t="s">
         <v>330</v>
@@ -32498,24 +32500,24 @@
         <v>337</v>
       </c>
       <c r="F2548">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I2548">
+        <v>54</v>
+      </c>
+      <c r="J2548">
         <v>66</v>
       </c>
-      <c r="J2548">
-        <v>80</v>
-      </c>
       <c r="K2548">
-        <v>86</v>
-      </c>
-      <c r="L2548" t="s">
-        <v>337</v>
+        <v>75</v>
+      </c>
+      <c r="L2548">
+        <v>113</v>
       </c>
     </row>
     <row r="2549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2549" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C2549" t="s">
         <v>330</v>
@@ -32524,24 +32526,24 @@
         <v>337</v>
       </c>
       <c r="F2549">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2549">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J2549">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K2549">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L2549">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2550" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C2550" t="s">
         <v>330</v>
@@ -32553,13 +32555,13 @@
         <v>50</v>
       </c>
       <c r="I2550">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J2550">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="K2550">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L2550" t="s">
         <v>337</v>
@@ -32567,7 +32569,7 @@
     </row>
     <row r="2551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2551" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C2551" t="s">
         <v>330</v>
@@ -32576,24 +32578,24 @@
         <v>337</v>
       </c>
       <c r="F2551">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I2551">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="J2551">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="K2551">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L2551">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2552" t="s">
-        <v>313</v>
+        <v>74</v>
       </c>
       <c r="C2552" t="s">
         <v>330</v>
@@ -32602,24 +32604,24 @@
         <v>337</v>
       </c>
       <c r="F2552">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I2552">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="J2552">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="K2552">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="L2552">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2553" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C2553" t="s">
         <v>330</v>
@@ -32628,24 +32630,24 @@
         <v>337</v>
       </c>
       <c r="F2553">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I2553">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J2553">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="K2553">
-        <v>85</v>
-      </c>
-      <c r="L2553" t="s">
-        <v>337</v>
+        <v>68</v>
+      </c>
+      <c r="L2553">
+        <v>113</v>
       </c>
     </row>
     <row r="2554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2554" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C2554" t="s">
         <v>330</v>
@@ -32654,24 +32656,24 @@
         <v>337</v>
       </c>
       <c r="F2554">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I2554">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="J2554">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K2554">
-        <v>84</v>
-      </c>
-      <c r="L2554">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="L2554" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2555" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C2555" t="s">
         <v>330</v>
@@ -32680,24 +32682,24 @@
         <v>337</v>
       </c>
       <c r="F2555">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I2555">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J2555">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K2555">
-        <v>107</v>
-      </c>
-      <c r="L2555" t="s">
-        <v>337</v>
+        <v>72</v>
+      </c>
+      <c r="L2555">
+        <v>113</v>
       </c>
     </row>
     <row r="2556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2556" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C2556" t="s">
         <v>330</v>
@@ -32706,24 +32708,24 @@
         <v>337</v>
       </c>
       <c r="F2556">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2556">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J2556">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K2556">
-        <v>89</v>
-      </c>
-      <c r="L2556">
-        <v>124</v>
+        <v>78</v>
+      </c>
+      <c r="L2556" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2557" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2557" t="s">
         <v>330</v>
@@ -32732,24 +32734,24 @@
         <v>337</v>
       </c>
       <c r="F2557">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I2557">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J2557">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="K2557">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L2557">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2558" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2558" t="s">
         <v>330</v>
@@ -32758,24 +32760,24 @@
         <v>337</v>
       </c>
       <c r="F2558">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I2558">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J2558">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K2558">
-        <v>86</v>
-      </c>
-      <c r="L2558" t="s">
-        <v>337</v>
+        <v>69</v>
+      </c>
+      <c r="L2558">
+        <v>112</v>
       </c>
     </row>
     <row r="2559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2559" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C2559" t="s">
         <v>330</v>
@@ -32784,24 +32786,24 @@
         <v>337</v>
       </c>
       <c r="F2559">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I2559">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J2559">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K2559">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L2559">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2560" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="C2560" t="s">
         <v>330</v>
@@ -32810,24 +32812,24 @@
         <v>337</v>
       </c>
       <c r="F2560">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I2560">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J2560">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="K2560">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="L2560">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2561" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C2561" t="s">
         <v>330</v>
@@ -32839,21 +32841,21 @@
         <v>50</v>
       </c>
       <c r="I2561">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2561">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K2561">
-        <v>85</v>
-      </c>
-      <c r="L2561">
-        <v>123</v>
+        <v>82</v>
+      </c>
+      <c r="L2561" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2562" t="s">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="C2562" t="s">
         <v>330</v>
@@ -32862,16 +32864,16 @@
         <v>337</v>
       </c>
       <c r="F2562">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I2562">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J2562">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K2562">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L2562" t="s">
         <v>337</v>
@@ -32879,7 +32881,7 @@
     </row>
     <row r="2563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2563" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C2563" t="s">
         <v>330</v>
@@ -32888,24 +32890,24 @@
         <v>337</v>
       </c>
       <c r="F2563">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="I2563">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="J2563">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="K2563">
-        <v>103</v>
-      </c>
-      <c r="L2563" t="s">
-        <v>337</v>
+        <v>69</v>
+      </c>
+      <c r="L2563">
+        <v>113</v>
       </c>
     </row>
     <row r="2564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2564" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C2564" t="s">
         <v>330</v>
@@ -32914,24 +32916,24 @@
         <v>337</v>
       </c>
       <c r="F2564">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I2564">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J2564">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="K2564">
-        <v>92</v>
-      </c>
-      <c r="L2564" t="s">
-        <v>337</v>
+        <v>73</v>
+      </c>
+      <c r="L2564">
+        <v>112</v>
       </c>
     </row>
     <row r="2565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2565" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C2565" t="s">
         <v>330</v>
@@ -32940,24 +32942,24 @@
         <v>337</v>
       </c>
       <c r="F2565">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2565">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J2565">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K2565">
-        <v>94</v>
-      </c>
-      <c r="L2565">
-        <v>127</v>
+        <v>82</v>
+      </c>
+      <c r="L2565" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2566" t="s">
-        <v>7</v>
+        <v>347</v>
       </c>
       <c r="C2566" t="s">
         <v>330</v>
@@ -32966,24 +32968,24 @@
         <v>337</v>
       </c>
       <c r="F2566">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I2566">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J2566">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K2566">
-        <v>83</v>
-      </c>
-      <c r="L2566" t="s">
-        <v>337</v>
+        <v>86</v>
+      </c>
+      <c r="L2566">
+        <v>124</v>
       </c>
     </row>
     <row r="2567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2567" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C2567" t="s">
         <v>330</v>
@@ -32992,24 +32994,24 @@
         <v>337</v>
       </c>
       <c r="F2567">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="I2567">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="J2567">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="K2567">
-        <v>68</v>
-      </c>
-      <c r="L2567">
-        <v>112</v>
+        <v>97</v>
+      </c>
+      <c r="L2567" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2568" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="C2568" t="s">
         <v>330</v>
@@ -33018,24 +33020,24 @@
         <v>337</v>
       </c>
       <c r="F2568">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2568">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J2568">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="K2568">
-        <v>71</v>
-      </c>
-      <c r="L2568">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="L2568" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2569" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C2569" t="s">
         <v>330</v>
@@ -33044,24 +33046,24 @@
         <v>337</v>
       </c>
       <c r="F2569">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2569">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J2569">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K2569">
-        <v>71</v>
-      </c>
-      <c r="L2569">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="L2569" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2570" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C2570" t="s">
         <v>330</v>
@@ -33070,24 +33072,24 @@
         <v>337</v>
       </c>
       <c r="F2570">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I2570">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J2570">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K2570">
-        <v>82</v>
-      </c>
-      <c r="L2570" t="s">
-        <v>337</v>
+        <v>86</v>
+      </c>
+      <c r="L2570">
+        <v>126</v>
       </c>
     </row>
     <row r="2571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2571" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="C2571" t="s">
         <v>330</v>
@@ -33096,24 +33098,24 @@
         <v>337</v>
       </c>
       <c r="F2571">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I2571">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J2571">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K2571">
-        <v>80</v>
-      </c>
-      <c r="L2571" t="s">
-        <v>337</v>
+        <v>84</v>
+      </c>
+      <c r="L2571">
+        <v>123</v>
       </c>
     </row>
     <row r="2572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2572" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C2572" t="s">
         <v>330</v>
@@ -33122,16 +33124,16 @@
         <v>337</v>
       </c>
       <c r="F2572">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I2572">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J2572">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="K2572">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="L2572" t="s">
         <v>337</v>
@@ -33139,7 +33141,7 @@
     </row>
     <row r="2573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2573" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="C2573" t="s">
         <v>330</v>
@@ -33148,24 +33150,24 @@
         <v>337</v>
       </c>
       <c r="F2573">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2573">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J2573">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K2573">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L2573">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2574" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C2574" t="s">
         <v>330</v>
@@ -33174,24 +33176,24 @@
         <v>337</v>
       </c>
       <c r="F2574">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2574">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="J2574">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="K2574">
-        <v>71</v>
-      </c>
-      <c r="L2574">
-        <v>113</v>
+        <v>90</v>
+      </c>
+      <c r="L2574" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2575" t="s">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="C2575" t="s">
         <v>330</v>
@@ -33200,16 +33202,16 @@
         <v>337</v>
       </c>
       <c r="F2575">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2575">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J2575">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K2575">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="L2575" t="s">
         <v>337</v>
@@ -33217,7 +33219,7 @@
     </row>
     <row r="2576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2576" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C2576" t="s">
         <v>330</v>
@@ -33226,24 +33228,24 @@
         <v>337</v>
       </c>
       <c r="F2576">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I2576">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J2576">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="K2576">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="L2576">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2577" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2577" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C2577" t="s">
         <v>330</v>
@@ -33252,24 +33254,24 @@
         <v>337</v>
       </c>
       <c r="F2577">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I2577">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="J2577">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="K2577">
-        <v>73</v>
-      </c>
-      <c r="L2577" t="s">
-        <v>337</v>
+        <v>92</v>
+      </c>
+      <c r="L2577">
+        <v>127</v>
       </c>
     </row>
     <row r="2578" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2578" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C2578" t="s">
         <v>330</v>
@@ -33278,24 +33280,24 @@
         <v>337</v>
       </c>
       <c r="F2578">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I2578">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J2578">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="K2578">
-        <v>71</v>
-      </c>
-      <c r="L2578">
-        <v>113</v>
+        <v>86</v>
+      </c>
+      <c r="L2578" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2579" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2579" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C2579" t="s">
         <v>330</v>
@@ -33304,16 +33306,16 @@
         <v>337</v>
       </c>
       <c r="F2579">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I2579">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="J2579">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="K2579">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="L2579" t="s">
         <v>337</v>
@@ -33321,7 +33323,7 @@
     </row>
     <row r="2580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2580" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C2580" t="s">
         <v>330</v>
@@ -33330,24 +33332,24 @@
         <v>337</v>
       </c>
       <c r="F2580">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I2580">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J2580">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K2580">
-        <v>75</v>
-      </c>
-      <c r="L2580">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="L2580" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2581" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C2581" t="s">
         <v>330</v>
@@ -33356,24 +33358,24 @@
         <v>337</v>
       </c>
       <c r="F2581">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I2581">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J2581">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="K2581">
-        <v>70</v>
-      </c>
-      <c r="L2581">
-        <v>112</v>
+        <v>86</v>
+      </c>
+      <c r="L2581" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2582" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2582" t="s">
-        <v>315</v>
+        <v>91</v>
       </c>
       <c r="C2582" t="s">
         <v>330</v>
@@ -33382,24 +33384,24 @@
         <v>337</v>
       </c>
       <c r="F2582">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I2582">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="J2582">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="K2582">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L2582">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2583" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2583" t="s">
         <v>330</v>
@@ -33408,24 +33410,24 @@
         <v>337</v>
       </c>
       <c r="F2583">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I2583">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="J2583">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K2583">
-        <v>73</v>
-      </c>
-      <c r="L2583" t="s">
-        <v>337</v>
+        <v>97</v>
+      </c>
+      <c r="L2583">
+        <v>127</v>
       </c>
     </row>
     <row r="2584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2584" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C2584" t="s">
         <v>330</v>
@@ -33434,24 +33436,24 @@
         <v>337</v>
       </c>
       <c r="F2584">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2584">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J2584">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K2584">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L2584">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2585" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C2585" t="s">
         <v>330</v>
@@ -33460,24 +33462,24 @@
         <v>337</v>
       </c>
       <c r="F2585">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I2585">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J2585">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="K2585">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="L2585">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2586" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C2586" t="s">
         <v>330</v>
@@ -33486,24 +33488,24 @@
         <v>337</v>
       </c>
       <c r="F2586">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2586">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J2586">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K2586">
-        <v>75</v>
-      </c>
-      <c r="L2586">
-        <v>113</v>
+        <v>83</v>
+      </c>
+      <c r="L2586" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2587" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="C2587" t="s">
         <v>330</v>
@@ -33512,16 +33514,16 @@
         <v>337</v>
       </c>
       <c r="F2587">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I2587">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J2587">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K2587">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L2587">
         <v>113</v>
@@ -33529,7 +33531,7 @@
     </row>
     <row r="2588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2588" t="s">
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="C2588" t="s">
         <v>330</v>
@@ -33538,24 +33540,24 @@
         <v>337</v>
       </c>
       <c r="F2588">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I2588">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J2588">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K2588">
-        <v>78</v>
-      </c>
-      <c r="L2588" t="s">
-        <v>337</v>
+        <v>66</v>
+      </c>
+      <c r="L2588">
+        <v>112</v>
       </c>
     </row>
     <row r="2589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2589" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C2589" t="s">
         <v>330</v>
@@ -33564,24 +33566,24 @@
         <v>337</v>
       </c>
       <c r="F2589">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2589">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2589">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2589">
-        <v>71</v>
-      </c>
-      <c r="L2589">
-        <v>112</v>
+        <v>73</v>
+      </c>
+      <c r="L2589" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2590" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C2590" t="s">
         <v>330</v>
@@ -33593,21 +33595,21 @@
         <v>48</v>
       </c>
       <c r="I2590">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2590">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K2590">
-        <v>71</v>
-      </c>
-      <c r="L2590">
-        <v>113</v>
+        <v>78</v>
+      </c>
+      <c r="L2590" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2591" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2591" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C2591" t="s">
         <v>330</v>
@@ -33616,16 +33618,16 @@
         <v>337</v>
       </c>
       <c r="F2591">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2591">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2591">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K2591">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L2591">
         <v>113</v>
@@ -33633,7 +33635,7 @@
     </row>
     <row r="2592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2592" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C2592" t="s">
         <v>330</v>
@@ -33642,24 +33644,24 @@
         <v>337</v>
       </c>
       <c r="F2592">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I2592">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J2592">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="K2592">
-        <v>99</v>
-      </c>
-      <c r="L2592" t="s">
-        <v>337</v>
+        <v>66</v>
+      </c>
+      <c r="L2592">
+        <v>113</v>
       </c>
     </row>
     <row r="2593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2593" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C2593" t="s">
         <v>330</v>
@@ -33668,24 +33670,24 @@
         <v>337</v>
       </c>
       <c r="F2593">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I2593">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J2593">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K2593">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L2593">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2594" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C2594" t="s">
         <v>330</v>
@@ -33694,24 +33696,24 @@
         <v>337</v>
       </c>
       <c r="F2594">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I2594">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J2594">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K2594">
-        <v>78</v>
-      </c>
-      <c r="L2594" t="s">
-        <v>337</v>
+        <v>69</v>
+      </c>
+      <c r="L2594">
+        <v>113</v>
       </c>
     </row>
     <row r="2595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2595" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="C2595" t="s">
         <v>330</v>
@@ -33720,24 +33722,24 @@
         <v>337</v>
       </c>
       <c r="F2595">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I2595">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J2595">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K2595">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L2595">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2596" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="C2596" t="s">
         <v>330</v>
@@ -33749,21 +33751,21 @@
         <v>41</v>
       </c>
       <c r="I2596">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2596">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K2596">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L2596">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2597" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2597" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C2597" t="s">
         <v>330</v>
@@ -33772,24 +33774,24 @@
         <v>337</v>
       </c>
       <c r="F2597">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I2597">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="J2597">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="K2597">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="L2597">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2598" t="s">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="C2598" t="s">
         <v>330</v>
@@ -33798,24 +33800,24 @@
         <v>337</v>
       </c>
       <c r="F2598">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2598">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J2598">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2598">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L2598">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2599" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C2599" t="s">
         <v>330</v>
@@ -33824,24 +33826,24 @@
         <v>337</v>
       </c>
       <c r="F2599">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I2599">
+        <v>51</v>
+      </c>
+      <c r="J2599">
         <v>63</v>
       </c>
-      <c r="J2599">
-        <v>75</v>
-      </c>
       <c r="K2599">
-        <v>82</v>
-      </c>
-      <c r="L2599" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2599">
+        <v>113</v>
       </c>
     </row>
     <row r="2600" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2600" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C2600" t="s">
         <v>330</v>
@@ -33850,24 +33852,24 @@
         <v>337</v>
       </c>
       <c r="F2600">
+        <v>41</v>
+      </c>
+      <c r="I2600">
         <v>50</v>
       </c>
-      <c r="I2600">
-        <v>54</v>
-      </c>
       <c r="J2600">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2600">
-        <v>75</v>
-      </c>
-      <c r="L2600" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2600">
+        <v>113</v>
       </c>
     </row>
     <row r="2601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2601" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C2601" t="s">
         <v>330</v>
@@ -33876,16 +33878,16 @@
         <v>337</v>
       </c>
       <c r="F2601">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2601">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2601">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K2601">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2601">
         <v>113</v>
@@ -33893,7 +33895,7 @@
     </row>
     <row r="2602" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2602" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="C2602" t="s">
         <v>330</v>
@@ -33902,16 +33904,16 @@
         <v>337</v>
       </c>
       <c r="F2602">
+        <v>35</v>
+      </c>
+      <c r="I2602">
         <v>48</v>
       </c>
-      <c r="I2602">
-        <v>54</v>
-      </c>
       <c r="J2602">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K2602">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L2602">
         <v>112</v>
@@ -33919,7 +33921,7 @@
     </row>
     <row r="2603" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2603" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C2603" t="s">
         <v>330</v>
@@ -33928,24 +33930,24 @@
         <v>337</v>
       </c>
       <c r="F2603">
+        <v>36</v>
+      </c>
+      <c r="I2603">
         <v>49</v>
       </c>
-      <c r="I2603">
-        <v>58</v>
-      </c>
       <c r="J2603">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="K2603">
-        <v>82</v>
-      </c>
-      <c r="L2603" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2603">
+        <v>112</v>
       </c>
     </row>
     <row r="2604" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2604" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C2604" t="s">
         <v>330</v>
@@ -33954,24 +33956,24 @@
         <v>337</v>
       </c>
       <c r="F2604">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2604">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J2604">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K2604">
-        <v>86</v>
-      </c>
-      <c r="L2604">
-        <v>124</v>
+        <v>76</v>
+      </c>
+      <c r="L2604" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2605" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="C2605" t="s">
         <v>330</v>
@@ -33980,24 +33982,24 @@
         <v>337</v>
       </c>
       <c r="F2605">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I2605">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="J2605">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="K2605">
-        <v>97</v>
-      </c>
-      <c r="L2605" t="s">
-        <v>337</v>
+        <v>66</v>
+      </c>
+      <c r="L2605">
+        <v>112</v>
       </c>
     </row>
     <row r="2606" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2606" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C2606" t="s">
         <v>330</v>
@@ -34006,24 +34008,24 @@
         <v>337</v>
       </c>
       <c r="F2606">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2606">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J2606">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K2606">
-        <v>89</v>
-      </c>
-      <c r="L2606" t="s">
-        <v>337</v>
+        <v>75</v>
+      </c>
+      <c r="L2606">
+        <v>113</v>
       </c>
     </row>
     <row r="2607" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2607" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C2607" t="s">
         <v>330</v>
@@ -34032,24 +34034,24 @@
         <v>337</v>
       </c>
       <c r="F2607">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I2607">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J2607">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="K2607">
-        <v>84</v>
-      </c>
-      <c r="L2607" t="s">
-        <v>337</v>
+        <v>68</v>
+      </c>
+      <c r="L2607">
+        <v>112</v>
       </c>
     </row>
     <row r="2608" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2608" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C2608" t="s">
         <v>330</v>
@@ -34058,24 +34060,24 @@
         <v>337</v>
       </c>
       <c r="F2608">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I2608">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J2608">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K2608">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L2608">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2609" t="s">
-        <v>316</v>
+        <v>118</v>
       </c>
       <c r="C2609" t="s">
         <v>330</v>
@@ -34084,24 +34086,24 @@
         <v>337</v>
       </c>
       <c r="F2609">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I2609">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J2609">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K2609">
-        <v>84</v>
-      </c>
-      <c r="L2609">
-        <v>123</v>
+        <v>75</v>
+      </c>
+      <c r="L2609" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2610" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C2610" t="s">
         <v>330</v>
@@ -34110,16 +34112,16 @@
         <v>337</v>
       </c>
       <c r="F2610">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2610">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J2610">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K2610">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="L2610" t="s">
         <v>337</v>
@@ -34127,7 +34129,7 @@
     </row>
     <row r="2611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2611" t="s">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="C2611" t="s">
         <v>330</v>
@@ -34136,24 +34138,24 @@
         <v>337</v>
       </c>
       <c r="F2611">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I2611">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J2611">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K2611">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L2611">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2612" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C2612" t="s">
         <v>330</v>
@@ -34165,13 +34167,13 @@
         <v>50</v>
       </c>
       <c r="I2612">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J2612">
+        <v>75</v>
+      </c>
+      <c r="K2612">
         <v>83</v>
-      </c>
-      <c r="K2612">
-        <v>90</v>
       </c>
       <c r="L2612" t="s">
         <v>337</v>
@@ -34179,7 +34181,7 @@
     </row>
     <row r="2613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2613" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C2613" t="s">
         <v>330</v>
@@ -34188,16 +34190,16 @@
         <v>337</v>
       </c>
       <c r="F2613">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2613">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="J2613">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K2613">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="L2613" t="s">
         <v>337</v>
@@ -34205,7 +34207,7 @@
     </row>
     <row r="2614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2614" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C2614" t="s">
         <v>330</v>
@@ -34214,24 +34216,24 @@
         <v>337</v>
       </c>
       <c r="F2614">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I2614">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J2614">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="K2614">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="L2614">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2615" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C2615" t="s">
         <v>330</v>
@@ -34240,24 +34242,24 @@
         <v>337</v>
       </c>
       <c r="F2615">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I2615">
+        <v>50</v>
+      </c>
+      <c r="J2615">
+        <v>60</v>
+      </c>
+      <c r="K2615">
         <v>71</v>
       </c>
-      <c r="J2615">
-        <v>85</v>
-      </c>
-      <c r="K2615">
-        <v>92</v>
-      </c>
-      <c r="L2615">
-        <v>127</v>
+      <c r="L2615" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2616" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C2616" t="s">
         <v>330</v>
@@ -34266,24 +34268,24 @@
         <v>337</v>
       </c>
       <c r="F2616">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I2616">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J2616">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K2616">
-        <v>86</v>
-      </c>
-      <c r="L2616" t="s">
-        <v>337</v>
+        <v>69</v>
+      </c>
+      <c r="L2616">
+        <v>113</v>
       </c>
     </row>
     <row r="2617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2617" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C2617" t="s">
         <v>330</v>
@@ -34292,24 +34294,24 @@
         <v>337</v>
       </c>
       <c r="F2617">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I2617">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="J2617">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K2617">
-        <v>103</v>
-      </c>
-      <c r="L2617" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2617">
+        <v>112</v>
       </c>
     </row>
     <row r="2618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2618" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="C2618" t="s">
         <v>330</v>
@@ -34318,16 +34320,16 @@
         <v>337</v>
       </c>
       <c r="F2618">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I2618">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J2618">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K2618">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="L2618" t="s">
         <v>337</v>
@@ -34335,7 +34337,7 @@
     </row>
     <row r="2619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2619" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C2619" t="s">
         <v>330</v>
@@ -34344,24 +34346,24 @@
         <v>337</v>
       </c>
       <c r="F2619">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I2619">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J2619">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K2619">
-        <v>86</v>
-      </c>
-      <c r="L2619" t="s">
-        <v>337</v>
+        <v>66</v>
+      </c>
+      <c r="L2619">
+        <v>112</v>
       </c>
     </row>
     <row r="2620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2620" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C2620" t="s">
         <v>330</v>
@@ -34370,24 +34372,24 @@
         <v>337</v>
       </c>
       <c r="F2620">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I2620">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J2620">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K2620">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="L2620">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2621" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C2621" t="s">
         <v>330</v>
@@ -34396,24 +34398,24 @@
         <v>337</v>
       </c>
       <c r="F2621">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I2621">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J2621">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K2621">
-        <v>97</v>
-      </c>
-      <c r="L2621">
-        <v>127</v>
+        <v>76</v>
+      </c>
+      <c r="L2621" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2622" t="s">
-        <v>90</v>
+        <v>349</v>
       </c>
       <c r="C2622" t="s">
         <v>330</v>
@@ -34422,24 +34424,24 @@
         <v>337</v>
       </c>
       <c r="F2622">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I2622">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J2622">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="K2622">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L2622">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2623" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C2623" t="s">
         <v>330</v>
@@ -34448,24 +34450,24 @@
         <v>337</v>
       </c>
       <c r="F2623">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I2623">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J2623">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K2623">
-        <v>94</v>
-      </c>
-      <c r="L2623">
-        <v>126</v>
+        <v>77</v>
+      </c>
+      <c r="L2623" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2624" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C2624" t="s">
         <v>330</v>
@@ -34474,16 +34476,16 @@
         <v>337</v>
       </c>
       <c r="F2624">
+        <v>41</v>
+      </c>
+      <c r="I2624">
         <v>50</v>
       </c>
-      <c r="I2624">
-        <v>61</v>
-      </c>
       <c r="J2624">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K2624">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L2624" t="s">
         <v>337</v>
@@ -34491,7 +34493,7 @@
     </row>
     <row r="2625" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2625" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2625" t="s">
         <v>330</v>
@@ -34500,24 +34502,24 @@
         <v>337</v>
       </c>
       <c r="F2625">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I2625">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2625">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K2625">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L2625">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2626" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2626" t="s">
-        <v>348</v>
+        <v>145</v>
       </c>
       <c r="C2626" t="s">
         <v>330</v>
@@ -34526,16 +34528,16 @@
         <v>337</v>
       </c>
       <c r="F2626">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I2626">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2626">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K2626">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L2626">
         <v>112</v>
@@ -34543,7 +34545,7 @@
     </row>
     <row r="2627" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2627" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2627" t="s">
         <v>330</v>
@@ -34552,24 +34554,24 @@
         <v>337</v>
       </c>
       <c r="F2627">
+        <v>36</v>
+      </c>
+      <c r="I2627">
         <v>49</v>
       </c>
-      <c r="I2627">
-        <v>54</v>
-      </c>
       <c r="J2627">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K2627">
-        <v>73</v>
-      </c>
-      <c r="L2627" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="L2627">
+        <v>113</v>
       </c>
     </row>
     <row r="2628" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2628" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="C2628" t="s">
         <v>330</v>
@@ -34587,15 +34589,15 @@
         <v>68</v>
       </c>
       <c r="K2628">
-        <v>78</v>
-      </c>
-      <c r="L2628" t="s">
-        <v>337</v>
+        <v>74</v>
+      </c>
+      <c r="L2628">
+        <v>110</v>
       </c>
     </row>
     <row r="2629" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2629" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="C2629" t="s">
         <v>330</v>
@@ -34604,24 +34606,24 @@
         <v>337</v>
       </c>
       <c r="F2629">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I2629">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J2629">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K2629">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L2629">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2630" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2630" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="C2630" t="s">
         <v>330</v>
@@ -34630,24 +34632,24 @@
         <v>337</v>
       </c>
       <c r="F2630">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I2630">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J2630">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K2630">
-        <v>66</v>
-      </c>
-      <c r="L2630">
-        <v>113</v>
+        <v>83</v>
+      </c>
+      <c r="L2630" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2631" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2631" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="C2631" t="s">
         <v>330</v>
@@ -34656,24 +34658,24 @@
         <v>337</v>
       </c>
       <c r="F2631">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I2631">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="J2631">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="K2631">
-        <v>66</v>
-      </c>
-      <c r="L2631">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="L2631" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2632" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2632" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="C2632" t="s">
         <v>330</v>
@@ -34682,24 +34684,24 @@
         <v>337</v>
       </c>
       <c r="F2632">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I2632">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J2632">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K2632">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L2632">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2633" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2633" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="C2633" t="s">
         <v>330</v>
@@ -34708,24 +34710,24 @@
         <v>337</v>
       </c>
       <c r="F2633">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I2633">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J2633">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K2633">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L2633">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2634" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2634" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="C2634" t="s">
         <v>330</v>
@@ -34734,24 +34736,24 @@
         <v>337</v>
       </c>
       <c r="F2634">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I2634">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J2634">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K2634">
-        <v>73</v>
-      </c>
-      <c r="L2634">
-        <v>113</v>
+        <v>77</v>
+      </c>
+      <c r="L2634" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2635" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2635" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="C2635" t="s">
         <v>330</v>
@@ -34760,24 +34762,24 @@
         <v>337</v>
       </c>
       <c r="F2635">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I2635">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="J2635">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="K2635">
-        <v>65</v>
-      </c>
-      <c r="L2635">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="L2635" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2636" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2636" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="C2636" t="s">
         <v>330</v>
@@ -34786,24 +34788,24 @@
         <v>337</v>
       </c>
       <c r="F2636">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I2636">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="J2636">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="K2636">
-        <v>68</v>
-      </c>
-      <c r="L2636">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="L2636" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2637" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2637" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="C2637" t="s">
         <v>330</v>
@@ -34812,24 +34814,24 @@
         <v>337</v>
       </c>
       <c r="F2637">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I2637">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J2637">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K2637">
-        <v>71</v>
-      </c>
-      <c r="L2637">
-        <v>113</v>
+        <v>81</v>
+      </c>
+      <c r="L2637" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2638" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2638" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="C2638" t="s">
         <v>330</v>
@@ -34838,24 +34840,24 @@
         <v>337</v>
       </c>
       <c r="F2638">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I2638">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J2638">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K2638">
-        <v>71</v>
-      </c>
-      <c r="L2638">
-        <v>113</v>
+        <v>81</v>
+      </c>
+      <c r="L2638" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2639" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2639" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="C2639" t="s">
         <v>330</v>
@@ -34864,24 +34866,24 @@
         <v>337</v>
       </c>
       <c r="F2639">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I2639">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J2639">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K2639">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L2639">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2640" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2640" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C2640" t="s">
         <v>330</v>
@@ -34890,24 +34892,24 @@
         <v>337</v>
       </c>
       <c r="F2640">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I2640">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J2640">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K2640">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L2640">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2641" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C2641" t="s">
         <v>330</v>
@@ -34916,24 +34918,24 @@
         <v>337</v>
       </c>
       <c r="F2641">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I2641">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J2641">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K2641">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L2641">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2642" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="C2642" t="s">
         <v>330</v>
@@ -34942,16 +34944,16 @@
         <v>337</v>
       </c>
       <c r="F2642">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2642">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J2642">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K2642">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2642" t="s">
         <v>337</v>
@@ -34959,7 +34961,7 @@
     </row>
     <row r="2643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2643" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="C2643" t="s">
         <v>330</v>
@@ -34968,24 +34970,24 @@
         <v>337</v>
       </c>
       <c r="F2643">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I2643">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="J2643">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K2643">
-        <v>66</v>
-      </c>
-      <c r="L2643">
-        <v>112</v>
+        <v>84</v>
+      </c>
+      <c r="L2643" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2644" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="C2644" t="s">
         <v>330</v>
@@ -34997,21 +34999,21 @@
         <v>48</v>
       </c>
       <c r="I2644">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J2644">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K2644">
-        <v>75</v>
-      </c>
-      <c r="L2644">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="L2644" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2645" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="C2645" t="s">
         <v>330</v>
@@ -35020,24 +35022,24 @@
         <v>337</v>
       </c>
       <c r="F2645">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I2645">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J2645">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K2645">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L2645">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2646" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="C2646" t="s">
         <v>330</v>
@@ -35046,24 +35048,24 @@
         <v>337</v>
       </c>
       <c r="F2646">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2646">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J2646">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K2646">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L2646">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2647" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="C2647" t="s">
         <v>330</v>
@@ -35072,16 +35074,16 @@
         <v>337</v>
       </c>
       <c r="F2647">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I2647">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J2647">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K2647">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L2647" t="s">
         <v>337</v>
@@ -35089,7 +35091,7 @@
     </row>
     <row r="2648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2648" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="C2648" t="s">
         <v>330</v>
@@ -35101,21 +35103,21 @@
         <v>48</v>
       </c>
       <c r="I2648">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J2648">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K2648">
-        <v>75</v>
-      </c>
-      <c r="L2648" t="s">
-        <v>337</v>
+        <v>76</v>
+      </c>
+      <c r="L2648">
+        <v>110</v>
       </c>
     </row>
     <row r="2649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2649" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="C2649" t="s">
         <v>330</v>
@@ -35124,24 +35126,24 @@
         <v>337</v>
       </c>
       <c r="F2649">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I2649">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J2649">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K2649">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L2649">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2650" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="C2650" t="s">
         <v>330</v>
@@ -35150,13 +35152,13 @@
         <v>337</v>
       </c>
       <c r="F2650">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I2650">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J2650">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K2650">
         <v>83</v>
@@ -35167,7 +35169,7 @@
     </row>
     <row r="2651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2651" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="C2651" t="s">
         <v>330</v>
@@ -35176,24 +35178,24 @@
         <v>337</v>
       </c>
       <c r="F2651">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2651">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J2651">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K2651">
-        <v>69</v>
-      </c>
-      <c r="L2651" t="s">
-        <v>337</v>
+        <v>76</v>
+      </c>
+      <c r="L2651">
+        <v>110</v>
       </c>
     </row>
     <row r="2652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2652" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="C2652" t="s">
         <v>330</v>
@@ -35202,24 +35204,24 @@
         <v>337</v>
       </c>
       <c r="F2652">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I2652">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J2652">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K2652">
-        <v>67</v>
-      </c>
-      <c r="L2652">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="L2652" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2653" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="C2653" t="s">
         <v>330</v>
@@ -35228,16 +35230,16 @@
         <v>337</v>
       </c>
       <c r="F2653">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I2653">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J2653">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K2653">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L2653" t="s">
         <v>337</v>
@@ -35245,7 +35247,7 @@
     </row>
     <row r="2654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2654" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="C2654" t="s">
         <v>330</v>
@@ -35254,24 +35256,24 @@
         <v>337</v>
       </c>
       <c r="F2654">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I2654">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J2654">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K2654">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L2654">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2655" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="C2655" t="s">
         <v>330</v>
@@ -35280,24 +35282,24 @@
         <v>337</v>
       </c>
       <c r="F2655">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I2655">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J2655">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K2655">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L2655">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2656" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2656" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="C2656" t="s">
         <v>330</v>
@@ -35306,16 +35308,16 @@
         <v>337</v>
       </c>
       <c r="F2656">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I2656">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J2656">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K2656">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L2656" t="s">
         <v>337</v>
@@ -35323,7 +35325,7 @@
     </row>
     <row r="2657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2657" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="C2657" t="s">
         <v>330</v>
@@ -35332,24 +35334,24 @@
         <v>337</v>
       </c>
       <c r="F2657">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I2657">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J2657">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K2657">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L2657">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2658" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="C2658" t="s">
         <v>330</v>
@@ -35358,24 +35360,24 @@
         <v>337</v>
       </c>
       <c r="F2658">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I2658">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J2658">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K2658">
-        <v>75</v>
-      </c>
-      <c r="L2658">
-        <v>113</v>
+        <v>60</v>
+      </c>
+      <c r="L2658" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2659" t="s">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="C2659" t="s">
         <v>330</v>
@@ -35384,24 +35386,24 @@
         <v>337</v>
       </c>
       <c r="F2659">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I2659">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2659">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K2659">
-        <v>76</v>
-      </c>
-      <c r="L2659" t="s">
-        <v>337</v>
+        <v>67</v>
+      </c>
+      <c r="L2659">
+        <v>94</v>
       </c>
     </row>
     <row r="2660" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2660" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="C2660" t="s">
         <v>330</v>
@@ -35410,24 +35412,24 @@
         <v>337</v>
       </c>
       <c r="F2660">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I2660">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2660">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K2660">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L2660">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2661" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2661" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="C2661" t="s">
         <v>330</v>
@@ -35436,16 +35438,16 @@
         <v>337</v>
       </c>
       <c r="F2661">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2661">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2661">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2661">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L2661" t="s">
         <v>337</v>
@@ -35453,7 +35455,7 @@
     </row>
     <row r="2662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2662" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="C2662" t="s">
         <v>330</v>
@@ -35462,24 +35464,24 @@
         <v>337</v>
       </c>
       <c r="F2662">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2662">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J2662">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K2662">
-        <v>71</v>
-      </c>
-      <c r="L2662" t="s">
-        <v>337</v>
+        <v>70</v>
+      </c>
+      <c r="L2662">
+        <v>94</v>
       </c>
     </row>
     <row r="2663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2663" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="C2663" t="s">
         <v>330</v>
@@ -35488,24 +35490,24 @@
         <v>337</v>
       </c>
       <c r="F2663">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2663">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2663">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K2663">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L2663">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2664" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2664" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="C2664" t="s">
         <v>330</v>
@@ -35514,24 +35516,24 @@
         <v>337</v>
       </c>
       <c r="F2664">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2664">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2664">
+        <v>58</v>
+      </c>
+      <c r="K2664">
         <v>63</v>
       </c>
-      <c r="K2664">
-        <v>71</v>
-      </c>
-      <c r="L2664">
-        <v>112</v>
+      <c r="L2664" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2665" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2665" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="C2665" t="s">
         <v>330</v>
@@ -35540,24 +35542,24 @@
         <v>337</v>
       </c>
       <c r="F2665">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I2665">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J2665">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K2665">
-        <v>71</v>
-      </c>
-      <c r="L2665">
-        <v>113</v>
+        <v>79</v>
+      </c>
+      <c r="L2665" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2666" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2666" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C2666" t="s">
         <v>330</v>
@@ -35566,24 +35568,24 @@
         <v>337</v>
       </c>
       <c r="F2666">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2666">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2666">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K2666">
-        <v>74</v>
-      </c>
-      <c r="L2666">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="L2666" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2667" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2667" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="C2667" t="s">
         <v>330</v>
@@ -35592,24 +35594,24 @@
         <v>337</v>
       </c>
       <c r="F2667">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2667">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J2667">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K2667">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L2667">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2668" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2668" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="C2668" t="s">
         <v>330</v>
@@ -35618,16 +35620,16 @@
         <v>337</v>
       </c>
       <c r="F2668">
+        <v>46</v>
+      </c>
+      <c r="I2668">
         <v>53</v>
       </c>
-      <c r="I2668">
-        <v>66</v>
-      </c>
       <c r="J2668">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K2668">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L2668" t="s">
         <v>337</v>
@@ -35635,7 +35637,7 @@
     </row>
     <row r="2669" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2669" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C2669" t="s">
         <v>330</v>
@@ -35644,16 +35646,16 @@
         <v>337</v>
       </c>
       <c r="F2669">
+        <v>42</v>
+      </c>
+      <c r="I2669">
+        <v>48</v>
+      </c>
+      <c r="J2669">
+        <v>57</v>
+      </c>
+      <c r="K2669">
         <v>61</v>
-      </c>
-      <c r="I2669">
-        <v>69</v>
-      </c>
-      <c r="J2669">
-        <v>81</v>
-      </c>
-      <c r="K2669">
-        <v>87</v>
       </c>
       <c r="L2669" t="s">
         <v>337</v>
@@ -35661,7 +35663,7 @@
     </row>
     <row r="2670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2670" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="C2670" t="s">
         <v>330</v>
@@ -35670,24 +35672,24 @@
         <v>337</v>
       </c>
       <c r="F2670">
+        <v>42</v>
+      </c>
+      <c r="I2670">
         <v>48</v>
       </c>
-      <c r="I2670">
-        <v>59</v>
-      </c>
       <c r="J2670">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K2670">
-        <v>78</v>
-      </c>
-      <c r="L2670">
-        <v>110</v>
+        <v>62</v>
+      </c>
+      <c r="L2670" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2671" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2671" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="C2671" t="s">
         <v>330</v>
@@ -35696,24 +35698,24 @@
         <v>337</v>
       </c>
       <c r="F2671">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I2671">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2671">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K2671">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L2671">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2672" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="C2672" t="s">
         <v>330</v>
@@ -35722,16 +35724,16 @@
         <v>337</v>
       </c>
       <c r="F2672">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2672">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J2672">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K2672">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L2672" t="s">
         <v>337</v>
@@ -35739,7 +35741,7 @@
     </row>
     <row r="2673" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2673" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C2673" t="s">
         <v>330</v>
@@ -35748,16 +35750,16 @@
         <v>337</v>
       </c>
       <c r="F2673">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I2673">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J2673">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K2673">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="L2673" t="s">
         <v>337</v>
@@ -35765,7 +35767,7 @@
     </row>
     <row r="2674" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2674" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C2674" t="s">
         <v>330</v>
@@ -35774,16 +35776,16 @@
         <v>337</v>
       </c>
       <c r="F2674">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2674">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J2674">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="K2674">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="L2674" t="s">
         <v>337</v>
@@ -35791,7 +35793,7 @@
     </row>
     <row r="2675" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2675" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="C2675" t="s">
         <v>330</v>
@@ -35800,24 +35802,24 @@
         <v>337</v>
       </c>
       <c r="F2675">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I2675">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J2675">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K2675">
-        <v>81</v>
-      </c>
-      <c r="L2675" t="s">
-        <v>337</v>
+        <v>64</v>
+      </c>
+      <c r="L2675">
+        <v>94</v>
       </c>
     </row>
     <row r="2676" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2676" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C2676" t="s">
         <v>330</v>
@@ -35826,16 +35828,16 @@
         <v>337</v>
       </c>
       <c r="F2676">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I2676">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J2676">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K2676">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L2676" t="s">
         <v>337</v>
@@ -35843,7 +35845,7 @@
     </row>
     <row r="2677" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2677" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="C2677" t="s">
         <v>330</v>
@@ -35852,24 +35854,24 @@
         <v>337</v>
       </c>
       <c r="F2677">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2677">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J2677">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K2677">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L2677">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2678" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2678" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="C2678" t="s">
         <v>330</v>
@@ -35878,24 +35880,24 @@
         <v>337</v>
       </c>
       <c r="F2678">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I2678">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J2678">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K2678">
-        <v>76</v>
-      </c>
-      <c r="L2678">
-        <v>109</v>
+        <v>63</v>
+      </c>
+      <c r="L2678" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2679" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C2679" t="s">
         <v>330</v>
@@ -35904,24 +35906,24 @@
         <v>337</v>
       </c>
       <c r="F2679">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2679">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="J2679">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="K2679">
-        <v>80</v>
-      </c>
-      <c r="L2679">
-        <v>110</v>
+        <v>97</v>
+      </c>
+      <c r="L2679" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2680" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2680" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C2680" t="s">
         <v>330</v>
@@ -35930,24 +35932,24 @@
         <v>337</v>
       </c>
       <c r="F2680">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I2680">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J2680">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K2680">
-        <v>79</v>
-      </c>
-      <c r="L2680" t="s">
-        <v>337</v>
+        <v>64</v>
+      </c>
+      <c r="L2680">
+        <v>94</v>
       </c>
     </row>
     <row r="2681" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2681" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="C2681" t="s">
         <v>330</v>
@@ -35956,24 +35958,24 @@
         <v>337</v>
       </c>
       <c r="F2681">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I2681">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J2681">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K2681">
-        <v>84</v>
-      </c>
-      <c r="L2681" t="s">
-        <v>337</v>
+        <v>70</v>
+      </c>
+      <c r="L2681">
+        <v>94</v>
       </c>
     </row>
     <row r="2682" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2682" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="C2682" t="s">
         <v>330</v>
@@ -35982,24 +35984,24 @@
         <v>337</v>
       </c>
       <c r="F2682">
+        <v>42</v>
+      </c>
+      <c r="I2682">
         <v>48</v>
       </c>
-      <c r="I2682">
-        <v>63</v>
-      </c>
       <c r="J2682">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K2682">
-        <v>82</v>
-      </c>
-      <c r="L2682" t="s">
-        <v>337</v>
+        <v>62</v>
+      </c>
+      <c r="L2682">
+        <v>94</v>
       </c>
     </row>
     <row r="2683" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2683" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="C2683" t="s">
         <v>330</v>
@@ -36008,24 +36010,24 @@
         <v>337</v>
       </c>
       <c r="F2683">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I2683">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2683">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K2683">
-        <v>77</v>
-      </c>
-      <c r="L2683">
-        <v>110</v>
+        <v>73</v>
+      </c>
+      <c r="L2683" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2684" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2684" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="C2684" t="s">
         <v>330</v>
@@ -36034,24 +36036,24 @@
         <v>337</v>
       </c>
       <c r="F2684">
+        <v>42</v>
+      </c>
+      <c r="I2684">
         <v>48</v>
       </c>
-      <c r="I2684">
-        <v>60</v>
-      </c>
       <c r="J2684">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K2684">
-        <v>79</v>
-      </c>
-      <c r="L2684">
-        <v>110</v>
+        <v>63</v>
+      </c>
+      <c r="L2684" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2685" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2685" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C2685" t="s">
         <v>330</v>
@@ -36060,16 +36062,16 @@
         <v>337</v>
       </c>
       <c r="F2685">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I2685">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J2685">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K2685">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="L2685" t="s">
         <v>337</v>
@@ -36077,7 +36079,7 @@
     </row>
     <row r="2686" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2686" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="C2686" t="s">
         <v>330</v>
@@ -36086,24 +36088,24 @@
         <v>337</v>
       </c>
       <c r="F2686">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2686">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J2686">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K2686">
-        <v>76</v>
-      </c>
-      <c r="L2686">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="L2686" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2687" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2687" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="C2687" t="s">
         <v>330</v>
@@ -36112,24 +36114,24 @@
         <v>337</v>
       </c>
       <c r="F2687">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I2687">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J2687">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K2687">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L2687">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2688" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2688" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C2688" t="s">
         <v>330</v>
@@ -36138,16 +36140,16 @@
         <v>337</v>
       </c>
       <c r="F2688">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I2688">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J2688">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K2688">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L2688" t="s">
         <v>337</v>
@@ -36155,7 +36157,7 @@
     </row>
     <row r="2689" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2689" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C2689" t="s">
         <v>330</v>
@@ -36164,1006 +36166,18 @@
         <v>337</v>
       </c>
       <c r="F2689">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I2689">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J2689">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K2689">
-        <v>76</v>
-      </c>
-      <c r="L2689">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2690" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2690" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2690" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2690" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2690">
-        <v>56</v>
-      </c>
-      <c r="I2690">
-        <v>70</v>
-      </c>
-      <c r="J2690">
-        <v>81</v>
-      </c>
-      <c r="K2690">
-        <v>87</v>
-      </c>
-      <c r="L2690" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2691" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2691" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2691" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2691" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2691">
-        <v>56</v>
-      </c>
-      <c r="I2691">
-        <v>70</v>
-      </c>
-      <c r="J2691">
-        <v>84</v>
-      </c>
-      <c r="K2691">
-        <v>90</v>
-      </c>
-      <c r="L2691" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2692" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2692" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2692" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2692" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2692">
-        <v>51</v>
-      </c>
-      <c r="I2692">
-        <v>58</v>
-      </c>
-      <c r="J2692">
-        <v>71</v>
-      </c>
-      <c r="K2692">
-        <v>76</v>
-      </c>
-      <c r="L2692">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2693" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2693" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2693" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2693" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2693">
-        <v>48</v>
-      </c>
-      <c r="I2693">
-        <v>56</v>
-      </c>
-      <c r="J2693">
-        <v>71</v>
-      </c>
-      <c r="K2693">
-        <v>76</v>
-      </c>
-      <c r="L2693">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2694" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2694" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2694" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2694" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2694">
-        <v>54</v>
-      </c>
-      <c r="I2694">
-        <v>66</v>
-      </c>
-      <c r="J2694">
-        <v>78</v>
-      </c>
-      <c r="K2694">
-        <v>83</v>
-      </c>
-      <c r="L2694" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2695" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2695" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2695" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2695" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2695">
-        <v>48</v>
-      </c>
-      <c r="I2695">
-        <v>56</v>
-      </c>
-      <c r="J2695">
-        <v>68</v>
-      </c>
-      <c r="K2695">
-        <v>75</v>
-      </c>
-      <c r="L2695">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2696" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2696" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2696" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2696" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2696">
-        <v>42</v>
-      </c>
-      <c r="I2696">
-        <v>46</v>
-      </c>
-      <c r="J2696">
-        <v>54</v>
-      </c>
-      <c r="K2696">
         <v>60</v>
       </c>
-      <c r="L2696" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2697" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2697" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2697" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2697" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2697">
-        <v>42</v>
-      </c>
-      <c r="I2697">
-        <v>53</v>
-      </c>
-      <c r="J2697">
-        <v>61</v>
-      </c>
-      <c r="K2697">
-        <v>67</v>
-      </c>
-      <c r="L2697">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2698" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2698" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2698" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2698" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2698">
-        <v>42</v>
-      </c>
-      <c r="I2698">
-        <v>53</v>
-      </c>
-      <c r="J2698">
-        <v>63</v>
-      </c>
-      <c r="K2698">
-        <v>70</v>
-      </c>
-      <c r="L2698">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2699" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2699" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2699" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2699" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2699">
-        <v>48</v>
-      </c>
-      <c r="I2699">
-        <v>56</v>
-      </c>
-      <c r="J2699">
-        <v>64</v>
-      </c>
-      <c r="K2699">
-        <v>70</v>
-      </c>
-      <c r="L2699" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2700" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2700" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2700" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2700" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2700">
-        <v>42</v>
-      </c>
-      <c r="I2700">
-        <v>56</v>
-      </c>
-      <c r="J2700">
-        <v>65</v>
-      </c>
-      <c r="K2700">
-        <v>70</v>
-      </c>
-      <c r="L2700">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2701" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2701" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2701" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2701" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2701">
-        <v>42</v>
-      </c>
-      <c r="I2701">
-        <v>48</v>
-      </c>
-      <c r="J2701">
-        <v>58</v>
-      </c>
-      <c r="K2701">
-        <v>63</v>
-      </c>
-      <c r="L2701">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2702" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2702" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2702" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2702" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2702">
-        <v>42</v>
-      </c>
-      <c r="I2702">
-        <v>49</v>
-      </c>
-      <c r="J2702">
-        <v>58</v>
-      </c>
-      <c r="K2702">
-        <v>63</v>
-      </c>
-      <c r="L2702" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2703" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2703" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2703" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2703" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2703">
-        <v>42</v>
-      </c>
-      <c r="I2703">
-        <v>59</v>
-      </c>
-      <c r="J2703">
-        <v>73</v>
-      </c>
-      <c r="K2703">
-        <v>79</v>
-      </c>
-      <c r="L2703" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2704" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2704" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2704" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2704" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2704">
-        <v>47</v>
-      </c>
-      <c r="I2704">
-        <v>55</v>
-      </c>
-      <c r="J2704">
-        <v>63</v>
-      </c>
-      <c r="K2704">
-        <v>67</v>
-      </c>
-      <c r="L2704" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2705" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2705" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2705" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2705" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2705">
-        <v>47</v>
-      </c>
-      <c r="I2705">
-        <v>53</v>
-      </c>
-      <c r="J2705">
-        <v>62</v>
-      </c>
-      <c r="K2705">
-        <v>68</v>
-      </c>
-      <c r="L2705">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2706" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2706" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2706" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2706" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2706">
-        <v>46</v>
-      </c>
-      <c r="I2706">
-        <v>53</v>
-      </c>
-      <c r="J2706">
-        <v>65</v>
-      </c>
-      <c r="K2706">
-        <v>72</v>
-      </c>
-      <c r="L2706" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2707" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2707" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2707" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2707" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2707">
-        <v>42</v>
-      </c>
-      <c r="I2707">
-        <v>48</v>
-      </c>
-      <c r="J2707">
-        <v>57</v>
-      </c>
-      <c r="K2707">
-        <v>61</v>
-      </c>
-      <c r="L2707" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2708" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2708" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2708" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2708" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2708">
-        <v>42</v>
-      </c>
-      <c r="I2708">
-        <v>48</v>
-      </c>
-      <c r="J2708">
-        <v>57</v>
-      </c>
-      <c r="K2708">
-        <v>62</v>
-      </c>
-      <c r="L2708" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2709" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2709" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2709" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2709" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2709">
-        <v>42</v>
-      </c>
-      <c r="I2709">
-        <v>52</v>
-      </c>
-      <c r="J2709">
-        <v>61</v>
-      </c>
-      <c r="K2709">
-        <v>67</v>
-      </c>
-      <c r="L2709">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2710" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2710" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2710" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2710" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2710">
-        <v>46</v>
-      </c>
-      <c r="I2710">
-        <v>52</v>
-      </c>
-      <c r="J2710">
-        <v>60</v>
-      </c>
-      <c r="K2710">
-        <v>66</v>
-      </c>
-      <c r="L2710" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2711" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2711" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2711" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2711" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2711">
-        <v>42</v>
-      </c>
-      <c r="I2711">
-        <v>59</v>
-      </c>
-      <c r="J2711">
-        <v>70</v>
-      </c>
-      <c r="K2711">
-        <v>77</v>
-      </c>
-      <c r="L2711" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2712" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2712" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2712" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2712" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2712">
-        <v>49</v>
-      </c>
-      <c r="I2712">
-        <v>53</v>
-      </c>
-      <c r="J2712">
-        <v>62</v>
-      </c>
-      <c r="K2712">
-        <v>70</v>
-      </c>
-      <c r="L2712" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2713" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2713" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2713" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2713" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2713">
-        <v>45</v>
-      </c>
-      <c r="I2713">
-        <v>52</v>
-      </c>
-      <c r="J2713">
-        <v>60</v>
-      </c>
-      <c r="K2713">
-        <v>64</v>
-      </c>
-      <c r="L2713">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2714" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2714" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2714" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2714" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2714">
-        <v>49</v>
-      </c>
-      <c r="I2714">
-        <v>56</v>
-      </c>
-      <c r="J2714">
-        <v>64</v>
-      </c>
-      <c r="K2714">
-        <v>67</v>
-      </c>
-      <c r="L2714" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2715" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2715" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2715" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2715" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2715">
-        <v>46</v>
-      </c>
-      <c r="I2715">
-        <v>53</v>
-      </c>
-      <c r="J2715">
-        <v>62</v>
-      </c>
-      <c r="K2715">
-        <v>68</v>
-      </c>
-      <c r="L2715">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2716" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2716" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2716" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2716" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2716">
-        <v>42</v>
-      </c>
-      <c r="I2716">
-        <v>47</v>
-      </c>
-      <c r="J2716">
-        <v>57</v>
-      </c>
-      <c r="K2716">
-        <v>63</v>
-      </c>
-      <c r="L2716" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2717" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2717" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2717" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2717" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2717">
-        <v>71</v>
-      </c>
-      <c r="I2717">
-        <v>77</v>
-      </c>
-      <c r="J2717">
-        <v>93</v>
-      </c>
-      <c r="K2717">
-        <v>97</v>
-      </c>
-      <c r="L2717" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2718" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2718" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2718" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2718" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2718">
-        <v>45</v>
-      </c>
-      <c r="I2718">
-        <v>52</v>
-      </c>
-      <c r="J2718">
-        <v>60</v>
-      </c>
-      <c r="K2718">
-        <v>64</v>
-      </c>
-      <c r="L2718">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2719" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2719" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2719" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2719" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2719">
-        <v>51</v>
-      </c>
-      <c r="I2719">
-        <v>55</v>
-      </c>
-      <c r="J2719">
-        <v>63</v>
-      </c>
-      <c r="K2719">
-        <v>70</v>
-      </c>
-      <c r="L2719">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2720" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2720" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2720" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2720" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2720">
-        <v>42</v>
-      </c>
-      <c r="I2720">
-        <v>48</v>
-      </c>
-      <c r="J2720">
-        <v>57</v>
-      </c>
-      <c r="K2720">
-        <v>62</v>
-      </c>
-      <c r="L2720">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2721" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2721" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2721" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2721" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2721">
-        <v>49</v>
-      </c>
-      <c r="I2721">
-        <v>59</v>
-      </c>
-      <c r="J2721">
-        <v>68</v>
-      </c>
-      <c r="K2721">
-        <v>73</v>
-      </c>
-      <c r="L2721" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2722" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2722" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2722" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2722" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2722">
-        <v>42</v>
-      </c>
-      <c r="I2722">
-        <v>48</v>
-      </c>
-      <c r="J2722">
-        <v>57</v>
-      </c>
-      <c r="K2722">
-        <v>63</v>
-      </c>
-      <c r="L2722" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2723" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2723" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2723" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2723" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2723">
-        <v>42</v>
-      </c>
-      <c r="I2723">
-        <v>47</v>
-      </c>
-      <c r="J2723">
-        <v>58</v>
-      </c>
-      <c r="K2723">
-        <v>63</v>
-      </c>
-      <c r="L2723" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2724" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2724" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2724" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2724" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2724">
-        <v>71</v>
-      </c>
-      <c r="I2724">
-        <v>77</v>
-      </c>
-      <c r="J2724">
-        <v>97</v>
-      </c>
-      <c r="K2724">
-        <v>102</v>
-      </c>
-      <c r="L2724" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2725" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2725" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2725" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2725" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2725">
-        <v>42</v>
-      </c>
-      <c r="I2725">
-        <v>48</v>
-      </c>
-      <c r="J2725">
-        <v>58</v>
-      </c>
-      <c r="K2725">
-        <v>63</v>
-      </c>
-      <c r="L2725">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2726" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2726" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2726" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2726" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2726">
-        <v>44</v>
-      </c>
-      <c r="I2726">
-        <v>52</v>
-      </c>
-      <c r="J2726">
-        <v>63</v>
-      </c>
-      <c r="K2726">
-        <v>70</v>
-      </c>
-      <c r="L2726" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2727" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2727" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2727" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2727" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2727">
-        <v>42</v>
-      </c>
-      <c r="I2727">
-        <v>47</v>
-      </c>
-      <c r="J2727">
-        <v>56</v>
-      </c>
-      <c r="K2727">
-        <v>60</v>
-      </c>
-      <c r="L2727" t="s">
+      <c r="L2689" t="s">
         <v>337</v>
       </c>
     </row>

--- a/Tests/Validation/Wheat/Gatton2014_2016.xlsx
+++ b/Tests/Validation/Wheat/Gatton2014_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4DE763-E805-493C-957B-BE72B66AA096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00E4E4A-A439-48B7-96A8-F880A2B74D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="355">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1491,13 +1491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2689"/>
+  <dimension ref="A1:S2689"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2546" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2667" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:S1048576"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28521,497 +28521,630 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2395" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2395" t="s">
+    <row r="2395" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2395" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C2395" t="s">
+      <c r="B2395" s="5"/>
+      <c r="C2395" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2395">
+      <c r="D2395" s="4">
         <v>11</v>
       </c>
-      <c r="F2395">
-        <v>57</v>
-      </c>
-      <c r="I2395">
-        <v>69</v>
-      </c>
-      <c r="J2395">
-        <v>85</v>
-      </c>
-      <c r="K2395">
-        <v>92</v>
-      </c>
-      <c r="L2395">
+      <c r="F2395" s="4">
+        <v>113</v>
+      </c>
+      <c r="G2395" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2395" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2395" s="4">
+        <v>125</v>
+      </c>
+      <c r="J2395" s="4">
+        <v>141</v>
+      </c>
+      <c r="K2395" s="4">
+        <v>148</v>
+      </c>
+      <c r="L2395" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2396" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2396" s="5"/>
+      <c r="C2396" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2396" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2396" s="4">
+        <v>104</v>
+      </c>
+      <c r="G2396" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2396" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2396" s="4">
+        <v>114</v>
+      </c>
+      <c r="J2396" s="4">
+        <v>130</v>
+      </c>
+      <c r="K2396" s="4">
+        <v>138</v>
+      </c>
+      <c r="L2396" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2397" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2397" s="5"/>
+      <c r="C2397" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2397" s="4">
+        <v>11</v>
+      </c>
+      <c r="F2397" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2397" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2397" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2397" s="4">
+        <v>131</v>
+      </c>
+      <c r="J2397" s="4">
+        <v>152</v>
+      </c>
+      <c r="K2397" s="4">
+        <v>159</v>
+      </c>
+      <c r="L2397" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2398" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2398" s="5"/>
+      <c r="C2398" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2398" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2398" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2398" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2398" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2398" s="4">
+        <v>123</v>
+      </c>
+      <c r="J2398" s="4">
+        <v>139</v>
+      </c>
+      <c r="K2398" s="4">
+        <v>148</v>
+      </c>
+      <c r="L2398" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2399" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2399" s="5"/>
+      <c r="C2399" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2399" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2399" s="4">
+        <v>112</v>
+      </c>
+      <c r="G2399" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2399" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2399" s="4">
+        <v>128</v>
+      </c>
+      <c r="J2399" s="4">
+        <v>142</v>
+      </c>
+      <c r="K2399" s="4">
+        <v>150</v>
+      </c>
+      <c r="L2399" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2400" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2400" s="5"/>
+      <c r="C2400" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2400" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2400" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2400" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2400" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2400" s="4">
+        <v>125</v>
+      </c>
+      <c r="J2400" s="4">
+        <v>140</v>
+      </c>
+      <c r="K2400" s="4">
+        <v>148</v>
+      </c>
+      <c r="L2400" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2401" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2401" s="5"/>
+      <c r="C2401" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2401" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2401" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2401" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2401" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2401" s="4">
+        <v>118</v>
+      </c>
+      <c r="J2401" s="4">
+        <v>133</v>
+      </c>
+      <c r="K2401" s="4">
+        <v>142</v>
+      </c>
+      <c r="L2401" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2402" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2402" s="5"/>
+      <c r="C2402" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2402" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2402" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2402" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2402" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2402" s="4">
+        <v>128</v>
+      </c>
+      <c r="J2402" s="4">
+        <v>142</v>
+      </c>
+      <c r="K2402" s="4">
+        <v>151</v>
+      </c>
+      <c r="L2402" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2403" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2403" s="5"/>
+      <c r="C2403" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2403" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F2403" s="4">
+        <v>107</v>
+      </c>
+      <c r="G2403" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2403" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2403" s="4">
+        <v>118</v>
+      </c>
+      <c r="J2403" s="4">
+        <v>133</v>
+      </c>
+      <c r="K2403" s="4">
+        <v>140</v>
+      </c>
+      <c r="L2403" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2404" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2404" s="5"/>
+      <c r="C2404" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2404" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2404" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2404" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2404" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2404" s="4">
+        <v>125</v>
+      </c>
+      <c r="J2404" s="4">
+        <v>141</v>
+      </c>
+      <c r="K2404" s="4">
+        <v>148</v>
+      </c>
+      <c r="L2404" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2405" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2405" s="5"/>
+      <c r="C2405" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2405" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2405" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2405" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2405" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2405" s="4">
+        <v>124</v>
+      </c>
+      <c r="J2405" s="4">
+        <v>140</v>
+      </c>
+      <c r="K2405" s="4">
+        <v>148</v>
+      </c>
+      <c r="L2405" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2406" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2406" s="5"/>
+      <c r="C2406" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2406" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2406" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2406" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2406" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2406" s="4">
+        <v>120</v>
+      </c>
+      <c r="J2406" s="4">
+        <v>134</v>
+      </c>
+      <c r="K2406" s="4">
+        <v>141</v>
+      </c>
+      <c r="L2406" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2407" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2407" s="5"/>
+      <c r="C2407" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2407" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2407" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2407" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2407" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2407" s="4">
+        <v>119</v>
+      </c>
+      <c r="J2407" s="4">
+        <v>133</v>
+      </c>
+      <c r="K2407" s="4">
+        <v>141</v>
+      </c>
+      <c r="L2407" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2408" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2408" s="5"/>
+      <c r="C2408" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2408" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2408" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2408" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2408" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2408" s="4">
+        <v>120</v>
+      </c>
+      <c r="J2408" s="4">
+        <v>135</v>
+      </c>
+      <c r="K2408" s="4">
+        <v>140</v>
+      </c>
+      <c r="L2408" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2409" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2409" s="5"/>
+      <c r="C2409" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2409" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="F2409" s="4">
+        <v>105</v>
+      </c>
+      <c r="G2409" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2409" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2409" s="4">
+        <v>117</v>
+      </c>
+      <c r="J2409" s="4">
+        <v>134</v>
+      </c>
+      <c r="K2409" s="4">
+        <v>141</v>
+      </c>
+      <c r="L2409" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2410" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2410" s="5"/>
+      <c r="C2410" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2410" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="F2410" s="4">
+        <v>112</v>
+      </c>
+      <c r="G2410" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2410" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2410" s="4">
+        <v>124</v>
+      </c>
+      <c r="J2410" s="4">
+        <v>145</v>
+      </c>
+      <c r="K2410" s="4">
+        <v>150</v>
+      </c>
+      <c r="L2410" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2411" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2411" s="5"/>
+      <c r="C2411" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2411" s="4">
+        <v>11</v>
+      </c>
+      <c r="F2411" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2411" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2411" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2411" s="4">
+        <v>125</v>
+      </c>
+      <c r="J2411" s="4">
+        <v>139</v>
+      </c>
+      <c r="K2411" s="4">
+        <v>145</v>
+      </c>
+      <c r="L2411" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2412" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2412" s="5"/>
+      <c r="C2412" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2412" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2412" s="4">
+        <v>106</v>
+      </c>
+      <c r="G2412" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2412" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2412" s="4">
         <v>127</v>
       </c>
-    </row>
-    <row r="2396" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2396" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2396" t="s">
+      <c r="J2412" s="4">
+        <v>141</v>
+      </c>
+      <c r="K2412" s="4">
+        <v>148</v>
+      </c>
+      <c r="L2412" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2413" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2413" s="5"/>
+      <c r="C2413" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2396">
-        <v>9</v>
-      </c>
-      <c r="F2396">
-        <v>48</v>
-      </c>
-      <c r="I2396">
-        <v>58</v>
-      </c>
-      <c r="J2396">
-        <v>74</v>
-      </c>
-      <c r="K2396">
-        <v>82</v>
-      </c>
-      <c r="L2396">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2397" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2397" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2397">
-        <v>11</v>
-      </c>
-      <c r="F2397">
-        <v>50</v>
-      </c>
-      <c r="I2397">
-        <v>75</v>
-      </c>
-      <c r="J2397">
-        <v>96</v>
-      </c>
-      <c r="K2397">
-        <v>103</v>
-      </c>
-      <c r="L2397" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2398" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2398" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2398" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2398">
+      <c r="D2413" s="4">
         <v>10</v>
       </c>
-      <c r="F2398">
-        <v>50</v>
-      </c>
-      <c r="I2398">
-        <v>67</v>
-      </c>
-      <c r="J2398">
-        <v>83</v>
-      </c>
-      <c r="K2398">
-        <v>92</v>
-      </c>
-      <c r="L2398">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2399" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2399" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2399" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2399">
-        <v>10</v>
-      </c>
-      <c r="F2399">
-        <v>56</v>
-      </c>
-      <c r="I2399">
-        <v>72</v>
-      </c>
-      <c r="J2399">
-        <v>86</v>
-      </c>
-      <c r="K2399">
-        <v>94</v>
-      </c>
-      <c r="L2399">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2400" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2400" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2400" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2400">
-        <v>10</v>
-      </c>
-      <c r="F2400">
-        <v>50</v>
-      </c>
-      <c r="I2400">
-        <v>69</v>
-      </c>
-      <c r="J2400">
-        <v>84</v>
-      </c>
-      <c r="K2400">
-        <v>92</v>
-      </c>
-      <c r="L2400">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2401" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2401" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2401" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2401">
-        <v>9</v>
-      </c>
-      <c r="F2401">
-        <v>50</v>
-      </c>
-      <c r="I2401">
-        <v>62</v>
-      </c>
-      <c r="J2401">
-        <v>77</v>
-      </c>
-      <c r="K2401">
-        <v>86</v>
-      </c>
-      <c r="L2401" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2402" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2402" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2402" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2402">
-        <v>10</v>
-      </c>
-      <c r="F2402">
-        <v>50</v>
-      </c>
-      <c r="I2402">
-        <v>72</v>
-      </c>
-      <c r="J2402">
-        <v>86</v>
-      </c>
-      <c r="K2402">
-        <v>95</v>
-      </c>
-      <c r="L2402">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2403" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2403" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2403" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2403">
-        <v>9.5</v>
-      </c>
-      <c r="F2403">
-        <v>51</v>
-      </c>
-      <c r="I2403">
-        <v>62</v>
-      </c>
-      <c r="J2403">
-        <v>77</v>
-      </c>
-      <c r="K2403">
-        <v>84</v>
-      </c>
-      <c r="L2403">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2404" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2404" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2404" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2404">
-        <v>10</v>
-      </c>
-      <c r="F2404">
-        <v>50</v>
-      </c>
-      <c r="I2404">
-        <v>69</v>
-      </c>
-      <c r="J2404">
-        <v>85</v>
-      </c>
-      <c r="K2404">
-        <v>92</v>
-      </c>
-      <c r="L2404">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2405" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2405" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2405" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2405">
-        <v>10</v>
-      </c>
-      <c r="F2405">
-        <v>50</v>
-      </c>
-      <c r="I2405">
-        <v>68</v>
-      </c>
-      <c r="J2405">
-        <v>84</v>
-      </c>
-      <c r="K2405">
-        <v>92</v>
-      </c>
-      <c r="L2405">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2406" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2406" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2406" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2406">
-        <v>9</v>
-      </c>
-      <c r="F2406">
-        <v>50</v>
-      </c>
-      <c r="I2406">
-        <v>64</v>
-      </c>
-      <c r="J2406">
-        <v>78</v>
-      </c>
-      <c r="K2406">
-        <v>85</v>
-      </c>
-      <c r="L2406">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2407" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2407" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2407" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2407">
-        <v>9</v>
-      </c>
-      <c r="F2407">
-        <v>50</v>
-      </c>
-      <c r="I2407">
-        <v>63</v>
-      </c>
-      <c r="J2407">
-        <v>77</v>
-      </c>
-      <c r="K2407">
-        <v>85</v>
-      </c>
-      <c r="L2407" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2408" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2408" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2408" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2408">
-        <v>10</v>
-      </c>
-      <c r="F2408">
-        <v>50</v>
-      </c>
-      <c r="I2408">
-        <v>64</v>
-      </c>
-      <c r="J2408">
-        <v>79</v>
-      </c>
-      <c r="K2408">
-        <v>84</v>
-      </c>
-      <c r="L2408" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2409" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2409" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2409" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2409">
-        <v>10.5</v>
-      </c>
-      <c r="F2409">
-        <v>49</v>
-      </c>
-      <c r="I2409">
-        <v>61</v>
-      </c>
-      <c r="J2409">
-        <v>78</v>
-      </c>
-      <c r="K2409">
-        <v>85</v>
-      </c>
-      <c r="L2409" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2410" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2410" t="s">
+      <c r="F2413" s="4">
         <v>105</v>
       </c>
-      <c r="C2410" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2410">
-        <v>10.5</v>
-      </c>
-      <c r="F2410">
-        <v>56</v>
-      </c>
-      <c r="I2410">
-        <v>68</v>
-      </c>
-      <c r="J2410">
-        <v>89</v>
-      </c>
-      <c r="K2410">
-        <v>94</v>
-      </c>
-      <c r="L2410">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2411" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2411" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2411" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2411">
-        <v>11</v>
-      </c>
-      <c r="F2411">
-        <v>50</v>
-      </c>
-      <c r="I2411">
-        <v>69</v>
-      </c>
-      <c r="J2411">
-        <v>83</v>
-      </c>
-      <c r="K2411">
-        <v>89</v>
-      </c>
-      <c r="L2411" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2412" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2412" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2412" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2412">
-        <v>10</v>
-      </c>
-      <c r="F2412">
-        <v>50</v>
-      </c>
-      <c r="I2412">
-        <v>71</v>
-      </c>
-      <c r="J2412">
-        <v>85</v>
-      </c>
-      <c r="K2412">
-        <v>92</v>
-      </c>
-      <c r="L2412">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2413" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2413" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2413">
-        <v>10</v>
-      </c>
-      <c r="F2413">
-        <v>49</v>
-      </c>
-      <c r="I2413">
-        <v>59</v>
-      </c>
-      <c r="J2413">
-        <v>76</v>
-      </c>
-      <c r="K2413">
-        <v>82</v>
-      </c>
-      <c r="L2413" t="s">
+      <c r="G2413" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2413" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2413" s="4">
+        <v>115</v>
+      </c>
+      <c r="J2413" s="4">
+        <v>132</v>
+      </c>
+      <c r="K2413" s="4">
+        <v>138</v>
+      </c>
+      <c r="L2413" s="4" t="s">
         <v>337</v>
       </c>
     </row>
@@ -32837,7 +32970,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2561" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2561" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2561" t="s">
         <v>42</v>
       </c>
@@ -32863,7 +32996,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2562" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2562" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2562" t="s">
         <v>46</v>
       </c>
@@ -32889,7 +33022,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2563" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2563" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2563" t="s">
         <v>51</v>
       </c>
@@ -32915,7 +33048,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2564" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2564" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2564" t="s">
         <v>70</v>
       </c>
@@ -32941,7 +33074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2565" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2565" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2565" s="4" t="s">
         <v>111</v>
       </c>
@@ -32953,7 +33086,7 @@
         <v>337</v>
       </c>
       <c r="F2565" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G2565" s="4" t="s">
         <v>337</v>
@@ -32962,27 +33095,23 @@
         <v>337</v>
       </c>
       <c r="I2565" s="4">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="J2565" s="4">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="K2565" s="4">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="L2565" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="U2565" s="4" t="str">
-        <f t="shared" ref="N2565:AC2580" si="0">IF(N2565="","",N2565+56)</f>
+      <c r="S2565" s="4" t="str">
+        <f t="shared" ref="N2565:W2565" si="0">IF(L2565="","",L2565-56)</f>
         <v/>
       </c>
-      <c r="V2565" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="2566" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2566" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2566" s="4" t="s">
         <v>347</v>
       </c>
@@ -32994,7 +33123,7 @@
         <v>337</v>
       </c>
       <c r="F2566" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2566" s="4" t="s">
         <v>337</v>
@@ -33003,19 +33132,19 @@
         <v>337</v>
       </c>
       <c r="I2566" s="4">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="J2566" s="4">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="K2566" s="4">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="L2566" s="4">
         <v>237</v>
       </c>
     </row>
-    <row r="2567" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2567" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2567" s="4" t="s">
         <v>80</v>
       </c>
@@ -33027,7 +33156,7 @@
         <v>337</v>
       </c>
       <c r="F2567" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G2567" s="4" t="s">
         <v>337</v>
@@ -33036,19 +33165,19 @@
         <v>337</v>
       </c>
       <c r="I2567" s="4">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="J2567" s="4">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="K2567" s="4">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="L2567" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2568" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2568" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2568" s="4" t="s">
         <v>104</v>
       </c>
@@ -33060,7 +33189,7 @@
         <v>337</v>
       </c>
       <c r="F2568" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2568" s="4" t="s">
         <v>337</v>
@@ -33069,19 +33198,19 @@
         <v>337</v>
       </c>
       <c r="I2568" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="J2568" s="4">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="K2568" s="4">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="L2568" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2569" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2569" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2569" s="4" t="s">
         <v>83</v>
       </c>
@@ -33093,7 +33222,7 @@
         <v>337</v>
       </c>
       <c r="F2569" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2569" s="4" t="s">
         <v>337</v>
@@ -33102,19 +33231,19 @@
         <v>337</v>
       </c>
       <c r="I2569" s="4">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="J2569" s="4">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="K2569" s="4">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="L2569" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2570" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2570" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2570" s="4" t="s">
         <v>96</v>
       </c>
@@ -33126,7 +33255,7 @@
         <v>337</v>
       </c>
       <c r="F2570" s="4">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G2570" s="4" t="s">
         <v>337</v>
@@ -33135,19 +33264,19 @@
         <v>337</v>
       </c>
       <c r="I2570" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="J2570" s="4">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="K2570" s="4">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="L2570" s="4">
         <v>239</v>
       </c>
     </row>
-    <row r="2571" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2571" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2571" s="4" t="s">
         <v>316</v>
       </c>
@@ -33159,7 +33288,7 @@
         <v>337</v>
       </c>
       <c r="F2571" s="4">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="G2571" s="4" t="s">
         <v>337</v>
@@ -33168,19 +33297,19 @@
         <v>337</v>
       </c>
       <c r="I2571" s="4">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="J2571" s="4">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="K2571" s="4">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="L2571" s="4">
         <v>236</v>
       </c>
     </row>
-    <row r="2572" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2572" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2572" s="4" t="s">
         <v>85</v>
       </c>
@@ -33192,7 +33321,7 @@
         <v>337</v>
       </c>
       <c r="F2572" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2572" s="4" t="s">
         <v>337</v>
@@ -33201,19 +33330,19 @@
         <v>337</v>
       </c>
       <c r="I2572" s="4">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="J2572" s="4">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="K2572" s="4">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="L2572" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2573" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2573" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2573" s="4" t="s">
         <v>317</v>
       </c>
@@ -33225,7 +33354,7 @@
         <v>337</v>
       </c>
       <c r="F2573" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2573" s="4" t="s">
         <v>337</v>
@@ -33234,19 +33363,19 @@
         <v>337</v>
       </c>
       <c r="I2573" s="4">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="J2573" s="4">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="K2573" s="4">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="L2573" s="4">
         <v>236</v>
       </c>
     </row>
-    <row r="2574" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2574" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2574" s="4" t="s">
         <v>97</v>
       </c>
@@ -33258,7 +33387,7 @@
         <v>337</v>
       </c>
       <c r="F2574" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2574" s="4" t="s">
         <v>337</v>
@@ -33267,19 +33396,19 @@
         <v>337</v>
       </c>
       <c r="I2574" s="4">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="J2574" s="4">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="K2574" s="4">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="L2574" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2575" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2575" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2575" s="4" t="s">
         <v>77</v>
       </c>
@@ -33291,7 +33420,7 @@
         <v>337</v>
       </c>
       <c r="F2575" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2575" s="4" t="s">
         <v>337</v>
@@ -33300,19 +33429,19 @@
         <v>337</v>
       </c>
       <c r="I2575" s="4">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="J2575" s="4">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="K2575" s="4">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="L2575" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2576" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2576" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2576" s="4" t="s">
         <v>103</v>
       </c>
@@ -33324,7 +33453,7 @@
         <v>337</v>
       </c>
       <c r="F2576" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G2576" s="4" t="s">
         <v>337</v>
@@ -33333,13 +33462,13 @@
         <v>337</v>
       </c>
       <c r="I2576" s="4">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="J2576" s="4">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="K2576" s="4">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="L2576" s="4">
         <v>240</v>
@@ -33357,7 +33486,7 @@
         <v>337</v>
       </c>
       <c r="F2577" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G2577" s="4" t="s">
         <v>337</v>
@@ -33366,13 +33495,13 @@
         <v>337</v>
       </c>
       <c r="I2577" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="J2577" s="4">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="K2577" s="4">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="L2577" s="4">
         <v>240</v>
@@ -33390,7 +33519,7 @@
         <v>337</v>
       </c>
       <c r="F2578" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2578" s="4" t="s">
         <v>337</v>
@@ -33399,13 +33528,13 @@
         <v>337</v>
       </c>
       <c r="I2578" s="4">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="J2578" s="4">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="K2578" s="4">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="L2578" s="4" t="s">
         <v>337</v>
@@ -33423,7 +33552,7 @@
         <v>337</v>
       </c>
       <c r="F2579" s="4">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="G2579" s="4" t="s">
         <v>337</v>
@@ -33432,13 +33561,13 @@
         <v>337</v>
       </c>
       <c r="I2579" s="4">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="J2579" s="4">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="K2579" s="4">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="L2579" s="4" t="s">
         <v>337</v>
@@ -33456,7 +33585,7 @@
         <v>337</v>
       </c>
       <c r="F2580" s="4">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G2580" s="4" t="s">
         <v>337</v>
@@ -33465,13 +33594,13 @@
         <v>337</v>
       </c>
       <c r="I2580" s="4">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="J2580" s="4">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="K2580" s="4">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="L2580" s="4" t="s">
         <v>337</v>
@@ -33489,7 +33618,7 @@
         <v>337</v>
       </c>
       <c r="F2581" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2581" s="4" t="s">
         <v>337</v>
@@ -33498,13 +33627,13 @@
         <v>337</v>
       </c>
       <c r="I2581" s="4">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="J2581" s="4">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="K2581" s="4">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="L2581" s="4" t="s">
         <v>337</v>
@@ -33522,7 +33651,7 @@
         <v>337</v>
       </c>
       <c r="F2582" s="4">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G2582" s="4" t="s">
         <v>337</v>
@@ -33531,13 +33660,13 @@
         <v>337</v>
       </c>
       <c r="I2582" s="4">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="J2582" s="4">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="K2582" s="4">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="L2582" s="4">
         <v>237</v>
@@ -33555,7 +33684,7 @@
         <v>337</v>
       </c>
       <c r="F2583" s="4">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="G2583" s="4" t="s">
         <v>337</v>
@@ -33564,13 +33693,13 @@
         <v>337</v>
       </c>
       <c r="I2583" s="4">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="J2583" s="4">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="K2583" s="4">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="L2583" s="4">
         <v>240</v>
@@ -33588,7 +33717,7 @@
         <v>337</v>
       </c>
       <c r="F2584" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2584" s="4" t="s">
         <v>337</v>
@@ -33597,13 +33726,13 @@
         <v>337</v>
       </c>
       <c r="I2584" s="4">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="J2584" s="4">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="K2584" s="4">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="L2584" s="4">
         <v>236</v>
@@ -33621,7 +33750,7 @@
         <v>337</v>
       </c>
       <c r="F2585" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G2585" s="4" t="s">
         <v>337</v>
@@ -33630,13 +33759,13 @@
         <v>337</v>
       </c>
       <c r="I2585" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="J2585" s="4">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="K2585" s="4">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="L2585" s="4">
         <v>239</v>
@@ -33654,7 +33783,7 @@
         <v>337</v>
       </c>
       <c r="F2586" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2586" s="4" t="s">
         <v>337</v>
@@ -33663,13 +33792,13 @@
         <v>337</v>
       </c>
       <c r="I2586" s="4">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="J2586" s="4">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="K2586" s="4">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="L2586" s="4" t="s">
         <v>337</v>
@@ -33687,7 +33816,7 @@
         <v>337</v>
       </c>
       <c r="F2587" s="4">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G2587" s="4" t="s">
         <v>337</v>
@@ -33696,13 +33825,13 @@
         <v>337</v>
       </c>
       <c r="I2587" s="4">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J2587" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="K2587" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="L2587" s="4">
         <v>226</v>
@@ -33720,7 +33849,7 @@
         <v>337</v>
       </c>
       <c r="F2588" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2588" s="4" t="s">
         <v>337</v>
@@ -33729,13 +33858,13 @@
         <v>337</v>
       </c>
       <c r="I2588" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2588" s="4">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="K2588" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="L2588" s="4">
         <v>225</v>
@@ -33753,7 +33882,7 @@
         <v>337</v>
       </c>
       <c r="F2589" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G2589" s="4" t="s">
         <v>337</v>
@@ -33762,13 +33891,13 @@
         <v>337</v>
       </c>
       <c r="I2589" s="4">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="J2589" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="K2589" s="4">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="L2589" s="4" t="s">
         <v>337</v>
@@ -33786,7 +33915,7 @@
         <v>337</v>
       </c>
       <c r="F2590" s="4">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G2590" s="4" t="s">
         <v>337</v>
@@ -33795,13 +33924,13 @@
         <v>337</v>
       </c>
       <c r="I2590" s="4">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="J2590" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K2590" s="4">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="L2590" s="4" t="s">
         <v>337</v>
@@ -33819,7 +33948,7 @@
         <v>337</v>
       </c>
       <c r="F2591" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2591" s="4" t="s">
         <v>337</v>
@@ -33828,13 +33957,13 @@
         <v>337</v>
       </c>
       <c r="I2591" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2591" s="4">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="K2591" s="4">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="L2591" s="4">
         <v>226</v>
@@ -33852,7 +33981,7 @@
         <v>337</v>
       </c>
       <c r="F2592" s="4">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G2592" s="4" t="s">
         <v>337</v>
@@ -33861,13 +33990,13 @@
         <v>337</v>
       </c>
       <c r="I2592" s="4">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J2592" s="4">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="K2592" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="L2592" s="4">
         <v>226</v>
@@ -33885,7 +34014,7 @@
         <v>337</v>
       </c>
       <c r="F2593" s="4">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G2593" s="4" t="s">
         <v>337</v>
@@ -33894,13 +34023,13 @@
         <v>337</v>
       </c>
       <c r="I2593" s="4">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J2593" s="4">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="K2593" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="L2593" s="4">
         <v>225</v>
@@ -33918,7 +34047,7 @@
         <v>337</v>
       </c>
       <c r="F2594" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2594" s="4" t="s">
         <v>337</v>
@@ -33927,13 +34056,13 @@
         <v>337</v>
       </c>
       <c r="I2594" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2594" s="4">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="K2594" s="4">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="L2594" s="4">
         <v>226</v>
@@ -33951,7 +34080,7 @@
         <v>337</v>
       </c>
       <c r="F2595" s="4">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G2595" s="4" t="s">
         <v>337</v>
@@ -33960,13 +34089,13 @@
         <v>337</v>
       </c>
       <c r="I2595" s="4">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J2595" s="4">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="K2595" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="L2595" s="4">
         <v>226</v>
@@ -33984,7 +34113,7 @@
         <v>337</v>
       </c>
       <c r="F2596" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2596" s="4" t="s">
         <v>337</v>
@@ -33993,13 +34122,13 @@
         <v>337</v>
       </c>
       <c r="I2596" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2596" s="4">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="K2596" s="4">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="L2596" s="4">
         <v>226</v>
@@ -34017,7 +34146,7 @@
         <v>337</v>
       </c>
       <c r="F2597" s="4">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G2597" s="4" t="s">
         <v>337</v>
@@ -34026,13 +34155,13 @@
         <v>337</v>
       </c>
       <c r="I2597" s="4">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J2597" s="4">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="K2597" s="4">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="L2597" s="4">
         <v>225</v>
@@ -34050,7 +34179,7 @@
         <v>337</v>
       </c>
       <c r="F2598" s="4">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G2598" s="4" t="s">
         <v>337</v>
@@ -34059,13 +34188,13 @@
         <v>337</v>
       </c>
       <c r="I2598" s="4">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J2598" s="4">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="K2598" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="L2598" s="4">
         <v>226</v>
@@ -34083,7 +34212,7 @@
         <v>337</v>
       </c>
       <c r="F2599" s="4">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G2599" s="4" t="s">
         <v>337</v>
@@ -34092,13 +34221,13 @@
         <v>337</v>
       </c>
       <c r="I2599" s="4">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="J2599" s="4">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K2599" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2599" s="4">
         <v>226</v>
@@ -34116,7 +34245,7 @@
         <v>337</v>
       </c>
       <c r="F2600" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2600" s="4" t="s">
         <v>337</v>
@@ -34125,13 +34254,13 @@
         <v>337</v>
       </c>
       <c r="I2600" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2600" s="4">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="K2600" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2600" s="4">
         <v>226</v>
@@ -34149,7 +34278,7 @@
         <v>337</v>
       </c>
       <c r="F2601" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2601" s="4" t="s">
         <v>337</v>
@@ -34158,13 +34287,13 @@
         <v>337</v>
       </c>
       <c r="I2601" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2601" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="K2601" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="L2601" s="4">
         <v>226</v>
@@ -34182,7 +34311,7 @@
         <v>337</v>
       </c>
       <c r="F2602" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="G2602" s="4" t="s">
         <v>337</v>
@@ -34191,13 +34320,13 @@
         <v>337</v>
       </c>
       <c r="I2602" s="4">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="J2602" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="K2602" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="L2602" s="4">
         <v>225</v>
@@ -34215,7 +34344,7 @@
         <v>337</v>
       </c>
       <c r="F2603" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2603" s="4" t="s">
         <v>337</v>
@@ -34224,13 +34353,13 @@
         <v>337</v>
       </c>
       <c r="I2603" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2603" s="4">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="K2603" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2603" s="4">
         <v>225</v>
@@ -34248,7 +34377,7 @@
         <v>337</v>
       </c>
       <c r="F2604" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G2604" s="4" t="s">
         <v>337</v>
@@ -34257,13 +34386,13 @@
         <v>337</v>
       </c>
       <c r="I2604" s="4">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="J2604" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K2604" s="4">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L2604" s="4" t="s">
         <v>337</v>
@@ -34281,7 +34410,7 @@
         <v>337</v>
       </c>
       <c r="F2605" s="4">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="G2605" s="4" t="s">
         <v>337</v>
@@ -34290,13 +34419,13 @@
         <v>337</v>
       </c>
       <c r="I2605" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="J2605" s="4">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="K2605" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="L2605" s="4">
         <v>225</v>
@@ -34314,7 +34443,7 @@
         <v>337</v>
       </c>
       <c r="F2606" s="4">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G2606" s="4" t="s">
         <v>337</v>
@@ -34323,13 +34452,13 @@
         <v>337</v>
       </c>
       <c r="I2606" s="4">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="J2606" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="K2606" s="4">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="L2606" s="4">
         <v>226</v>
@@ -34347,7 +34476,7 @@
         <v>337</v>
       </c>
       <c r="F2607" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2607" s="4" t="s">
         <v>337</v>
@@ -34356,13 +34485,13 @@
         <v>337</v>
       </c>
       <c r="I2607" s="4">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="J2607" s="4">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="K2607" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="L2607" s="4">
         <v>225</v>
@@ -34380,7 +34509,7 @@
         <v>337</v>
       </c>
       <c r="F2608" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G2608" s="4" t="s">
         <v>337</v>
@@ -34389,13 +34518,13 @@
         <v>337</v>
       </c>
       <c r="I2608" s="4">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="J2608" s="4">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="K2608" s="4">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="L2608" s="4">
         <v>226</v>
@@ -34413,7 +34542,7 @@
         <v>337</v>
       </c>
       <c r="F2609" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2609" s="4" t="s">
         <v>337</v>
@@ -34422,13 +34551,13 @@
         <v>337</v>
       </c>
       <c r="I2609" s="4">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="J2609" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="K2609" s="4">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="L2609" s="4" t="s">
         <v>337</v>
@@ -34446,7 +34575,7 @@
         <v>337</v>
       </c>
       <c r="F2610" s="4">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G2610" s="4" t="s">
         <v>337</v>
@@ -34455,13 +34584,13 @@
         <v>337</v>
       </c>
       <c r="I2610" s="4">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="J2610" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="K2610" s="4">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="L2610" s="4" t="s">
         <v>337</v>
@@ -34479,7 +34608,7 @@
         <v>337</v>
       </c>
       <c r="F2611" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2611" s="4" t="s">
         <v>337</v>
@@ -34488,13 +34617,13 @@
         <v>337</v>
       </c>
       <c r="I2611" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2611" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="K2611" s="4">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="L2611" s="4">
         <v>225</v>
@@ -34512,7 +34641,7 @@
         <v>337</v>
       </c>
       <c r="F2612" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G2612" s="4" t="s">
         <v>337</v>
@@ -34521,13 +34650,13 @@
         <v>337</v>
       </c>
       <c r="I2612" s="4">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="J2612" s="4">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="K2612" s="4">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="L2612" s="4" t="s">
         <v>337</v>
@@ -34545,7 +34674,7 @@
         <v>337</v>
       </c>
       <c r="F2613" s="4">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G2613" s="4" t="s">
         <v>337</v>
@@ -34554,13 +34683,13 @@
         <v>337</v>
       </c>
       <c r="I2613" s="4">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="J2613" s="4">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="K2613" s="4">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="L2613" s="4" t="s">
         <v>337</v>
@@ -34578,7 +34707,7 @@
         <v>337</v>
       </c>
       <c r="F2614" s="4">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="G2614" s="4" t="s">
         <v>337</v>
@@ -34587,13 +34716,13 @@
         <v>337</v>
       </c>
       <c r="I2614" s="4">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J2614" s="4">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="K2614" s="4">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="L2614" s="4">
         <v>225</v>
@@ -34611,7 +34740,7 @@
         <v>337</v>
       </c>
       <c r="F2615" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2615" s="4" t="s">
         <v>337</v>
@@ -34620,13 +34749,13 @@
         <v>337</v>
       </c>
       <c r="I2615" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2615" s="4">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="K2615" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2615" s="4" t="s">
         <v>337</v>
@@ -34644,7 +34773,7 @@
         <v>337</v>
       </c>
       <c r="F2616" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2616" s="4" t="s">
         <v>337</v>
@@ -34653,13 +34782,13 @@
         <v>337</v>
       </c>
       <c r="I2616" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2616" s="4">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="K2616" s="4">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="L2616" s="4">
         <v>226</v>
@@ -34677,7 +34806,7 @@
         <v>337</v>
       </c>
       <c r="F2617" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2617" s="4" t="s">
         <v>337</v>
@@ -34686,13 +34815,13 @@
         <v>337</v>
       </c>
       <c r="I2617" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2617" s="4">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K2617" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2617" s="4">
         <v>225</v>
@@ -34710,7 +34839,7 @@
         <v>337</v>
       </c>
       <c r="F2618" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G2618" s="4" t="s">
         <v>337</v>
@@ -34719,13 +34848,13 @@
         <v>337</v>
       </c>
       <c r="I2618" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="J2618" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="K2618" s="4">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="L2618" s="4" t="s">
         <v>337</v>
@@ -34743,7 +34872,7 @@
         <v>337</v>
       </c>
       <c r="F2619" s="4">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="G2619" s="4" t="s">
         <v>337</v>
@@ -34752,13 +34881,13 @@
         <v>337</v>
       </c>
       <c r="I2619" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2619" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="K2619" s="4">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="L2619" s="4">
         <v>225</v>
@@ -34776,7 +34905,7 @@
         <v>337</v>
       </c>
       <c r="F2620" s="4">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G2620" s="4" t="s">
         <v>337</v>
@@ -34785,13 +34914,13 @@
         <v>337</v>
       </c>
       <c r="I2620" s="4">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="J2620" s="4">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="K2620" s="4">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="L2620" s="4">
         <v>226</v>
@@ -34809,7 +34938,7 @@
         <v>337</v>
       </c>
       <c r="F2621" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G2621" s="4" t="s">
         <v>337</v>
@@ -34818,13 +34947,13 @@
         <v>337</v>
       </c>
       <c r="I2621" s="4">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="J2621" s="4">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="K2621" s="4">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="L2621" s="4" t="s">
         <v>337</v>
@@ -34842,7 +34971,7 @@
         <v>337</v>
       </c>
       <c r="F2622" s="4">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="G2622" s="4" t="s">
         <v>337</v>
@@ -34851,13 +34980,13 @@
         <v>337</v>
       </c>
       <c r="I2622" s="4">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="J2622" s="4">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="K2622" s="4">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="L2622" s="4">
         <v>225</v>
@@ -34875,7 +35004,7 @@
         <v>337</v>
       </c>
       <c r="F2623" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G2623" s="4" t="s">
         <v>337</v>
@@ -34884,13 +35013,13 @@
         <v>337</v>
       </c>
       <c r="I2623" s="4">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="J2623" s="4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K2623" s="4">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="L2623" s="4" t="s">
         <v>337</v>
@@ -34908,7 +35037,7 @@
         <v>337</v>
       </c>
       <c r="F2624" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2624" s="4" t="s">
         <v>337</v>
@@ -34917,13 +35046,13 @@
         <v>337</v>
       </c>
       <c r="I2624" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2624" s="4">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K2624" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2624" s="4" t="s">
         <v>337</v>
@@ -34941,7 +35070,7 @@
         <v>337</v>
       </c>
       <c r="F2625" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2625" s="4" t="s">
         <v>337</v>
@@ -34950,13 +35079,13 @@
         <v>337</v>
       </c>
       <c r="I2625" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2625" s="4">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="K2625" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2625" s="4">
         <v>225</v>
@@ -34974,7 +35103,7 @@
         <v>337</v>
       </c>
       <c r="F2626" s="4">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G2626" s="4" t="s">
         <v>337</v>
@@ -34983,13 +35112,13 @@
         <v>337</v>
       </c>
       <c r="I2626" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="J2626" s="4">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K2626" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2626" s="4">
         <v>225</v>
@@ -35007,7 +35136,7 @@
         <v>337</v>
       </c>
       <c r="F2627" s="4">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G2627" s="4" t="s">
         <v>337</v>
@@ -35016,13 +35145,13 @@
         <v>337</v>
       </c>
       <c r="I2627" s="4">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="J2627" s="4">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="K2627" s="4">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L2627" s="4">
         <v>226</v>

--- a/Tests/Validation/Wheat/Gatton2014_2016.xlsx
+++ b/Tests/Validation/Wheat/Gatton2014_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zurch\Documents\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00E4E4A-A439-48B7-96A8-F880A2B74D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D784A-CCD0-4969-9C7A-F1E8010C004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="17510" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="354">
   <si>
     <t>SimulationName</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>DC31</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Gatton2014TOS11-AprCvWestonia</t>
   </si>
   <si>
@@ -1494,10 +1491,10 @@
   <dimension ref="A1:S2689"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2667" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:R1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1550,7 +1547,7 @@
         <v>334</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -27238,7 +27235,7 @@
         <v>8.5249999999999986</v>
       </c>
     </row>
-    <row r="2337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2337" t="s">
         <v>305</v>
       </c>
@@ -27249,7 +27246,7 @@
         <v>9.8500000000000014</v>
       </c>
     </row>
-    <row r="2338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2338" t="s">
         <v>305</v>
       </c>
@@ -27260,7 +27257,7 @@
         <v>10.375</v>
       </c>
     </row>
-    <row r="2339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2339" t="s">
         <v>305</v>
       </c>
@@ -27271,7 +27268,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="2340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2340" t="s">
         <v>304</v>
       </c>
@@ -27282,7 +27279,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="2341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2341" t="s">
         <v>304</v>
       </c>
@@ -27293,7 +27290,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="2342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2342" t="s">
         <v>304</v>
       </c>
@@ -27304,7 +27301,7 @@
         <v>2.9250000000000003</v>
       </c>
     </row>
-    <row r="2343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2343" t="s">
         <v>304</v>
       </c>
@@ -27315,7 +27312,7 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="2344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2344" t="s">
         <v>304</v>
       </c>
@@ -27326,7 +27323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2345" t="s">
         <v>304</v>
       </c>
@@ -27337,7 +27334,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="2346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2346" t="s">
         <v>304</v>
       </c>
@@ -27348,7 +27345,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="2347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2347" t="s">
         <v>304</v>
       </c>
@@ -27359,7 +27356,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="2348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2348" t="s">
         <v>304</v>
       </c>
@@ -27370,7 +27367,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="2349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2349" t="s">
         <v>304</v>
       </c>
@@ -27381,7 +27378,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="2350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2350" t="s">
         <v>304</v>
       </c>
@@ -27392,7 +27389,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="2351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2351" t="s">
         <v>304</v>
       </c>
@@ -27403,7 +27400,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="2352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2352" t="s">
         <v>168</v>
       </c>
@@ -27424,9 +27421,6 @@
       </c>
       <c r="K2352">
         <v>60</v>
-      </c>
-      <c r="L2352" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2353" spans="1:12" x14ac:dyDescent="0.35">
@@ -27451,9 +27445,6 @@
       <c r="K2353">
         <v>74</v>
       </c>
-      <c r="L2353" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2354" t="s">
@@ -27477,9 +27468,6 @@
       <c r="K2354">
         <v>88</v>
       </c>
-      <c r="L2354" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2355" t="s">
@@ -27503,9 +27491,6 @@
       <c r="K2355">
         <v>108</v>
       </c>
-      <c r="L2355" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2356" t="s">
@@ -27555,9 +27540,6 @@
       <c r="K2357">
         <v>61</v>
       </c>
-      <c r="L2357" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2358" t="s">
@@ -27581,9 +27563,6 @@
       <c r="K2358">
         <v>121</v>
       </c>
-      <c r="L2358" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2359" t="s">
@@ -27607,9 +27586,6 @@
       <c r="K2359">
         <v>87</v>
       </c>
-      <c r="L2359" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2360" t="s">
@@ -27633,9 +27609,6 @@
       <c r="K2360">
         <v>58</v>
       </c>
-      <c r="L2360" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2361" t="s">
@@ -27659,9 +27632,6 @@
       <c r="K2361">
         <v>68</v>
       </c>
-      <c r="L2361" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2362" t="s">
@@ -27685,9 +27655,6 @@
       <c r="K2362">
         <v>67</v>
       </c>
-      <c r="L2362" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2363" t="s">
@@ -27711,9 +27678,6 @@
       <c r="K2363">
         <v>113</v>
       </c>
-      <c r="L2363" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2364" t="s">
@@ -27737,9 +27701,6 @@
       <c r="K2364">
         <v>87</v>
       </c>
-      <c r="L2364" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2365" t="s">
@@ -27763,9 +27724,6 @@
       <c r="K2365">
         <v>93</v>
       </c>
-      <c r="L2365" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2366" t="s">
@@ -27789,9 +27747,6 @@
       <c r="K2366">
         <v>59</v>
       </c>
-      <c r="L2366" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2367" t="s">
@@ -27815,9 +27770,6 @@
       <c r="K2367">
         <v>83</v>
       </c>
-      <c r="L2367" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2368" t="s">
@@ -27841,9 +27793,6 @@
       <c r="K2368">
         <v>63</v>
       </c>
-      <c r="L2368" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2369" t="s">
@@ -27867,13 +27816,10 @@
       <c r="K2369">
         <v>62</v>
       </c>
-      <c r="L2369" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2370" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2370" t="s">
         <v>330</v>
@@ -27892,9 +27838,6 @@
       </c>
       <c r="K2370">
         <v>59</v>
-      </c>
-      <c r="L2370" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2371" spans="1:12" x14ac:dyDescent="0.35">
@@ -28029,7 +27972,7 @@
     </row>
     <row r="2376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2376" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2376" t="s">
         <v>330</v>
@@ -28127,9 +28070,6 @@
       <c r="K2379">
         <v>89</v>
       </c>
-      <c r="L2379" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2380" t="s">
@@ -28179,9 +28119,6 @@
       <c r="K2381">
         <v>103</v>
       </c>
-      <c r="L2381" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2382" t="s">
@@ -28335,9 +28272,6 @@
       <c r="K2387">
         <v>133</v>
       </c>
-      <c r="L2387" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2388" t="s">
@@ -28361,9 +28295,6 @@
       <c r="K2388">
         <v>86</v>
       </c>
-      <c r="L2388" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2389" t="s">
@@ -28387,9 +28318,6 @@
       <c r="K2389">
         <v>108</v>
       </c>
-      <c r="L2389" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2390" t="s">
@@ -28439,9 +28367,6 @@
       <c r="K2391">
         <v>82</v>
       </c>
-      <c r="L2391" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2392" t="s">
@@ -28517,9 +28442,6 @@
       <c r="K2394">
         <v>98</v>
       </c>
-      <c r="L2394" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2395" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2395" s="4" t="s">
@@ -28535,12 +28457,6 @@
       <c r="F2395" s="4">
         <v>113</v>
       </c>
-      <c r="G2395" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2395" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2395" s="4">
         <v>125</v>
       </c>
@@ -28568,12 +28484,6 @@
       <c r="F2396" s="4">
         <v>104</v>
       </c>
-      <c r="G2396" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2396" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2396" s="4">
         <v>114</v>
       </c>
@@ -28601,12 +28511,6 @@
       <c r="F2397" s="4">
         <v>106</v>
       </c>
-      <c r="G2397" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2397" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2397" s="4">
         <v>131</v>
       </c>
@@ -28615,9 +28519,6 @@
       </c>
       <c r="K2397" s="4">
         <v>159</v>
-      </c>
-      <c r="L2397" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2398" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -28634,12 +28535,6 @@
       <c r="F2398" s="4">
         <v>106</v>
       </c>
-      <c r="G2398" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2398" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2398" s="4">
         <v>123</v>
       </c>
@@ -28667,12 +28562,6 @@
       <c r="F2399" s="4">
         <v>112</v>
       </c>
-      <c r="G2399" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2399" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2399" s="4">
         <v>128</v>
       </c>
@@ -28700,12 +28589,6 @@
       <c r="F2400" s="4">
         <v>106</v>
       </c>
-      <c r="G2400" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2400" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2400" s="4">
         <v>125</v>
       </c>
@@ -28733,12 +28616,6 @@
       <c r="F2401" s="4">
         <v>106</v>
       </c>
-      <c r="G2401" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2401" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2401" s="4">
         <v>118</v>
       </c>
@@ -28747,9 +28624,6 @@
       </c>
       <c r="K2401" s="4">
         <v>142</v>
-      </c>
-      <c r="L2401" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2402" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -28766,12 +28640,6 @@
       <c r="F2402" s="4">
         <v>106</v>
       </c>
-      <c r="G2402" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2402" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2402" s="4">
         <v>128</v>
       </c>
@@ -28799,12 +28667,6 @@
       <c r="F2403" s="4">
         <v>107</v>
       </c>
-      <c r="G2403" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2403" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2403" s="4">
         <v>118</v>
       </c>
@@ -28832,12 +28694,6 @@
       <c r="F2404" s="4">
         <v>106</v>
       </c>
-      <c r="G2404" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2404" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2404" s="4">
         <v>125</v>
       </c>
@@ -28865,12 +28721,6 @@
       <c r="F2405" s="4">
         <v>106</v>
       </c>
-      <c r="G2405" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2405" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2405" s="4">
         <v>124</v>
       </c>
@@ -28898,12 +28748,6 @@
       <c r="F2406" s="4">
         <v>106</v>
       </c>
-      <c r="G2406" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2406" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2406" s="4">
         <v>120</v>
       </c>
@@ -28931,12 +28775,6 @@
       <c r="F2407" s="4">
         <v>106</v>
       </c>
-      <c r="G2407" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2407" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2407" s="4">
         <v>119</v>
       </c>
@@ -28945,9 +28783,6 @@
       </c>
       <c r="K2407" s="4">
         <v>141</v>
-      </c>
-      <c r="L2407" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2408" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -28964,12 +28799,6 @@
       <c r="F2408" s="4">
         <v>106</v>
       </c>
-      <c r="G2408" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2408" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2408" s="4">
         <v>120</v>
       </c>
@@ -28979,13 +28808,10 @@
       <c r="K2408" s="4">
         <v>140</v>
       </c>
-      <c r="L2408" s="4" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2409" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2409" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2409" s="5"/>
       <c r="C2409" s="4" t="s">
@@ -28997,12 +28823,6 @@
       <c r="F2409" s="4">
         <v>105</v>
       </c>
-      <c r="G2409" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2409" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2409" s="4">
         <v>117</v>
       </c>
@@ -29011,9 +28831,6 @@
       </c>
       <c r="K2409" s="4">
         <v>141</v>
-      </c>
-      <c r="L2409" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2410" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -29030,12 +28847,6 @@
       <c r="F2410" s="4">
         <v>112</v>
       </c>
-      <c r="G2410" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2410" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2410" s="4">
         <v>124</v>
       </c>
@@ -29063,12 +28874,6 @@
       <c r="F2411" s="4">
         <v>106</v>
       </c>
-      <c r="G2411" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2411" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2411" s="4">
         <v>125</v>
       </c>
@@ -29077,9 +28882,6 @@
       </c>
       <c r="K2411" s="4">
         <v>145</v>
-      </c>
-      <c r="L2411" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2412" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -29096,12 +28898,6 @@
       <c r="F2412" s="4">
         <v>106</v>
       </c>
-      <c r="G2412" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2412" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2412" s="4">
         <v>127</v>
       </c>
@@ -29129,12 +28925,6 @@
       <c r="F2413" s="4">
         <v>105</v>
       </c>
-      <c r="G2413" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2413" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2413" s="4">
         <v>115</v>
       </c>
@@ -29143,9 +28933,6 @@
       </c>
       <c r="K2413" s="4">
         <v>138</v>
-      </c>
-      <c r="L2413" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2414" spans="1:12" x14ac:dyDescent="0.35">
@@ -29170,9 +28957,6 @@
       <c r="K2414">
         <v>84</v>
       </c>
-      <c r="L2414" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2415" t="s">
@@ -29196,9 +28980,6 @@
       <c r="K2415">
         <v>80</v>
       </c>
-      <c r="L2415" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2416" t="s">
@@ -29222,9 +29003,6 @@
       <c r="K2416">
         <v>85</v>
       </c>
-      <c r="L2416" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2417" t="s">
@@ -29248,9 +29026,6 @@
       <c r="K2417">
         <v>84</v>
       </c>
-      <c r="L2417" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2418" t="s">
@@ -29274,9 +29049,6 @@
       <c r="K2418">
         <v>100</v>
       </c>
-      <c r="L2418" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2419" t="s">
@@ -29326,9 +29098,6 @@
       <c r="K2420">
         <v>105</v>
       </c>
-      <c r="L2420" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2421" t="s">
@@ -29352,9 +29121,6 @@
       <c r="K2421">
         <v>102</v>
       </c>
-      <c r="L2421" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2422" t="s">
@@ -29404,9 +29170,6 @@
       <c r="K2423">
         <v>87</v>
       </c>
-      <c r="L2423" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2424" t="s">
@@ -29456,9 +29219,6 @@
       <c r="K2425">
         <v>63</v>
       </c>
-      <c r="L2425" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2426" t="s">
@@ -29482,9 +29242,6 @@
       <c r="K2426">
         <v>73</v>
       </c>
-      <c r="L2426" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2427" t="s">
@@ -29508,9 +29265,6 @@
       <c r="K2427">
         <v>63</v>
       </c>
-      <c r="L2427" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2428" t="s">
@@ -29534,9 +29288,6 @@
       <c r="K2428">
         <v>77</v>
       </c>
-      <c r="L2428" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2429" t="s">
@@ -29560,9 +29311,6 @@
       <c r="K2429">
         <v>92</v>
       </c>
-      <c r="L2429" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2430" t="s">
@@ -29586,9 +29334,6 @@
       <c r="K2430">
         <v>75</v>
       </c>
-      <c r="L2430" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2431" t="s">
@@ -29612,9 +29357,6 @@
       <c r="K2431">
         <v>64</v>
       </c>
-      <c r="L2431" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2432" t="s">
@@ -29956,13 +29698,10 @@
     </row>
     <row r="2445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2445" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2445" t="s">
         <v>330</v>
-      </c>
-      <c r="D2445" t="s">
-        <v>337</v>
       </c>
       <c r="F2445">
         <v>49</v>
@@ -29987,9 +29726,6 @@
       <c r="C2446" t="s">
         <v>330</v>
       </c>
-      <c r="D2446" t="s">
-        <v>337</v>
-      </c>
       <c r="F2446">
         <v>40</v>
       </c>
@@ -30001,9 +29737,6 @@
       </c>
       <c r="K2446">
         <v>63</v>
-      </c>
-      <c r="L2446" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2447" spans="1:12" x14ac:dyDescent="0.35">
@@ -30013,9 +29746,6 @@
       <c r="C2447" t="s">
         <v>330</v>
       </c>
-      <c r="D2447" t="s">
-        <v>337</v>
-      </c>
       <c r="F2447">
         <v>39</v>
       </c>
@@ -30027,9 +29757,6 @@
       </c>
       <c r="K2447">
         <v>63</v>
-      </c>
-      <c r="L2447" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2448" spans="1:12" x14ac:dyDescent="0.35">
@@ -30039,9 +29766,6 @@
       <c r="C2448" t="s">
         <v>330</v>
       </c>
-      <c r="D2448" t="s">
-        <v>337</v>
-      </c>
       <c r="F2448">
         <v>56</v>
       </c>
@@ -30053,9 +29777,6 @@
       </c>
       <c r="K2448">
         <v>134</v>
-      </c>
-      <c r="L2448" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2449" spans="1:12" x14ac:dyDescent="0.35">
@@ -30065,9 +29786,6 @@
       <c r="C2449" t="s">
         <v>330</v>
       </c>
-      <c r="D2449" t="s">
-        <v>337</v>
-      </c>
       <c r="F2449">
         <v>51</v>
       </c>
@@ -30079,9 +29797,6 @@
       </c>
       <c r="K2449">
         <v>119</v>
-      </c>
-      <c r="L2449" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2450" spans="1:12" x14ac:dyDescent="0.35">
@@ -30091,9 +29806,6 @@
       <c r="C2450" t="s">
         <v>330</v>
       </c>
-      <c r="D2450" t="s">
-        <v>337</v>
-      </c>
       <c r="F2450">
         <v>49</v>
       </c>
@@ -30117,9 +29829,6 @@
       <c r="C2451" t="s">
         <v>330</v>
       </c>
-      <c r="D2451" t="s">
-        <v>337</v>
-      </c>
       <c r="F2451">
         <v>45</v>
       </c>
@@ -30131,9 +29840,6 @@
       </c>
       <c r="K2451">
         <v>67</v>
-      </c>
-      <c r="L2451" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2452" spans="1:12" x14ac:dyDescent="0.35">
@@ -30143,9 +29849,6 @@
       <c r="C2452" t="s">
         <v>330</v>
       </c>
-      <c r="D2452" t="s">
-        <v>337</v>
-      </c>
       <c r="F2452">
         <v>50</v>
       </c>
@@ -30169,9 +29872,6 @@
       <c r="C2453" t="s">
         <v>330</v>
       </c>
-      <c r="D2453" t="s">
-        <v>337</v>
-      </c>
       <c r="F2453">
         <v>41</v>
       </c>
@@ -30183,9 +29883,6 @@
       </c>
       <c r="K2453">
         <v>76</v>
-      </c>
-      <c r="L2453" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2454" spans="1:12" x14ac:dyDescent="0.35">
@@ -30195,9 +29892,6 @@
       <c r="C2454" t="s">
         <v>330</v>
       </c>
-      <c r="D2454" t="s">
-        <v>337</v>
-      </c>
       <c r="F2454">
         <v>38</v>
       </c>
@@ -30209,9 +29903,6 @@
       </c>
       <c r="K2454">
         <v>59</v>
-      </c>
-      <c r="L2454" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2455" spans="1:12" x14ac:dyDescent="0.35">
@@ -30221,9 +29912,6 @@
       <c r="C2455" t="s">
         <v>330</v>
       </c>
-      <c r="D2455" t="s">
-        <v>337</v>
-      </c>
       <c r="F2455">
         <v>153</v>
       </c>
@@ -30235,9 +29923,6 @@
       </c>
       <c r="K2455">
         <v>189</v>
-      </c>
-      <c r="L2455" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2456" spans="1:12" x14ac:dyDescent="0.35">
@@ -30247,9 +29932,6 @@
       <c r="C2456" t="s">
         <v>330</v>
       </c>
-      <c r="D2456" t="s">
-        <v>337</v>
-      </c>
       <c r="F2456">
         <v>90</v>
       </c>
@@ -30261,9 +29943,6 @@
       </c>
       <c r="K2456">
         <v>150</v>
-      </c>
-      <c r="L2456" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2457" spans="1:12" x14ac:dyDescent="0.35">
@@ -30273,9 +29952,6 @@
       <c r="C2457" t="s">
         <v>330</v>
       </c>
-      <c r="D2457" t="s">
-        <v>337</v>
-      </c>
       <c r="F2457">
         <v>61</v>
       </c>
@@ -30287,9 +29963,6 @@
       </c>
       <c r="K2457">
         <v>109</v>
-      </c>
-      <c r="L2457" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2458" spans="1:12" x14ac:dyDescent="0.35">
@@ -30299,9 +29972,6 @@
       <c r="C2458" t="s">
         <v>330</v>
       </c>
-      <c r="D2458" t="s">
-        <v>337</v>
-      </c>
       <c r="F2458">
         <v>61</v>
       </c>
@@ -30313,9 +29983,6 @@
       </c>
       <c r="K2458">
         <v>103</v>
-      </c>
-      <c r="L2458" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2459" spans="1:12" x14ac:dyDescent="0.35">
@@ -30325,9 +29992,6 @@
       <c r="C2459" t="s">
         <v>330</v>
       </c>
-      <c r="D2459" t="s">
-        <v>337</v>
-      </c>
       <c r="F2459">
         <v>54</v>
       </c>
@@ -30351,9 +30015,6 @@
       <c r="C2460" t="s">
         <v>330</v>
       </c>
-      <c r="D2460" t="s">
-        <v>337</v>
-      </c>
       <c r="F2460">
         <v>39</v>
       </c>
@@ -30365,9 +30026,6 @@
       </c>
       <c r="K2460">
         <v>62</v>
-      </c>
-      <c r="L2460" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2461" spans="1:12" x14ac:dyDescent="0.35">
@@ -30377,9 +30035,6 @@
       <c r="C2461" t="s">
         <v>330</v>
       </c>
-      <c r="D2461" t="s">
-        <v>337</v>
-      </c>
       <c r="F2461">
         <v>123</v>
       </c>
@@ -30391,9 +30046,6 @@
       </c>
       <c r="K2461">
         <v>152</v>
-      </c>
-      <c r="L2461" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2462" spans="1:12" x14ac:dyDescent="0.35">
@@ -30403,9 +30055,6 @@
       <c r="C2462" t="s">
         <v>330</v>
       </c>
-      <c r="D2462" t="s">
-        <v>337</v>
-      </c>
       <c r="F2462">
         <v>114</v>
       </c>
@@ -30429,9 +30078,6 @@
       <c r="C2463" t="s">
         <v>330</v>
       </c>
-      <c r="D2463" t="s">
-        <v>337</v>
-      </c>
       <c r="F2463">
         <v>42</v>
       </c>
@@ -30443,9 +30089,6 @@
       </c>
       <c r="K2463">
         <v>68</v>
-      </c>
-      <c r="L2463" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2464" spans="1:12" x14ac:dyDescent="0.35">
@@ -30455,9 +30098,6 @@
       <c r="C2464" t="s">
         <v>330</v>
       </c>
-      <c r="D2464" t="s">
-        <v>337</v>
-      </c>
       <c r="F2464">
         <v>51</v>
       </c>
@@ -30469,9 +30109,6 @@
       </c>
       <c r="K2464">
         <v>99</v>
-      </c>
-      <c r="L2464" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2465" spans="1:12" x14ac:dyDescent="0.35">
@@ -30481,9 +30118,6 @@
       <c r="C2465" t="s">
         <v>330</v>
       </c>
-      <c r="D2465" t="s">
-        <v>337</v>
-      </c>
       <c r="F2465">
         <v>41</v>
       </c>
@@ -30495,9 +30129,6 @@
       </c>
       <c r="K2465">
         <v>61</v>
-      </c>
-      <c r="L2465" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2466" spans="1:12" x14ac:dyDescent="0.35">
@@ -30507,9 +30138,6 @@
       <c r="C2466" t="s">
         <v>330</v>
       </c>
-      <c r="D2466" t="s">
-        <v>337</v>
-      </c>
       <c r="F2466">
         <v>44</v>
       </c>
@@ -30528,14 +30156,11 @@
     </row>
     <row r="2467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2467" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2467" t="s">
         <v>330</v>
       </c>
-      <c r="D2467" t="s">
-        <v>337</v>
-      </c>
       <c r="F2467">
         <v>46</v>
       </c>
@@ -30547,9 +30172,6 @@
       </c>
       <c r="K2467">
         <v>100</v>
-      </c>
-      <c r="L2467" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2468" spans="1:12" x14ac:dyDescent="0.35">
@@ -30559,9 +30181,6 @@
       <c r="C2468" t="s">
         <v>330</v>
       </c>
-      <c r="D2468" t="s">
-        <v>337</v>
-      </c>
       <c r="F2468">
         <v>48</v>
       </c>
@@ -30585,9 +30204,6 @@
       <c r="C2469" t="s">
         <v>330</v>
       </c>
-      <c r="D2469" t="s">
-        <v>337</v>
-      </c>
       <c r="F2469">
         <v>61</v>
       </c>
@@ -30611,9 +30227,6 @@
       <c r="C2470" t="s">
         <v>330</v>
       </c>
-      <c r="D2470" t="s">
-        <v>337</v>
-      </c>
       <c r="F2470">
         <v>61</v>
       </c>
@@ -30637,9 +30250,6 @@
       <c r="C2471" t="s">
         <v>330</v>
       </c>
-      <c r="D2471" t="s">
-        <v>337</v>
-      </c>
       <c r="F2471">
         <v>46</v>
       </c>
@@ -30663,9 +30273,6 @@
       <c r="C2472" t="s">
         <v>330</v>
       </c>
-      <c r="D2472" t="s">
-        <v>337</v>
-      </c>
       <c r="F2472">
         <v>49</v>
       </c>
@@ -30689,9 +30296,6 @@
       <c r="C2473" t="s">
         <v>330</v>
       </c>
-      <c r="D2473" t="s">
-        <v>337</v>
-      </c>
       <c r="F2473">
         <v>49</v>
       </c>
@@ -30715,9 +30319,6 @@
       <c r="C2474" t="s">
         <v>330</v>
       </c>
-      <c r="D2474" t="s">
-        <v>337</v>
-      </c>
       <c r="F2474">
         <v>46</v>
       </c>
@@ -30741,9 +30342,6 @@
       <c r="C2475" t="s">
         <v>330</v>
       </c>
-      <c r="D2475" t="s">
-        <v>337</v>
-      </c>
       <c r="F2475">
         <v>58</v>
       </c>
@@ -30767,9 +30365,6 @@
       <c r="C2476" t="s">
         <v>330</v>
       </c>
-      <c r="D2476" t="s">
-        <v>337</v>
-      </c>
       <c r="F2476">
         <v>58</v>
       </c>
@@ -30793,9 +30388,6 @@
       <c r="C2477" t="s">
         <v>330</v>
       </c>
-      <c r="D2477" t="s">
-        <v>337</v>
-      </c>
       <c r="F2477">
         <v>56</v>
       </c>
@@ -30819,9 +30411,6 @@
       <c r="C2478" t="s">
         <v>330</v>
       </c>
-      <c r="D2478" t="s">
-        <v>337</v>
-      </c>
       <c r="F2478">
         <v>51</v>
       </c>
@@ -30845,9 +30434,6 @@
       <c r="C2479" t="s">
         <v>330</v>
       </c>
-      <c r="D2479" t="s">
-        <v>337</v>
-      </c>
       <c r="F2479">
         <v>44</v>
       </c>
@@ -30871,9 +30457,6 @@
       <c r="C2480" t="s">
         <v>330</v>
       </c>
-      <c r="D2480" t="s">
-        <v>337</v>
-      </c>
       <c r="F2480">
         <v>46</v>
       </c>
@@ -30897,9 +30480,6 @@
       <c r="C2481" t="s">
         <v>330</v>
       </c>
-      <c r="D2481" t="s">
-        <v>337</v>
-      </c>
       <c r="F2481">
         <v>49</v>
       </c>
@@ -30923,9 +30503,6 @@
       <c r="C2482" t="s">
         <v>330</v>
       </c>
-      <c r="D2482" t="s">
-        <v>337</v>
-      </c>
       <c r="F2482">
         <v>56</v>
       </c>
@@ -30949,9 +30526,6 @@
       <c r="C2483" t="s">
         <v>330</v>
       </c>
-      <c r="D2483" t="s">
-        <v>337</v>
-      </c>
       <c r="F2483">
         <v>57</v>
       </c>
@@ -30975,9 +30549,6 @@
       <c r="C2484" t="s">
         <v>330</v>
       </c>
-      <c r="D2484" t="s">
-        <v>337</v>
-      </c>
       <c r="F2484">
         <v>65</v>
       </c>
@@ -31001,9 +30572,6 @@
       <c r="C2485" t="s">
         <v>330</v>
       </c>
-      <c r="D2485" t="s">
-        <v>337</v>
-      </c>
       <c r="F2485">
         <v>48</v>
       </c>
@@ -31027,9 +30595,6 @@
       <c r="C2486" t="s">
         <v>330</v>
       </c>
-      <c r="D2486" t="s">
-        <v>337</v>
-      </c>
       <c r="F2486">
         <v>48</v>
       </c>
@@ -31053,9 +30618,6 @@
       <c r="C2487" t="s">
         <v>330</v>
       </c>
-      <c r="D2487" t="s">
-        <v>337</v>
-      </c>
       <c r="F2487">
         <v>46</v>
       </c>
@@ -31079,9 +30641,6 @@
       <c r="C2488" t="s">
         <v>330</v>
       </c>
-      <c r="D2488" t="s">
-        <v>337</v>
-      </c>
       <c r="F2488">
         <v>124</v>
       </c>
@@ -31093,9 +30652,6 @@
       </c>
       <c r="K2488">
         <v>163</v>
-      </c>
-      <c r="L2488" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2489" spans="1:12" x14ac:dyDescent="0.35">
@@ -31105,9 +30661,6 @@
       <c r="C2489" t="s">
         <v>330</v>
       </c>
-      <c r="D2489" t="s">
-        <v>337</v>
-      </c>
       <c r="F2489">
         <v>96</v>
       </c>
@@ -31131,9 +30684,6 @@
       <c r="C2490" t="s">
         <v>330</v>
       </c>
-      <c r="D2490" t="s">
-        <v>337</v>
-      </c>
       <c r="F2490">
         <v>58</v>
       </c>
@@ -31157,9 +30707,6 @@
       <c r="C2491" t="s">
         <v>330</v>
       </c>
-      <c r="D2491" t="s">
-        <v>337</v>
-      </c>
       <c r="F2491">
         <v>69</v>
       </c>
@@ -31183,9 +30730,6 @@
       <c r="C2492" t="s">
         <v>330</v>
       </c>
-      <c r="D2492" t="s">
-        <v>337</v>
-      </c>
       <c r="F2492">
         <v>47</v>
       </c>
@@ -31209,9 +30753,6 @@
       <c r="C2493" t="s">
         <v>330</v>
       </c>
-      <c r="D2493" t="s">
-        <v>337</v>
-      </c>
       <c r="F2493">
         <v>76</v>
       </c>
@@ -31223,9 +30764,6 @@
       </c>
       <c r="K2493">
         <v>111</v>
-      </c>
-      <c r="L2493" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2494" spans="1:12" x14ac:dyDescent="0.35">
@@ -31235,9 +30773,6 @@
       <c r="C2494" t="s">
         <v>330</v>
       </c>
-      <c r="D2494" t="s">
-        <v>337</v>
-      </c>
       <c r="F2494">
         <v>46</v>
       </c>
@@ -31261,9 +30796,6 @@
       <c r="C2495" t="s">
         <v>330</v>
       </c>
-      <c r="D2495" t="s">
-        <v>337</v>
-      </c>
       <c r="F2495">
         <v>46</v>
       </c>
@@ -31287,9 +30819,6 @@
       <c r="C2496" t="s">
         <v>330</v>
       </c>
-      <c r="D2496" t="s">
-        <v>337</v>
-      </c>
       <c r="F2496">
         <v>105</v>
       </c>
@@ -31313,9 +30842,6 @@
       <c r="C2497" t="s">
         <v>330</v>
       </c>
-      <c r="D2497" t="s">
-        <v>337</v>
-      </c>
       <c r="F2497">
         <v>103</v>
       </c>
@@ -31339,9 +30865,6 @@
       <c r="C2498" t="s">
         <v>330</v>
       </c>
-      <c r="D2498" t="s">
-        <v>337</v>
-      </c>
       <c r="F2498">
         <v>59</v>
       </c>
@@ -31365,9 +30888,6 @@
       <c r="C2499" t="s">
         <v>330</v>
       </c>
-      <c r="D2499" t="s">
-        <v>337</v>
-      </c>
       <c r="F2499">
         <v>58</v>
       </c>
@@ -31391,9 +30911,6 @@
       <c r="C2500" t="s">
         <v>330</v>
       </c>
-      <c r="D2500" t="s">
-        <v>337</v>
-      </c>
       <c r="F2500">
         <v>55</v>
       </c>
@@ -31417,9 +30934,6 @@
       <c r="C2501" t="s">
         <v>330</v>
       </c>
-      <c r="D2501" t="s">
-        <v>337</v>
-      </c>
       <c r="F2501">
         <v>46</v>
       </c>
@@ -31438,14 +30952,11 @@
     </row>
     <row r="2502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2502" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2502" t="s">
         <v>330</v>
       </c>
-      <c r="D2502" t="s">
-        <v>337</v>
-      </c>
       <c r="F2502">
         <v>56</v>
       </c>
@@ -31457,9 +30968,6 @@
       </c>
       <c r="K2502">
         <v>86</v>
-      </c>
-      <c r="L2502" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2503" spans="1:12" x14ac:dyDescent="0.35">
@@ -31469,9 +30977,6 @@
       <c r="C2503" t="s">
         <v>330</v>
       </c>
-      <c r="D2503" t="s">
-        <v>337</v>
-      </c>
       <c r="F2503">
         <v>50</v>
       </c>
@@ -31495,9 +31000,6 @@
       <c r="C2504" t="s">
         <v>330</v>
       </c>
-      <c r="D2504" t="s">
-        <v>337</v>
-      </c>
       <c r="F2504">
         <v>50</v>
       </c>
@@ -31521,9 +31023,6 @@
       <c r="C2505" t="s">
         <v>330</v>
       </c>
-      <c r="D2505" t="s">
-        <v>337</v>
-      </c>
       <c r="F2505">
         <v>57</v>
       </c>
@@ -31547,9 +31046,6 @@
       <c r="C2506" t="s">
         <v>330</v>
       </c>
-      <c r="D2506" t="s">
-        <v>337</v>
-      </c>
       <c r="F2506">
         <v>50</v>
       </c>
@@ -31561,9 +31057,6 @@
       </c>
       <c r="K2506">
         <v>86</v>
-      </c>
-      <c r="L2506" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2507" spans="1:12" x14ac:dyDescent="0.35">
@@ -31573,9 +31066,6 @@
       <c r="C2507" t="s">
         <v>330</v>
       </c>
-      <c r="D2507" t="s">
-        <v>337</v>
-      </c>
       <c r="F2507">
         <v>50</v>
       </c>
@@ -31599,9 +31089,6 @@
       <c r="C2508" t="s">
         <v>330</v>
       </c>
-      <c r="D2508" t="s">
-        <v>337</v>
-      </c>
       <c r="F2508">
         <v>50</v>
       </c>
@@ -31613,9 +31100,6 @@
       </c>
       <c r="K2508">
         <v>103</v>
-      </c>
-      <c r="L2508" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2509" spans="1:12" x14ac:dyDescent="0.35">
@@ -31625,9 +31109,6 @@
       <c r="C2509" t="s">
         <v>330</v>
       </c>
-      <c r="D2509" t="s">
-        <v>337</v>
-      </c>
       <c r="F2509">
         <v>60</v>
       </c>
@@ -31651,9 +31132,6 @@
       <c r="C2510" t="s">
         <v>330</v>
       </c>
-      <c r="D2510" t="s">
-        <v>337</v>
-      </c>
       <c r="F2510">
         <v>53</v>
       </c>
@@ -31665,9 +31143,6 @@
       </c>
       <c r="K2510">
         <v>86</v>
-      </c>
-      <c r="L2510" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2511" spans="1:12" x14ac:dyDescent="0.35">
@@ -31677,9 +31152,6 @@
       <c r="C2511" t="s">
         <v>330</v>
       </c>
-      <c r="D2511" t="s">
-        <v>337</v>
-      </c>
       <c r="F2511">
         <v>50</v>
       </c>
@@ -31703,9 +31175,6 @@
       <c r="C2512" t="s">
         <v>330</v>
       </c>
-      <c r="D2512" t="s">
-        <v>337</v>
-      </c>
       <c r="F2512">
         <v>50</v>
       </c>
@@ -31717,9 +31186,6 @@
       </c>
       <c r="K2512">
         <v>100</v>
-      </c>
-      <c r="L2512" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2513" spans="1:12" x14ac:dyDescent="0.35">
@@ -31729,9 +31195,6 @@
       <c r="C2513" t="s">
         <v>330</v>
       </c>
-      <c r="D2513" t="s">
-        <v>337</v>
-      </c>
       <c r="F2513">
         <v>66</v>
       </c>
@@ -31755,9 +31218,6 @@
       <c r="C2514" t="s">
         <v>330</v>
       </c>
-      <c r="D2514" t="s">
-        <v>337</v>
-      </c>
       <c r="F2514">
         <v>57</v>
       </c>
@@ -31781,9 +31241,6 @@
       <c r="C2515" t="s">
         <v>330</v>
       </c>
-      <c r="D2515" t="s">
-        <v>337</v>
-      </c>
       <c r="F2515">
         <v>50</v>
       </c>
@@ -31795,9 +31252,6 @@
       </c>
       <c r="K2515">
         <v>85</v>
-      </c>
-      <c r="L2515" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2516" spans="1:12" x14ac:dyDescent="0.35">
@@ -31807,9 +31261,6 @@
       <c r="C2516" t="s">
         <v>330</v>
       </c>
-      <c r="D2516" t="s">
-        <v>337</v>
-      </c>
       <c r="F2516">
         <v>49</v>
       </c>
@@ -31833,9 +31284,6 @@
       <c r="C2517" t="s">
         <v>330</v>
       </c>
-      <c r="D2517" t="s">
-        <v>337</v>
-      </c>
       <c r="F2517">
         <v>81</v>
       </c>
@@ -31847,9 +31295,6 @@
       </c>
       <c r="K2517">
         <v>107</v>
-      </c>
-      <c r="L2517" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2518" spans="1:12" x14ac:dyDescent="0.35">
@@ -31859,9 +31304,6 @@
       <c r="C2518" t="s">
         <v>330</v>
       </c>
-      <c r="D2518" t="s">
-        <v>337</v>
-      </c>
       <c r="F2518">
         <v>55</v>
       </c>
@@ -31885,9 +31327,6 @@
       <c r="C2519" t="s">
         <v>330</v>
       </c>
-      <c r="D2519" t="s">
-        <v>337</v>
-      </c>
       <c r="F2519">
         <v>57</v>
       </c>
@@ -31911,9 +31350,6 @@
       <c r="C2520" t="s">
         <v>330</v>
       </c>
-      <c r="D2520" t="s">
-        <v>337</v>
-      </c>
       <c r="F2520">
         <v>52</v>
       </c>
@@ -31925,9 +31361,6 @@
       </c>
       <c r="K2520">
         <v>86</v>
-      </c>
-      <c r="L2520" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2521" spans="1:12" x14ac:dyDescent="0.35">
@@ -31937,9 +31370,6 @@
       <c r="C2521" t="s">
         <v>330</v>
       </c>
-      <c r="D2521" t="s">
-        <v>337</v>
-      </c>
       <c r="F2521">
         <v>57</v>
       </c>
@@ -31963,9 +31393,6 @@
       <c r="C2522" t="s">
         <v>330</v>
       </c>
-      <c r="D2522" t="s">
-        <v>337</v>
-      </c>
       <c r="F2522">
         <v>68</v>
       </c>
@@ -31989,9 +31416,6 @@
       <c r="C2523" t="s">
         <v>330</v>
       </c>
-      <c r="D2523" t="s">
-        <v>337</v>
-      </c>
       <c r="F2523">
         <v>50</v>
       </c>
@@ -32010,14 +31434,11 @@
     </row>
     <row r="2524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2524" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2524" t="s">
         <v>330</v>
       </c>
-      <c r="D2524" t="s">
-        <v>337</v>
-      </c>
       <c r="F2524">
         <v>57</v>
       </c>
@@ -32029,9 +31450,6 @@
       </c>
       <c r="K2524">
         <v>84</v>
-      </c>
-      <c r="L2524" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2525" spans="1:12" x14ac:dyDescent="0.35">
@@ -32041,9 +31459,6 @@
       <c r="C2525" t="s">
         <v>330</v>
       </c>
-      <c r="D2525" t="s">
-        <v>337</v>
-      </c>
       <c r="F2525">
         <v>81</v>
       </c>
@@ -32055,9 +31470,6 @@
       </c>
       <c r="K2525">
         <v>103</v>
-      </c>
-      <c r="L2525" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2526" spans="1:12" x14ac:dyDescent="0.35">
@@ -32067,9 +31479,6 @@
       <c r="C2526" t="s">
         <v>330</v>
       </c>
-      <c r="D2526" t="s">
-        <v>337</v>
-      </c>
       <c r="F2526">
         <v>57</v>
       </c>
@@ -32081,9 +31490,6 @@
       </c>
       <c r="K2526">
         <v>92</v>
-      </c>
-      <c r="L2526" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2527" spans="1:12" x14ac:dyDescent="0.35">
@@ -32093,9 +31499,6 @@
       <c r="C2527" t="s">
         <v>330</v>
       </c>
-      <c r="D2527" t="s">
-        <v>337</v>
-      </c>
       <c r="F2527">
         <v>50</v>
       </c>
@@ -32119,9 +31522,6 @@
       <c r="C2528" t="s">
         <v>330</v>
       </c>
-      <c r="D2528" t="s">
-        <v>337</v>
-      </c>
       <c r="F2528">
         <v>56</v>
       </c>
@@ -32133,9 +31533,6 @@
       </c>
       <c r="K2528">
         <v>83</v>
-      </c>
-      <c r="L2528" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2529" spans="1:12" x14ac:dyDescent="0.35">
@@ -32145,9 +31542,6 @@
       <c r="C2529" t="s">
         <v>330</v>
       </c>
-      <c r="D2529" t="s">
-        <v>337</v>
-      </c>
       <c r="F2529">
         <v>36</v>
       </c>
@@ -32166,13 +31560,10 @@
     </row>
     <row r="2530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2530" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C2530" t="s">
         <v>330</v>
-      </c>
-      <c r="D2530" t="s">
-        <v>337</v>
       </c>
       <c r="F2530">
         <v>49</v>
@@ -32197,9 +31588,6 @@
       <c r="C2531" t="s">
         <v>330</v>
       </c>
-      <c r="D2531" t="s">
-        <v>337</v>
-      </c>
       <c r="F2531">
         <v>49</v>
       </c>
@@ -32223,9 +31611,6 @@
       <c r="C2532" t="s">
         <v>330</v>
       </c>
-      <c r="D2532" t="s">
-        <v>337</v>
-      </c>
       <c r="F2532">
         <v>50</v>
       </c>
@@ -32237,9 +31622,6 @@
       </c>
       <c r="K2532">
         <v>82</v>
-      </c>
-      <c r="L2532" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2533" spans="1:12" x14ac:dyDescent="0.35">
@@ -32249,9 +31631,6 @@
       <c r="C2533" t="s">
         <v>330</v>
       </c>
-      <c r="D2533" t="s">
-        <v>337</v>
-      </c>
       <c r="F2533">
         <v>50</v>
       </c>
@@ -32263,9 +31642,6 @@
       </c>
       <c r="K2533">
         <v>80</v>
-      </c>
-      <c r="L2533" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2534" spans="1:12" x14ac:dyDescent="0.35">
@@ -32275,9 +31651,6 @@
       <c r="C2534" t="s">
         <v>330</v>
       </c>
-      <c r="D2534" t="s">
-        <v>337</v>
-      </c>
       <c r="F2534">
         <v>38</v>
       </c>
@@ -32289,9 +31662,6 @@
       </c>
       <c r="K2534">
         <v>71</v>
-      </c>
-      <c r="L2534" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2535" spans="1:12" x14ac:dyDescent="0.35">
@@ -32301,9 +31671,6 @@
       <c r="C2535" t="s">
         <v>330</v>
       </c>
-      <c r="D2535" t="s">
-        <v>337</v>
-      </c>
       <c r="F2535">
         <v>41</v>
       </c>
@@ -32327,9 +31694,6 @@
       <c r="C2536" t="s">
         <v>330</v>
       </c>
-      <c r="D2536" t="s">
-        <v>337</v>
-      </c>
       <c r="F2536">
         <v>41</v>
       </c>
@@ -32353,9 +31717,6 @@
       <c r="C2537" t="s">
         <v>330</v>
       </c>
-      <c r="D2537" t="s">
-        <v>337</v>
-      </c>
       <c r="F2537">
         <v>48</v>
       </c>
@@ -32367,9 +31728,6 @@
       </c>
       <c r="K2537">
         <v>71</v>
-      </c>
-      <c r="L2537" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2538" spans="1:12" x14ac:dyDescent="0.35">
@@ -32379,9 +31737,6 @@
       <c r="C2538" t="s">
         <v>330</v>
       </c>
-      <c r="D2538" t="s">
-        <v>337</v>
-      </c>
       <c r="F2538">
         <v>41</v>
       </c>
@@ -32405,9 +31760,6 @@
       <c r="C2539" t="s">
         <v>330</v>
       </c>
-      <c r="D2539" t="s">
-        <v>337</v>
-      </c>
       <c r="F2539">
         <v>49</v>
       </c>
@@ -32419,9 +31771,6 @@
       </c>
       <c r="K2539">
         <v>73</v>
-      </c>
-      <c r="L2539" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2540" spans="1:12" x14ac:dyDescent="0.35">
@@ -32431,9 +31780,6 @@
       <c r="C2540" t="s">
         <v>330</v>
       </c>
-      <c r="D2540" t="s">
-        <v>337</v>
-      </c>
       <c r="F2540">
         <v>36</v>
       </c>
@@ -32457,9 +31803,6 @@
       <c r="C2541" t="s">
         <v>330</v>
       </c>
-      <c r="D2541" t="s">
-        <v>337</v>
-      </c>
       <c r="F2541">
         <v>49</v>
       </c>
@@ -32471,9 +31814,6 @@
       </c>
       <c r="K2541">
         <v>73</v>
-      </c>
-      <c r="L2541" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2542" spans="1:12" x14ac:dyDescent="0.35">
@@ -32483,9 +31823,6 @@
       <c r="C2542" t="s">
         <v>330</v>
       </c>
-      <c r="D2542" t="s">
-        <v>337</v>
-      </c>
       <c r="F2542">
         <v>48</v>
       </c>
@@ -32509,9 +31846,6 @@
       <c r="C2543" t="s">
         <v>330</v>
       </c>
-      <c r="D2543" t="s">
-        <v>337</v>
-      </c>
       <c r="F2543">
         <v>36</v>
       </c>
@@ -32535,9 +31869,6 @@
       <c r="C2544" t="s">
         <v>330</v>
       </c>
-      <c r="D2544" t="s">
-        <v>337</v>
-      </c>
       <c r="F2544">
         <v>41</v>
       </c>
@@ -32561,9 +31892,6 @@
       <c r="C2545" t="s">
         <v>330</v>
       </c>
-      <c r="D2545" t="s">
-        <v>337</v>
-      </c>
       <c r="F2545">
         <v>48</v>
       </c>
@@ -32575,9 +31903,6 @@
       </c>
       <c r="K2545">
         <v>73</v>
-      </c>
-      <c r="L2545" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2546" spans="1:12" x14ac:dyDescent="0.35">
@@ -32587,9 +31912,6 @@
       <c r="C2546" t="s">
         <v>330</v>
       </c>
-      <c r="D2546" t="s">
-        <v>337</v>
-      </c>
       <c r="F2546">
         <v>41</v>
       </c>
@@ -32613,9 +31935,6 @@
       <c r="C2547" t="s">
         <v>330</v>
       </c>
-      <c r="D2547" t="s">
-        <v>337</v>
-      </c>
       <c r="F2547">
         <v>38</v>
       </c>
@@ -32639,9 +31958,6 @@
       <c r="C2548" t="s">
         <v>330</v>
       </c>
-      <c r="D2548" t="s">
-        <v>337</v>
-      </c>
       <c r="F2548">
         <v>48</v>
       </c>
@@ -32665,9 +31981,6 @@
       <c r="C2549" t="s">
         <v>330</v>
       </c>
-      <c r="D2549" t="s">
-        <v>337</v>
-      </c>
       <c r="F2549">
         <v>47</v>
       </c>
@@ -32691,9 +32004,6 @@
       <c r="C2550" t="s">
         <v>330</v>
       </c>
-      <c r="D2550" t="s">
-        <v>337</v>
-      </c>
       <c r="F2550">
         <v>50</v>
       </c>
@@ -32705,9 +32015,6 @@
       </c>
       <c r="K2550">
         <v>78</v>
-      </c>
-      <c r="L2550" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2551" spans="1:12" x14ac:dyDescent="0.35">
@@ -32717,9 +32024,6 @@
       <c r="C2551" t="s">
         <v>330</v>
       </c>
-      <c r="D2551" t="s">
-        <v>337</v>
-      </c>
       <c r="F2551">
         <v>48</v>
       </c>
@@ -32743,9 +32047,6 @@
       <c r="C2552" t="s">
         <v>330</v>
       </c>
-      <c r="D2552" t="s">
-        <v>337</v>
-      </c>
       <c r="F2552">
         <v>48</v>
       </c>
@@ -32769,9 +32070,6 @@
       <c r="C2553" t="s">
         <v>330</v>
       </c>
-      <c r="D2553" t="s">
-        <v>337</v>
-      </c>
       <c r="F2553">
         <v>38</v>
       </c>
@@ -32795,9 +32093,6 @@
       <c r="C2554" t="s">
         <v>330</v>
       </c>
-      <c r="D2554" t="s">
-        <v>337</v>
-      </c>
       <c r="F2554">
         <v>76</v>
       </c>
@@ -32809,9 +32104,6 @@
       </c>
       <c r="K2554">
         <v>99</v>
-      </c>
-      <c r="L2554" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2555" spans="1:12" x14ac:dyDescent="0.35">
@@ -32821,9 +32113,6 @@
       <c r="C2555" t="s">
         <v>330</v>
       </c>
-      <c r="D2555" t="s">
-        <v>337</v>
-      </c>
       <c r="F2555">
         <v>44</v>
       </c>
@@ -32847,9 +32136,6 @@
       <c r="C2556" t="s">
         <v>330</v>
       </c>
-      <c r="D2556" t="s">
-        <v>337</v>
-      </c>
       <c r="F2556">
         <v>50</v>
       </c>
@@ -32861,9 +32147,6 @@
       </c>
       <c r="K2556">
         <v>78</v>
-      </c>
-      <c r="L2556" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2557" spans="1:12" x14ac:dyDescent="0.35">
@@ -32873,9 +32156,6 @@
       <c r="C2557" t="s">
         <v>330</v>
       </c>
-      <c r="D2557" t="s">
-        <v>337</v>
-      </c>
       <c r="F2557">
         <v>39</v>
       </c>
@@ -32899,9 +32179,6 @@
       <c r="C2558" t="s">
         <v>330</v>
       </c>
-      <c r="D2558" t="s">
-        <v>337</v>
-      </c>
       <c r="F2558">
         <v>41</v>
       </c>
@@ -32925,9 +32202,6 @@
       <c r="C2559" t="s">
         <v>330</v>
       </c>
-      <c r="D2559" t="s">
-        <v>337</v>
-      </c>
       <c r="F2559">
         <v>71</v>
       </c>
@@ -32946,13 +32220,10 @@
     </row>
     <row r="2560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2560" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2560" t="s">
         <v>330</v>
-      </c>
-      <c r="D2560" t="s">
-        <v>337</v>
       </c>
       <c r="F2560">
         <v>36</v>
@@ -32977,9 +32248,6 @@
       <c r="C2561" t="s">
         <v>330</v>
       </c>
-      <c r="D2561" t="s">
-        <v>337</v>
-      </c>
       <c r="F2561">
         <v>50</v>
       </c>
@@ -32991,9 +32259,6 @@
       </c>
       <c r="K2561">
         <v>82</v>
-      </c>
-      <c r="L2561" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2562" spans="1:19" x14ac:dyDescent="0.35">
@@ -33003,9 +32268,6 @@
       <c r="C2562" t="s">
         <v>330</v>
       </c>
-      <c r="D2562" t="s">
-        <v>337</v>
-      </c>
       <c r="F2562">
         <v>50</v>
       </c>
@@ -33017,9 +32279,6 @@
       </c>
       <c r="K2562">
         <v>75</v>
-      </c>
-      <c r="L2562" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2563" spans="1:19" x14ac:dyDescent="0.35">
@@ -33029,9 +32288,6 @@
       <c r="C2563" t="s">
         <v>330</v>
       </c>
-      <c r="D2563" t="s">
-        <v>337</v>
-      </c>
       <c r="F2563">
         <v>38</v>
       </c>
@@ -33055,9 +32311,6 @@
       <c r="C2564" t="s">
         <v>330</v>
       </c>
-      <c r="D2564" t="s">
-        <v>337</v>
-      </c>
       <c r="F2564">
         <v>48</v>
       </c>
@@ -33082,18 +32335,9 @@
       <c r="C2565" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2565" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2565" s="4">
         <v>106</v>
       </c>
-      <c r="G2565" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2565" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2565" s="4">
         <v>115</v>
       </c>
@@ -33103,33 +32347,21 @@
       <c r="K2565" s="4">
         <v>139</v>
       </c>
-      <c r="L2565" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="S2565" s="4" t="str">
-        <f t="shared" ref="N2565:W2565" si="0">IF(L2565="","",L2565-56)</f>
+        <f t="shared" ref="S2565" si="0">IF(L2565="","",L2565-56)</f>
         <v/>
       </c>
     </row>
     <row r="2566" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2566" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2566" s="5"/>
       <c r="C2566" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2566" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2566" s="4">
         <v>107</v>
-      </c>
-      <c r="G2566" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2566" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2566" s="4">
         <v>124</v>
@@ -33152,18 +32384,9 @@
       <c r="C2567" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2567" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2567" s="4">
         <v>128</v>
       </c>
-      <c r="G2567" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2567" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2567" s="4">
         <v>141</v>
       </c>
@@ -33172,9 +32395,6 @@
       </c>
       <c r="K2567" s="4">
         <v>154</v>
-      </c>
-      <c r="L2567" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2568" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33185,18 +32405,9 @@
       <c r="C2568" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2568" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2568" s="4">
         <v>107</v>
       </c>
-      <c r="G2568" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2568" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2568" s="4">
         <v>125</v>
       </c>
@@ -33205,9 +32416,6 @@
       </c>
       <c r="K2568" s="4">
         <v>146</v>
-      </c>
-      <c r="L2568" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2569" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33218,18 +32426,9 @@
       <c r="C2569" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2569" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2569" s="4">
         <v>107</v>
       </c>
-      <c r="G2569" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2569" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2569" s="4">
         <v>121</v>
       </c>
@@ -33238,9 +32437,6 @@
       </c>
       <c r="K2569" s="4">
         <v>141</v>
-      </c>
-      <c r="L2569" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2570" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33251,17 +32447,8 @@
       <c r="C2570" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2570" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2570" s="4">
         <v>113</v>
-      </c>
-      <c r="G2570" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2570" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2570" s="4">
         <v>125</v>
@@ -33284,17 +32471,8 @@
       <c r="C2571" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2571" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2571" s="4">
         <v>111</v>
-      </c>
-      <c r="G2571" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2571" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2571" s="4">
         <v>122</v>
@@ -33317,18 +32495,9 @@
       <c r="C2572" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2572" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2572" s="4">
         <v>107</v>
       </c>
-      <c r="G2572" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2572" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2572" s="4">
         <v>138</v>
       </c>
@@ -33337,9 +32506,6 @@
       </c>
       <c r="K2572" s="4">
         <v>159</v>
-      </c>
-      <c r="L2572" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2573" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33350,17 +32516,8 @@
       <c r="C2573" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2573" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2573" s="4">
         <v>107</v>
-      </c>
-      <c r="G2573" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2573" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2573" s="4">
         <v>119</v>
@@ -33383,18 +32540,9 @@
       <c r="C2574" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2574" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2574" s="4">
         <v>107</v>
       </c>
-      <c r="G2574" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2574" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2574" s="4">
         <v>126</v>
       </c>
@@ -33403,9 +32551,6 @@
       </c>
       <c r="K2574" s="4">
         <v>147</v>
-      </c>
-      <c r="L2574" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2575" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33416,18 +32561,9 @@
       <c r="C2575" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2575" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2575" s="4">
         <v>107</v>
       </c>
-      <c r="G2575" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2575" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2575" s="4">
         <v>132</v>
       </c>
@@ -33436,9 +32572,6 @@
       </c>
       <c r="K2575" s="4">
         <v>157</v>
-      </c>
-      <c r="L2575" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2576" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33449,17 +32582,8 @@
       <c r="C2576" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2576" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2576" s="4">
         <v>114</v>
-      </c>
-      <c r="G2576" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2576" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2576" s="4">
         <v>131</v>
@@ -33482,17 +32606,8 @@
       <c r="C2577" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2577" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2577" s="4">
         <v>114</v>
-      </c>
-      <c r="G2577" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2577" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2577" s="4">
         <v>128</v>
@@ -33515,18 +32630,9 @@
       <c r="C2578" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2578" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2578" s="4">
         <v>107</v>
       </c>
-      <c r="G2578" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2578" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2578" s="4">
         <v>121</v>
       </c>
@@ -33535,9 +32641,6 @@
       </c>
       <c r="K2578" s="4">
         <v>143</v>
-      </c>
-      <c r="L2578" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2579" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33548,18 +32651,9 @@
       <c r="C2579" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2579" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2579" s="4">
         <v>131</v>
       </c>
-      <c r="G2579" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2579" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2579" s="4">
         <v>144</v>
       </c>
@@ -33568,9 +32662,6 @@
       </c>
       <c r="K2579" s="4">
         <v>160</v>
-      </c>
-      <c r="L2579" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2580" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33581,18 +32672,9 @@
       <c r="C2580" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2580" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2580" s="4">
         <v>113</v>
       </c>
-      <c r="G2580" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2580" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2580" s="4">
         <v>131</v>
       </c>
@@ -33601,9 +32683,6 @@
       </c>
       <c r="K2580" s="4">
         <v>152</v>
-      </c>
-      <c r="L2580" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2581" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33614,18 +32693,9 @@
       <c r="C2581" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2581" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2581" s="4">
         <v>107</v>
       </c>
-      <c r="G2581" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2581" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2581" s="4">
         <v>120</v>
       </c>
@@ -33634,9 +32704,6 @@
       </c>
       <c r="K2581" s="4">
         <v>143</v>
-      </c>
-      <c r="L2581" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2582" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33647,17 +32714,8 @@
       <c r="C2582" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2582" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2582" s="4">
         <v>113</v>
-      </c>
-      <c r="G2582" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2582" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2582" s="4">
         <v>127</v>
@@ -33680,17 +32738,8 @@
       <c r="C2583" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2583" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2583" s="4">
         <v>127</v>
-      </c>
-      <c r="G2583" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2583" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2583" s="4">
         <v>136</v>
@@ -33713,17 +32762,8 @@
       <c r="C2584" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2584" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2584" s="4">
         <v>107</v>
-      </c>
-      <c r="G2584" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2584" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2584" s="4">
         <v>121</v>
@@ -33746,17 +32786,8 @@
       <c r="C2585" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2585" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2585" s="4">
         <v>114</v>
-      </c>
-      <c r="G2585" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2585" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2585" s="4">
         <v>128</v>
@@ -33779,18 +32810,9 @@
       <c r="C2586" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2586" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2586" s="4">
         <v>107</v>
       </c>
-      <c r="G2586" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2586" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2586" s="4">
         <v>118</v>
       </c>
@@ -33799,9 +32821,6 @@
       </c>
       <c r="K2586" s="4">
         <v>140</v>
-      </c>
-      <c r="L2586" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2587" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33812,18 +32831,9 @@
       <c r="C2587" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2587" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2587" s="4">
         <v>91</v>
       </c>
-      <c r="G2587" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2587" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2587" s="4">
         <v>103</v>
       </c>
@@ -33839,23 +32849,14 @@
     </row>
     <row r="2588" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2588" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2588" s="5"/>
       <c r="C2588" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2588" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2588" s="4">
         <v>93</v>
-      </c>
-      <c r="G2588" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2588" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2588" s="4">
         <v>106</v>
@@ -33878,18 +32879,9 @@
       <c r="C2589" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2589" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2589" s="4">
         <v>106</v>
       </c>
-      <c r="G2589" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2589" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2589" s="4">
         <v>111</v>
       </c>
@@ -33898,9 +32890,6 @@
       </c>
       <c r="K2589" s="4">
         <v>130</v>
-      </c>
-      <c r="L2589" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2590" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33911,18 +32900,9 @@
       <c r="C2590" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2590" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2590" s="4">
         <v>105</v>
       </c>
-      <c r="G2590" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2590" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2590" s="4">
         <v>111</v>
       </c>
@@ -33931,9 +32911,6 @@
       </c>
       <c r="K2590" s="4">
         <v>135</v>
-      </c>
-      <c r="L2590" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2591" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -33944,17 +32921,8 @@
       <c r="C2591" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2591" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2591" s="4">
         <v>98</v>
-      </c>
-      <c r="G2591" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2591" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2591" s="4">
         <v>107</v>
@@ -33977,17 +32945,8 @@
       <c r="C2592" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2592" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2592" s="4">
         <v>91</v>
-      </c>
-      <c r="G2592" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2592" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2592" s="4">
         <v>103</v>
@@ -34010,17 +32969,8 @@
       <c r="C2593" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2593" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2593" s="4">
         <v>91</v>
-      </c>
-      <c r="G2593" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2593" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2593" s="4">
         <v>103</v>
@@ -34043,17 +32993,8 @@
       <c r="C2594" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2594" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2594" s="4">
         <v>93</v>
-      </c>
-      <c r="G2594" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2594" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2594" s="4">
         <v>106</v>
@@ -34076,17 +33017,8 @@
       <c r="C2595" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2595" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2595" s="4">
         <v>91</v>
-      </c>
-      <c r="G2595" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2595" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2595" s="4">
         <v>103</v>
@@ -34109,17 +33041,8 @@
       <c r="C2596" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2596" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2596" s="4">
         <v>98</v>
-      </c>
-      <c r="G2596" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2596" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2596" s="4">
         <v>107</v>
@@ -34142,17 +33065,8 @@
       <c r="C2597" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2597" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2597" s="4">
         <v>91</v>
-      </c>
-      <c r="G2597" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2597" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2597" s="4">
         <v>103</v>
@@ -34175,17 +33089,8 @@
       <c r="C2598" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2598" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2598" s="4">
         <v>91</v>
-      </c>
-      <c r="G2598" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2598" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2598" s="4">
         <v>103</v>
@@ -34208,17 +33113,8 @@
       <c r="C2599" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2599" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2599" s="4">
         <v>102</v>
-      </c>
-      <c r="G2599" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2599" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2599" s="4">
         <v>108</v>
@@ -34241,17 +33137,8 @@
       <c r="C2600" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2600" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2600" s="4">
         <v>98</v>
-      </c>
-      <c r="G2600" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2600" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2600" s="4">
         <v>107</v>
@@ -34274,17 +33161,8 @@
       <c r="C2601" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2601" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2601" s="4">
         <v>93</v>
-      </c>
-      <c r="G2601" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2601" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2601" s="4">
         <v>106</v>
@@ -34307,17 +33185,8 @@
       <c r="C2602" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2602" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2602" s="4">
         <v>92</v>
-      </c>
-      <c r="G2602" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2602" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2602" s="4">
         <v>105</v>
@@ -34340,17 +33209,8 @@
       <c r="C2603" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2603" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2603" s="4">
         <v>93</v>
-      </c>
-      <c r="G2603" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2603" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2603" s="4">
         <v>106</v>
@@ -34373,18 +33233,9 @@
       <c r="C2604" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2604" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2604" s="4">
         <v>106</v>
       </c>
-      <c r="G2604" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2604" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2604" s="4">
         <v>111</v>
       </c>
@@ -34393,9 +33244,6 @@
       </c>
       <c r="K2604" s="4">
         <v>133</v>
-      </c>
-      <c r="L2604" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2605" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -34406,17 +33254,8 @@
       <c r="C2605" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2605" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2605" s="4">
         <v>86</v>
-      </c>
-      <c r="G2605" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2605" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2605" s="4">
         <v>98</v>
@@ -34439,17 +33278,8 @@
       <c r="C2606" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2606" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2606" s="4">
         <v>105</v>
-      </c>
-      <c r="G2606" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2606" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2606" s="4">
         <v>111</v>
@@ -34472,17 +33302,8 @@
       <c r="C2607" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2607" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2607" s="4">
         <v>93</v>
-      </c>
-      <c r="G2607" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2607" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2607" s="4">
         <v>104</v>
@@ -34505,17 +33326,8 @@
       <c r="C2608" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2608" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2608" s="4">
         <v>106</v>
-      </c>
-      <c r="G2608" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2608" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2608" s="4">
         <v>109</v>
@@ -34538,18 +33350,9 @@
       <c r="C2609" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2609" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2609" s="4">
         <v>107</v>
       </c>
-      <c r="G2609" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2609" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2609" s="4">
         <v>109</v>
       </c>
@@ -34558,9 +33361,6 @@
       </c>
       <c r="K2609" s="4">
         <v>132</v>
-      </c>
-      <c r="L2609" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2610" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -34571,18 +33371,9 @@
       <c r="C2610" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2610" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2610" s="4">
         <v>105</v>
       </c>
-      <c r="G2610" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2610" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2610" s="4">
         <v>109</v>
       </c>
@@ -34591,9 +33382,6 @@
       </c>
       <c r="K2610" s="4">
         <v>132</v>
-      </c>
-      <c r="L2610" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2611" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -34604,17 +33392,8 @@
       <c r="C2611" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2611" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2611" s="4">
         <v>93</v>
-      </c>
-      <c r="G2611" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2611" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2611" s="4">
         <v>106</v>
@@ -34637,18 +33416,9 @@
       <c r="C2612" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2612" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2612" s="4">
         <v>107</v>
       </c>
-      <c r="G2612" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2612" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2612" s="4">
         <v>119</v>
       </c>
@@ -34657,9 +33427,6 @@
       </c>
       <c r="K2612" s="4">
         <v>140</v>
-      </c>
-      <c r="L2612" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2613" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -34670,18 +33437,9 @@
       <c r="C2613" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2613" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2613" s="4">
         <v>105</v>
       </c>
-      <c r="G2613" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2613" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2613" s="4">
         <v>109</v>
       </c>
@@ -34690,9 +33448,6 @@
       </c>
       <c r="K2613" s="4">
         <v>126</v>
-      </c>
-      <c r="L2613" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2614" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -34703,17 +33458,8 @@
       <c r="C2614" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2614" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2614" s="4">
         <v>91</v>
-      </c>
-      <c r="G2614" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2614" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2614" s="4">
         <v>103</v>
@@ -34736,18 +33482,9 @@
       <c r="C2615" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2615" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2615" s="4">
         <v>98</v>
       </c>
-      <c r="G2615" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2615" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2615" s="4">
         <v>107</v>
       </c>
@@ -34756,9 +33493,6 @@
       </c>
       <c r="K2615" s="4">
         <v>128</v>
-      </c>
-      <c r="L2615" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2616" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -34769,17 +33503,8 @@
       <c r="C2616" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2616" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2616" s="4">
         <v>93</v>
-      </c>
-      <c r="G2616" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2616" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2616" s="4">
         <v>106</v>
@@ -34802,17 +33527,8 @@
       <c r="C2617" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2617" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2617" s="4">
         <v>98</v>
-      </c>
-      <c r="G2617" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2617" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2617" s="4">
         <v>107</v>
@@ -34835,18 +33551,9 @@
       <c r="C2618" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2618" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2618" s="4">
         <v>106</v>
       </c>
-      <c r="G2618" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2618" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2618" s="4">
         <v>114</v>
       </c>
@@ -34855,9 +33562,6 @@
       </c>
       <c r="K2618" s="4">
         <v>136</v>
-      </c>
-      <c r="L2618" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2619" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -34868,17 +33572,8 @@
       <c r="C2619" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2619" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2619" s="4">
         <v>94</v>
-      </c>
-      <c r="G2619" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2619" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2619" s="4">
         <v>106</v>
@@ -34901,17 +33596,8 @@
       <c r="C2620" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2620" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2620" s="4">
         <v>105</v>
-      </c>
-      <c r="G2620" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2620" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2620" s="4">
         <v>109</v>
@@ -34934,18 +33620,9 @@
       <c r="C2621" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2621" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2621" s="4">
         <v>106</v>
       </c>
-      <c r="G2621" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2621" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2621" s="4">
         <v>111</v>
       </c>
@@ -34955,29 +33632,17 @@
       <c r="K2621" s="4">
         <v>133</v>
       </c>
-      <c r="L2621" s="4" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="2622" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2622" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2622" s="5"/>
       <c r="C2622" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2622" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2622" s="4">
         <v>95</v>
-      </c>
-      <c r="G2622" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2622" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2622" s="4">
         <v>108</v>
@@ -35000,18 +33665,9 @@
       <c r="C2623" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2623" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2623" s="4">
         <v>106</v>
       </c>
-      <c r="G2623" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2623" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2623" s="4">
         <v>111</v>
       </c>
@@ -35020,9 +33676,6 @@
       </c>
       <c r="K2623" s="4">
         <v>134</v>
-      </c>
-      <c r="L2623" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2624" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -35033,18 +33686,9 @@
       <c r="C2624" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2624" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2624" s="4">
         <v>98</v>
       </c>
-      <c r="G2624" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2624" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I2624" s="4">
         <v>107</v>
       </c>
@@ -35053,9 +33697,6 @@
       </c>
       <c r="K2624" s="4">
         <v>128</v>
-      </c>
-      <c r="L2624" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2625" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -35066,17 +33707,8 @@
       <c r="C2625" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2625" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2625" s="4">
         <v>98</v>
-      </c>
-      <c r="G2625" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2625" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2625" s="4">
         <v>107</v>
@@ -35099,17 +33731,8 @@
       <c r="C2626" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2626" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2626" s="4">
         <v>98</v>
-      </c>
-      <c r="G2626" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2626" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2626" s="4">
         <v>107</v>
@@ -35132,17 +33755,8 @@
       <c r="C2627" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D2627" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F2627" s="4">
         <v>93</v>
-      </c>
-      <c r="G2627" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2627" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="I2627" s="4">
         <v>106</v>
@@ -35163,9 +33777,6 @@
       </c>
       <c r="C2628" t="s">
         <v>330</v>
-      </c>
-      <c r="D2628" t="s">
-        <v>337</v>
       </c>
       <c r="F2628">
         <v>48</v>
@@ -35192,13 +33803,10 @@
     </row>
     <row r="2629" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2629" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C2629" t="s">
         <v>330</v>
-      </c>
-      <c r="D2629" t="s">
-        <v>337</v>
       </c>
       <c r="F2629">
         <v>48</v>
@@ -35230,9 +33838,6 @@
       <c r="C2630" t="s">
         <v>330</v>
       </c>
-      <c r="D2630" t="s">
-        <v>337</v>
-      </c>
       <c r="F2630">
         <v>53</v>
       </c>
@@ -35244,9 +33849,6 @@
       </c>
       <c r="K2630">
         <v>83</v>
-      </c>
-      <c r="L2630" t="s">
-        <v>337</v>
       </c>
       <c r="M2630" s="4"/>
       <c r="N2630" s="4"/>
@@ -35263,9 +33865,6 @@
       <c r="C2631" t="s">
         <v>330</v>
       </c>
-      <c r="D2631" t="s">
-        <v>337</v>
-      </c>
       <c r="F2631">
         <v>61</v>
       </c>
@@ -35277,9 +33876,6 @@
       </c>
       <c r="K2631">
         <v>87</v>
-      </c>
-      <c r="L2631" t="s">
-        <v>337</v>
       </c>
       <c r="M2631" s="4"/>
       <c r="N2631" s="4"/>
@@ -35296,9 +33892,6 @@
       <c r="C2632" t="s">
         <v>330</v>
       </c>
-      <c r="D2632" t="s">
-        <v>337</v>
-      </c>
       <c r="F2632">
         <v>48</v>
       </c>
@@ -35329,9 +33922,6 @@
       <c r="C2633" t="s">
         <v>330</v>
       </c>
-      <c r="D2633" t="s">
-        <v>337</v>
-      </c>
       <c r="F2633">
         <v>48</v>
       </c>
@@ -35362,9 +33952,6 @@
       <c r="C2634" t="s">
         <v>330</v>
       </c>
-      <c r="D2634" t="s">
-        <v>337</v>
-      </c>
       <c r="F2634">
         <v>48</v>
       </c>
@@ -35376,9 +33963,6 @@
       </c>
       <c r="K2634">
         <v>77</v>
-      </c>
-      <c r="L2634" t="s">
-        <v>337</v>
       </c>
       <c r="M2634" s="4"/>
       <c r="N2634" s="4"/>
@@ -35395,9 +33979,6 @@
       <c r="C2635" t="s">
         <v>330</v>
       </c>
-      <c r="D2635" t="s">
-        <v>337</v>
-      </c>
       <c r="F2635">
         <v>55</v>
       </c>
@@ -35409,9 +33990,6 @@
       </c>
       <c r="K2635">
         <v>90</v>
-      </c>
-      <c r="L2635" t="s">
-        <v>337</v>
       </c>
       <c r="M2635" s="4"/>
       <c r="N2635" s="4"/>
@@ -35428,9 +34006,6 @@
       <c r="C2636" t="s">
         <v>330</v>
       </c>
-      <c r="D2636" t="s">
-        <v>337</v>
-      </c>
       <c r="F2636">
         <v>48</v>
       </c>
@@ -35442,9 +34017,6 @@
       </c>
       <c r="K2636">
         <v>84</v>
-      </c>
-      <c r="L2636" t="s">
-        <v>337</v>
       </c>
       <c r="M2636" s="4"/>
       <c r="N2636" s="4"/>
@@ -35461,9 +34033,6 @@
       <c r="C2637" t="s">
         <v>330</v>
       </c>
-      <c r="D2637" t="s">
-        <v>337</v>
-      </c>
       <c r="F2637">
         <v>55</v>
       </c>
@@ -35475,9 +34044,6 @@
       </c>
       <c r="K2637">
         <v>81</v>
-      </c>
-      <c r="L2637" t="s">
-        <v>337</v>
       </c>
       <c r="M2637" s="4"/>
       <c r="N2637" s="4"/>
@@ -35494,9 +34060,6 @@
       <c r="C2638" t="s">
         <v>330</v>
       </c>
-      <c r="D2638" t="s">
-        <v>337</v>
-      </c>
       <c r="F2638">
         <v>55</v>
       </c>
@@ -35508,9 +34071,6 @@
       </c>
       <c r="K2638">
         <v>81</v>
-      </c>
-      <c r="L2638" t="s">
-        <v>337</v>
       </c>
       <c r="M2638" s="4"/>
       <c r="N2638" s="4"/>
@@ -35527,9 +34087,6 @@
       <c r="C2639" t="s">
         <v>330</v>
       </c>
-      <c r="D2639" t="s">
-        <v>337</v>
-      </c>
       <c r="F2639">
         <v>48</v>
       </c>
@@ -35560,9 +34117,6 @@
       <c r="C2640" t="s">
         <v>330</v>
       </c>
-      <c r="D2640" t="s">
-        <v>337</v>
-      </c>
       <c r="F2640">
         <v>51</v>
       </c>
@@ -35593,9 +34147,6 @@
       <c r="C2641" t="s">
         <v>330</v>
       </c>
-      <c r="D2641" t="s">
-        <v>337</v>
-      </c>
       <c r="F2641">
         <v>48</v>
       </c>
@@ -35626,9 +34177,6 @@
       <c r="C2642" t="s">
         <v>330</v>
       </c>
-      <c r="D2642" t="s">
-        <v>337</v>
-      </c>
       <c r="F2642">
         <v>48</v>
       </c>
@@ -35640,9 +34188,6 @@
       </c>
       <c r="K2642">
         <v>79</v>
-      </c>
-      <c r="L2642" t="s">
-        <v>337</v>
       </c>
       <c r="M2642" s="4"/>
       <c r="N2642" s="4"/>
@@ -35659,9 +34204,6 @@
       <c r="C2643" t="s">
         <v>330</v>
       </c>
-      <c r="D2643" t="s">
-        <v>337</v>
-      </c>
       <c r="F2643">
         <v>48</v>
       </c>
@@ -35673,9 +34215,6 @@
       </c>
       <c r="K2643">
         <v>84</v>
-      </c>
-      <c r="L2643" t="s">
-        <v>337</v>
       </c>
       <c r="M2643" s="4"/>
       <c r="N2643" s="4"/>
@@ -35692,9 +34231,6 @@
       <c r="C2644" t="s">
         <v>330</v>
       </c>
-      <c r="D2644" t="s">
-        <v>337</v>
-      </c>
       <c r="F2644">
         <v>48</v>
       </c>
@@ -35706,9 +34242,6 @@
       </c>
       <c r="K2644">
         <v>82</v>
-      </c>
-      <c r="L2644" t="s">
-        <v>337</v>
       </c>
       <c r="M2644" s="4"/>
       <c r="N2644" s="4"/>
@@ -35725,9 +34258,6 @@
       <c r="C2645" t="s">
         <v>330</v>
       </c>
-      <c r="D2645" t="s">
-        <v>337</v>
-      </c>
       <c r="F2645">
         <v>53</v>
       </c>
@@ -35758,9 +34288,6 @@
       <c r="C2646" t="s">
         <v>330</v>
       </c>
-      <c r="D2646" t="s">
-        <v>337</v>
-      </c>
       <c r="F2646">
         <v>48</v>
       </c>
@@ -35791,9 +34318,6 @@
       <c r="C2647" t="s">
         <v>330</v>
       </c>
-      <c r="D2647" t="s">
-        <v>337</v>
-      </c>
       <c r="F2647">
         <v>55</v>
       </c>
@@ -35805,9 +34329,6 @@
       </c>
       <c r="K2647">
         <v>83</v>
-      </c>
-      <c r="L2647" t="s">
-        <v>337</v>
       </c>
       <c r="M2647" s="4"/>
       <c r="N2647" s="4"/>
@@ -35824,9 +34345,6 @@
       <c r="C2648" t="s">
         <v>330</v>
       </c>
-      <c r="D2648" t="s">
-        <v>337</v>
-      </c>
       <c r="F2648">
         <v>48</v>
       </c>
@@ -35857,9 +34375,6 @@
       <c r="C2649" t="s">
         <v>330</v>
       </c>
-      <c r="D2649" t="s">
-        <v>337</v>
-      </c>
       <c r="F2649">
         <v>52</v>
       </c>
@@ -35890,9 +34405,6 @@
       <c r="C2650" t="s">
         <v>330</v>
       </c>
-      <c r="D2650" t="s">
-        <v>337</v>
-      </c>
       <c r="F2650">
         <v>57</v>
       </c>
@@ -35904,9 +34416,6 @@
       </c>
       <c r="K2650">
         <v>83</v>
-      </c>
-      <c r="L2650" t="s">
-        <v>337</v>
       </c>
       <c r="M2650" s="4"/>
       <c r="N2650" s="4"/>
@@ -35923,9 +34432,6 @@
       <c r="C2651" t="s">
         <v>330</v>
       </c>
-      <c r="D2651" t="s">
-        <v>337</v>
-      </c>
       <c r="F2651">
         <v>52</v>
       </c>
@@ -35956,9 +34462,6 @@
       <c r="C2652" t="s">
         <v>330</v>
       </c>
-      <c r="D2652" t="s">
-        <v>337</v>
-      </c>
       <c r="F2652">
         <v>56</v>
       </c>
@@ -35970,9 +34473,6 @@
       </c>
       <c r="K2652">
         <v>87</v>
-      </c>
-      <c r="L2652" t="s">
-        <v>337</v>
       </c>
       <c r="M2652" s="4"/>
       <c r="N2652" s="4"/>
@@ -35989,9 +34489,6 @@
       <c r="C2653" t="s">
         <v>330</v>
       </c>
-      <c r="D2653" t="s">
-        <v>337</v>
-      </c>
       <c r="F2653">
         <v>56</v>
       </c>
@@ -36003,9 +34500,6 @@
       </c>
       <c r="K2653">
         <v>90</v>
-      </c>
-      <c r="L2653" t="s">
-        <v>337</v>
       </c>
       <c r="M2653" s="4"/>
       <c r="N2653" s="4"/>
@@ -36022,9 +34516,6 @@
       <c r="C2654" t="s">
         <v>330</v>
       </c>
-      <c r="D2654" t="s">
-        <v>337</v>
-      </c>
       <c r="F2654">
         <v>51</v>
       </c>
@@ -36050,13 +34541,10 @@
     </row>
     <row r="2655" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2655" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C2655" t="s">
         <v>330</v>
-      </c>
-      <c r="D2655" t="s">
-        <v>337</v>
       </c>
       <c r="F2655">
         <v>48</v>
@@ -36088,9 +34576,6 @@
       <c r="C2656" t="s">
         <v>330</v>
       </c>
-      <c r="D2656" t="s">
-        <v>337</v>
-      </c>
       <c r="F2656">
         <v>54</v>
       </c>
@@ -36102,9 +34587,6 @@
       </c>
       <c r="K2656">
         <v>83</v>
-      </c>
-      <c r="L2656" t="s">
-        <v>337</v>
       </c>
       <c r="M2656" s="4"/>
       <c r="N2656" s="4"/>
@@ -36121,9 +34603,6 @@
       <c r="C2657" t="s">
         <v>330</v>
       </c>
-      <c r="D2657" t="s">
-        <v>337</v>
-      </c>
       <c r="F2657">
         <v>48</v>
       </c>
@@ -36154,9 +34633,6 @@
       <c r="C2658" t="s">
         <v>330</v>
       </c>
-      <c r="D2658" t="s">
-        <v>337</v>
-      </c>
       <c r="F2658">
         <v>42</v>
       </c>
@@ -36168,9 +34644,6 @@
       </c>
       <c r="K2658">
         <v>60</v>
-      </c>
-      <c r="L2658" t="s">
-        <v>337</v>
       </c>
       <c r="M2658" s="4"/>
       <c r="N2658" s="4"/>
@@ -36182,13 +34655,10 @@
     </row>
     <row r="2659" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2659" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2659" t="s">
         <v>330</v>
-      </c>
-      <c r="D2659" t="s">
-        <v>337</v>
       </c>
       <c r="F2659">
         <v>42</v>
@@ -36220,9 +34690,6 @@
       <c r="C2660" t="s">
         <v>330</v>
       </c>
-      <c r="D2660" t="s">
-        <v>337</v>
-      </c>
       <c r="F2660">
         <v>42</v>
       </c>
@@ -36253,9 +34720,6 @@
       <c r="C2661" t="s">
         <v>330</v>
       </c>
-      <c r="D2661" t="s">
-        <v>337</v>
-      </c>
       <c r="F2661">
         <v>48</v>
       </c>
@@ -36267,9 +34731,6 @@
       </c>
       <c r="K2661">
         <v>70</v>
-      </c>
-      <c r="L2661" t="s">
-        <v>337</v>
       </c>
       <c r="M2661" s="4"/>
       <c r="N2661" s="4"/>
@@ -36286,9 +34747,6 @@
       <c r="C2662" t="s">
         <v>330</v>
       </c>
-      <c r="D2662" t="s">
-        <v>337</v>
-      </c>
       <c r="F2662">
         <v>42</v>
       </c>
@@ -36319,9 +34777,6 @@
       <c r="C2663" t="s">
         <v>330</v>
       </c>
-      <c r="D2663" t="s">
-        <v>337</v>
-      </c>
       <c r="F2663">
         <v>42</v>
       </c>
@@ -36352,9 +34807,6 @@
       <c r="C2664" t="s">
         <v>330</v>
       </c>
-      <c r="D2664" t="s">
-        <v>337</v>
-      </c>
       <c r="F2664">
         <v>42</v>
       </c>
@@ -36366,9 +34818,6 @@
       </c>
       <c r="K2664">
         <v>63</v>
-      </c>
-      <c r="L2664" t="s">
-        <v>337</v>
       </c>
       <c r="M2664" s="4"/>
       <c r="N2664" s="4"/>
@@ -36385,9 +34834,6 @@
       <c r="C2665" t="s">
         <v>330</v>
       </c>
-      <c r="D2665" t="s">
-        <v>337</v>
-      </c>
       <c r="F2665">
         <v>42</v>
       </c>
@@ -36399,9 +34845,6 @@
       </c>
       <c r="K2665">
         <v>79</v>
-      </c>
-      <c r="L2665" t="s">
-        <v>337</v>
       </c>
       <c r="M2665" s="4"/>
       <c r="N2665" s="4"/>
@@ -36418,9 +34861,6 @@
       <c r="C2666" t="s">
         <v>330</v>
       </c>
-      <c r="D2666" t="s">
-        <v>337</v>
-      </c>
       <c r="F2666">
         <v>47</v>
       </c>
@@ -36432,9 +34872,6 @@
       </c>
       <c r="K2666">
         <v>67</v>
-      </c>
-      <c r="L2666" t="s">
-        <v>337</v>
       </c>
       <c r="M2666" s="4"/>
       <c r="N2666" s="4"/>
@@ -36451,9 +34888,6 @@
       <c r="C2667" t="s">
         <v>330</v>
       </c>
-      <c r="D2667" t="s">
-        <v>337</v>
-      </c>
       <c r="F2667">
         <v>47</v>
       </c>
@@ -36484,9 +34918,6 @@
       <c r="C2668" t="s">
         <v>330</v>
       </c>
-      <c r="D2668" t="s">
-        <v>337</v>
-      </c>
       <c r="F2668">
         <v>46</v>
       </c>
@@ -36498,9 +34929,6 @@
       </c>
       <c r="K2668">
         <v>72</v>
-      </c>
-      <c r="L2668" t="s">
-        <v>337</v>
       </c>
       <c r="M2668" s="4"/>
       <c r="N2668" s="4"/>
@@ -36517,9 +34945,6 @@
       <c r="C2669" t="s">
         <v>330</v>
       </c>
-      <c r="D2669" t="s">
-        <v>337</v>
-      </c>
       <c r="F2669">
         <v>42</v>
       </c>
@@ -36531,9 +34956,6 @@
       </c>
       <c r="K2669">
         <v>61</v>
-      </c>
-      <c r="L2669" t="s">
-        <v>337</v>
       </c>
       <c r="M2669" s="4"/>
       <c r="N2669" s="4"/>
@@ -36550,9 +34972,6 @@
       <c r="C2670" t="s">
         <v>330</v>
       </c>
-      <c r="D2670" t="s">
-        <v>337</v>
-      </c>
       <c r="F2670">
         <v>42</v>
       </c>
@@ -36564,9 +34983,6 @@
       </c>
       <c r="K2670">
         <v>62</v>
-      </c>
-      <c r="L2670" t="s">
-        <v>337</v>
       </c>
       <c r="M2670" s="4"/>
       <c r="N2670" s="4"/>
@@ -36583,9 +34999,6 @@
       <c r="C2671" t="s">
         <v>330</v>
       </c>
-      <c r="D2671" t="s">
-        <v>337</v>
-      </c>
       <c r="F2671">
         <v>42</v>
       </c>
@@ -36616,9 +35029,6 @@
       <c r="C2672" t="s">
         <v>330</v>
       </c>
-      <c r="D2672" t="s">
-        <v>337</v>
-      </c>
       <c r="F2672">
         <v>46</v>
       </c>
@@ -36630,9 +35040,6 @@
       </c>
       <c r="K2672">
         <v>66</v>
-      </c>
-      <c r="L2672" t="s">
-        <v>337</v>
       </c>
       <c r="M2672" s="4"/>
       <c r="N2672" s="4"/>
@@ -36649,9 +35056,6 @@
       <c r="C2673" t="s">
         <v>330</v>
       </c>
-      <c r="D2673" t="s">
-        <v>337</v>
-      </c>
       <c r="F2673">
         <v>42</v>
       </c>
@@ -36663,9 +35067,6 @@
       </c>
       <c r="K2673">
         <v>77</v>
-      </c>
-      <c r="L2673" t="s">
-        <v>337</v>
       </c>
       <c r="M2673" s="4"/>
       <c r="N2673" s="4"/>
@@ -36682,9 +35083,6 @@
       <c r="C2674" t="s">
         <v>330</v>
       </c>
-      <c r="D2674" t="s">
-        <v>337</v>
-      </c>
       <c r="F2674">
         <v>49</v>
       </c>
@@ -36696,9 +35094,6 @@
       </c>
       <c r="K2674">
         <v>70</v>
-      </c>
-      <c r="L2674" t="s">
-        <v>337</v>
       </c>
       <c r="M2674" s="4"/>
       <c r="N2674" s="4"/>
@@ -36715,9 +35110,6 @@
       <c r="C2675" t="s">
         <v>330</v>
       </c>
-      <c r="D2675" t="s">
-        <v>337</v>
-      </c>
       <c r="F2675">
         <v>45</v>
       </c>
@@ -36748,9 +35140,6 @@
       <c r="C2676" t="s">
         <v>330</v>
       </c>
-      <c r="D2676" t="s">
-        <v>337</v>
-      </c>
       <c r="F2676">
         <v>49</v>
       </c>
@@ -36762,9 +35151,6 @@
       </c>
       <c r="K2676">
         <v>67</v>
-      </c>
-      <c r="L2676" t="s">
-        <v>337</v>
       </c>
       <c r="M2676" s="4"/>
       <c r="N2676" s="4"/>
@@ -36781,9 +35167,6 @@
       <c r="C2677" t="s">
         <v>330</v>
       </c>
-      <c r="D2677" t="s">
-        <v>337</v>
-      </c>
       <c r="F2677">
         <v>46</v>
       </c>
@@ -36814,9 +35197,6 @@
       <c r="C2678" t="s">
         <v>330</v>
       </c>
-      <c r="D2678" t="s">
-        <v>337</v>
-      </c>
       <c r="F2678">
         <v>42</v>
       </c>
@@ -36828,9 +35208,6 @@
       </c>
       <c r="K2678">
         <v>63</v>
-      </c>
-      <c r="L2678" t="s">
-        <v>337</v>
       </c>
       <c r="M2678" s="4"/>
       <c r="N2678" s="4"/>
@@ -36847,9 +35224,6 @@
       <c r="C2679" t="s">
         <v>330</v>
       </c>
-      <c r="D2679" t="s">
-        <v>337</v>
-      </c>
       <c r="F2679">
         <v>71</v>
       </c>
@@ -36861,9 +35235,6 @@
       </c>
       <c r="K2679">
         <v>97</v>
-      </c>
-      <c r="L2679" t="s">
-        <v>337</v>
       </c>
       <c r="M2679" s="4"/>
       <c r="N2679" s="4"/>
@@ -36880,9 +35251,6 @@
       <c r="C2680" t="s">
         <v>330</v>
       </c>
-      <c r="D2680" t="s">
-        <v>337</v>
-      </c>
       <c r="F2680">
         <v>45</v>
       </c>
@@ -36913,9 +35281,6 @@
       <c r="C2681" t="s">
         <v>330</v>
       </c>
-      <c r="D2681" t="s">
-        <v>337</v>
-      </c>
       <c r="F2681">
         <v>51</v>
       </c>
@@ -36946,9 +35311,6 @@
       <c r="C2682" t="s">
         <v>330</v>
       </c>
-      <c r="D2682" t="s">
-        <v>337</v>
-      </c>
       <c r="F2682">
         <v>42</v>
       </c>
@@ -36979,9 +35341,6 @@
       <c r="C2683" t="s">
         <v>330</v>
       </c>
-      <c r="D2683" t="s">
-        <v>337</v>
-      </c>
       <c r="F2683">
         <v>49</v>
       </c>
@@ -36993,9 +35352,6 @@
       </c>
       <c r="K2683">
         <v>73</v>
-      </c>
-      <c r="L2683" t="s">
-        <v>337</v>
       </c>
       <c r="M2683" s="4"/>
       <c r="N2683" s="4"/>
@@ -37012,9 +35368,6 @@
       <c r="C2684" t="s">
         <v>330</v>
       </c>
-      <c r="D2684" t="s">
-        <v>337</v>
-      </c>
       <c r="F2684">
         <v>42</v>
       </c>
@@ -37026,9 +35379,6 @@
       </c>
       <c r="K2684">
         <v>63</v>
-      </c>
-      <c r="L2684" t="s">
-        <v>337</v>
       </c>
       <c r="M2684" s="4"/>
       <c r="N2684" s="4"/>
@@ -37045,9 +35395,6 @@
       <c r="C2685" t="s">
         <v>330</v>
       </c>
-      <c r="D2685" t="s">
-        <v>337</v>
-      </c>
       <c r="F2685">
         <v>42</v>
       </c>
@@ -37059,9 +35406,6 @@
       </c>
       <c r="K2685">
         <v>63</v>
-      </c>
-      <c r="L2685" t="s">
-        <v>337</v>
       </c>
       <c r="M2685" s="4"/>
       <c r="N2685" s="4"/>
@@ -37078,9 +35422,6 @@
       <c r="C2686" t="s">
         <v>330</v>
       </c>
-      <c r="D2686" t="s">
-        <v>337</v>
-      </c>
       <c r="F2686">
         <v>71</v>
       </c>
@@ -37092,9 +35433,6 @@
       </c>
       <c r="K2686">
         <v>102</v>
-      </c>
-      <c r="L2686" t="s">
-        <v>337</v>
       </c>
       <c r="M2686" s="4"/>
       <c r="N2686" s="4"/>
@@ -37106,13 +35444,10 @@
     </row>
     <row r="2687" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2687" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2687" t="s">
         <v>330</v>
-      </c>
-      <c r="D2687" t="s">
-        <v>337</v>
       </c>
       <c r="F2687">
         <v>42</v>
@@ -37144,9 +35479,6 @@
       <c r="C2688" t="s">
         <v>330</v>
       </c>
-      <c r="D2688" t="s">
-        <v>337</v>
-      </c>
       <c r="F2688">
         <v>44</v>
       </c>
@@ -37158,9 +35490,6 @@
       </c>
       <c r="K2688">
         <v>70</v>
-      </c>
-      <c r="L2688" t="s">
-        <v>337</v>
       </c>
       <c r="M2688" s="4"/>
       <c r="N2688" s="4"/>
@@ -37177,9 +35506,6 @@
       <c r="C2689" t="s">
         <v>330</v>
       </c>
-      <c r="D2689" t="s">
-        <v>337</v>
-      </c>
       <c r="F2689">
         <v>42</v>
       </c>
@@ -37191,9 +35517,6 @@
       </c>
       <c r="K2689">
         <v>60</v>
-      </c>
-      <c r="L2689" t="s">
-        <v>337</v>
       </c>
       <c r="M2689" s="4"/>
       <c r="N2689" s="4"/>
@@ -37205,7 +35528,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
